--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="569">
   <si>
     <t>caseNum</t>
   </si>
@@ -510,9 +510,6 @@
            4.目前每个用例都是针对单接口的，多接口用例，caseNum末尾加Multi标识,比如loginMulti，此类用例不                从模板获取数据,硬编码直接写在代码中</t>
   </si>
   <si>
-    <t>ElectricBicycle001</t>
-  </si>
-  <si>
     <t>电动自行车预约</t>
   </si>
   <si>
@@ -522,15 +519,9 @@
     <t>获取“通行证类型”的状态</t>
   </si>
   <si>
-    <t>/pvtapi/deliveryVehicle/passcardTypeState</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>{"passcardType":"8"}</t>
-  </si>
-  <si>
     <t>请求成功，返回正确信息</t>
   </si>
   <si>
@@ -546,33 +537,21 @@
     <t>http://testbmcapp.hikcreate.com</t>
   </si>
   <si>
-    <t>ElectricBicycle002</t>
-  </si>
-  <si>
     <t>电动车banner接口</t>
   </si>
   <si>
     <t>/electric/electricBannerOrPop</t>
   </si>
   <si>
-    <t>{"type":"banner"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
   </si>
   <si>
-    <t>ElectricBicycle003</t>
-  </si>
-  <si>
     <t>检测是否领取</t>
   </si>
   <si>
     <t>未领取电动自行车电子行驶证</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/isBind</t>
-  </si>
-  <si>
     <t>{"data":{"isBind":false}}</t>
   </si>
   <si>
@@ -585,69 +564,39 @@
     <t>电动自行车行驶证二维码</t>
   </si>
   <si>
-    <t>/electricBicycle/qr</t>
-  </si>
-  <si>
-    <t>{"plateNum":"%E4%B8%B4%E8%B4%B5%E5%B7%9EA20111"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
   </si>
   <si>
     <t>http://testbmcpvtapp.hikcreate.com</t>
   </si>
   <si>
-    <t>ElectricBicycle005</t>
-  </si>
-  <si>
     <t>获取须知信息</t>
   </si>
   <si>
-    <t>/pvtapi/sys/notice/detail</t>
-  </si>
-  <si>
-    <t>{"type":"electricBicycleNotice"}</t>
-  </si>
-  <si>
     <t>{"data":{"title":"电动自行车预约注意事项"}</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/7704</t>
   </si>
   <si>
-    <t>ElectricBicycle006</t>
-  </si>
-  <si>
     <t>管理办法</t>
   </si>
   <si>
     <t>获取贵州省电动自行车管理办法</t>
   </si>
   <si>
-    <t>{"type":"electricBicycleLaw"}</t>
-  </si>
-  <si>
     <t>{"data":{"title":"贵州省电动自行车管理办法"}</t>
   </si>
   <si>
-    <t>ElectricBicycle007</t>
-  </si>
-  <si>
     <t>文件上传</t>
   </si>
   <si>
-    <t>/pvtapi/file/upload</t>
-  </si>
-  <si>
     <t>参数为文件，此用例待定</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/5452</t>
   </si>
   <si>
-    <t>ElectricBicycle008</t>
-  </si>
-  <si>
     <t>获取系统字典</t>
   </si>
   <si>
@@ -657,19 +606,10 @@
     <t>/pvtapi/sys/dict/list</t>
   </si>
   <si>
-    <t>{"dictType":"body_color"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/5077</t>
   </si>
   <si>
-    <t>ElectricBicycle009</t>
-  </si>
-  <si>
     <t>获取证件类型</t>
-  </si>
-  <si>
-    <t>{"dictType":"id_type"}</t>
   </si>
   <si>
     <t>ElectricBicycle010</t>
@@ -2043,7 +1983,306 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ElectricBicycle004</t>
+    <t>{"passcardType":"8"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/19711</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/deliveryVehicle/passcardTypeState</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>passcardTypeState001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"banner"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/electricBannerOrPop</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricBannerOrPop001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/isBind</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>electricBicycleI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sBind00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"plateNum":"%E4%B8%B4%E8%B4%B5%E5%B7%9EA20111"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electricBicycle/qr</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ElectricBicycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Qr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"electricBicycleNotice"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"electricBicycleLaw"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etail00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etail002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/pvtapi/file/upload</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fileU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/dict/list</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dictType":"body_color"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dictType":"id_type"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2051,7 +2290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2128,8 +2367,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2148,6 +2413,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2162,7 +2433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,9 +2463,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2228,12 +2496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,6 +2513,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2531,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3272,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -3284,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>10</v>
@@ -3328,13 +3614,13 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3370,13 +3656,13 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3411,13 +3697,13 @@
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3450,13 +3736,13 @@
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3489,20 +3775,20 @@
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3510,7 +3796,7 @@
     <row r="8" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3541,7 +3827,7 @@
       <c r="I9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -3562,427 +3848,427 @@
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="31">
+        <v>17822000000</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="15" t="s">
+      <c r="O13" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="P13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>549</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="1">
         <v>19180580229</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>548</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>75</v>
+      <c r="A15" s="34" t="s">
+        <v>552</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>551</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="1">
         <v>19180580229</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K15" s="14"/>
       <c r="L15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>564</v>
+      <c r="A16" s="34" t="s">
+        <v>555</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>554</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1">
         <v>19180580229</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>553</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>87</v>
+      <c r="A17" s="34" t="s">
+        <v>560</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>556</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="1">
         <v>19180580229</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>93</v>
+      <c r="A18" s="34" t="s">
+        <v>561</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>559</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="1">
         <v>19180580229</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>558</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>98</v>
+      <c r="A19" s="36" t="s">
+        <v>565</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="1">
         <v>19180580229</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="19" t="s">
+      <c r="K19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>103</v>
+      <c r="A20" s="34" t="s">
+        <v>562</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>566</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="1">
         <v>19180580229</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>107</v>
+        <v>61</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>567</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>109</v>
+      <c r="A21" s="34" t="s">
+        <v>563</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="1">
         <v>19180580229</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>568</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="1">
@@ -3991,40 +4277,40 @@
       <c r="I22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>116</v>
+      <c r="K22" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="1">
@@ -4033,40 +4319,40 @@
       <c r="I23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>120</v>
+      <c r="K23" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="1">
@@ -4075,40 +4361,40 @@
       <c r="I24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>123</v>
+      <c r="K24" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="1">
@@ -4117,41 +4403,41 @@
       <c r="I25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>126</v>
+      <c r="K25" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="18"/>
+      <c r="R25" s="17"/>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="1">
@@ -4160,40 +4446,40 @@
       <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>129</v>
+      <c r="K26" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="1">
@@ -4202,40 +4488,40 @@
       <c r="I27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>132</v>
+      <c r="K27" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="1">
@@ -4244,40 +4530,40 @@
       <c r="I28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>135</v>
+      <c r="K28" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="1">
@@ -4286,40 +4572,40 @@
       <c r="I29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>138</v>
+      <c r="K29" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="1">
@@ -4328,40 +4614,40 @@
       <c r="I30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>140</v>
+      <c r="K30" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="1">
@@ -4370,130 +4656,130 @@
       <c r="I31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>143</v>
+      <c r="K31" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="1">
         <v>19180580229</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="P32" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="1">
         <v>19180580229</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>155</v>
+        <v>61</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="1">
@@ -4502,40 +4788,40 @@
       <c r="I34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>161</v>
+      <c r="K34" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="P34" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="1">
@@ -4544,43 +4830,43 @@
       <c r="I35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>165</v>
+      <c r="K35" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O35" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="1">
@@ -4589,43 +4875,43 @@
       <c r="I36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>169</v>
+      <c r="K36" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="1">
@@ -4634,40 +4920,40 @@
       <c r="I37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>174</v>
+      <c r="K37" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="1">
@@ -4676,43 +4962,43 @@
       <c r="I38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>180</v>
+      <c r="K38" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P38" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H39" s="1">
         <v>19180580229</v>
@@ -4720,88 +5006,88 @@
       <c r="I39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="15" t="s">
-        <v>186</v>
+      <c r="K39" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P39" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="1">
         <v>19180580229</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>190</v>
+        <v>61</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H41" s="1">
         <v>19180580229</v>
@@ -4809,46 +5095,46 @@
       <c r="I41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>186</v>
+      <c r="K41" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P41" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H42" s="1">
         <v>19180580229</v>
@@ -4856,87 +5142,87 @@
       <c r="I42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="15" t="s">
-        <v>201</v>
+      <c r="K42" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="P42" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="H43" s="1">
         <v>19180580229</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>186</v>
+        <v>61</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P43" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -4944,43 +5230,43 @@
       <c r="I44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="15" t="s">
-        <v>186</v>
+      <c r="K44" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P44" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="O44" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="1">
@@ -4989,46 +5275,46 @@
       <c r="I45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>213</v>
+      <c r="K45" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O45" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>217</v>
+        <v>165</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="H46" s="1">
         <v>19180580229</v>
@@ -5036,46 +5322,46 @@
       <c r="I46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="15" t="s">
-        <v>186</v>
+      <c r="K46" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O46" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>221</v>
+        <v>165</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="H47" s="1">
         <v>19180580229</v>
@@ -5083,46 +5369,46 @@
       <c r="I47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="15" t="s">
-        <v>186</v>
+      <c r="K47" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P47" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O47" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>225</v>
+        <v>165</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="H48" s="1">
         <v>19180580229</v>
@@ -5130,46 +5416,46 @@
       <c r="I48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="15" t="s">
-        <v>186</v>
+      <c r="K48" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P48" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O48" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="49" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>226</v>
+      <c r="A49" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>227</v>
+        <v>165</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="H49" s="1">
         <v>19180580229</v>
@@ -5177,46 +5463,46 @@
       <c r="I49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="15" t="s">
-        <v>186</v>
+      <c r="K49" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P49" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>231</v>
+        <v>165</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="H50" s="1">
         <v>19180580229</v>
@@ -5224,46 +5510,46 @@
       <c r="I50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K50" s="15" t="s">
-        <v>186</v>
+      <c r="K50" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P50" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O50" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>235</v>
+        <v>165</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="H51" s="1">
         <v>19180580229</v>
@@ -5271,483 +5557,483 @@
       <c r="I51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="15" t="s">
-        <v>186</v>
+      <c r="K51" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="P51" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O51" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>241</v>
+        <v>61</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M52" s="15" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O52" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>69</v>
+        <v>224</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>248</v>
+        <v>61</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O53" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="P53" s="18" t="s">
-        <v>69</v>
+        <v>224</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>251</v>
+        <v>61</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P54" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O54" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="P54" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>256</v>
+        <v>61</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="P55" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>262</v>
+        <v>61</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="P56" s="18" t="s">
-        <v>69</v>
+        <v>244</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>268</v>
+        <v>61</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>269</v>
+        <v>222</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="P57" s="18" t="s">
-        <v>69</v>
+        <v>250</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>273</v>
+        <v>61</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P58" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O58" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="P58" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="1">
         <v>19180580229</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K59" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K59" s="14"/>
       <c r="L59" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="P59" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O59" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="P59" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="1">
         <v>19180580229</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K60" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K60" s="14"/>
       <c r="L60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="P60" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O60" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="P60" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="1">
         <v>19180580229</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K61" s="14"/>
       <c r="L61" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M61" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="P61" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O61" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="P61" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="1">
@@ -5756,40 +6042,40 @@
       <c r="I62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>293</v>
+      <c r="K62" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="P62" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O62" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="P62" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="1">
@@ -5798,43 +6084,43 @@
       <c r="I63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K63" s="15" t="s">
-        <v>299</v>
+      <c r="K63" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="P63" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O63" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="P63" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -5842,46 +6128,46 @@
       <c r="I64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="15" t="s">
-        <v>305</v>
+      <c r="K64" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M64" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="P64" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O64" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P64" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -5889,46 +6175,46 @@
       <c r="I65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="15" t="s">
-        <v>305</v>
+      <c r="K65" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M65" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="P65" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O65" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P65" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -5936,46 +6222,46 @@
       <c r="I66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="15" t="s">
-        <v>305</v>
+      <c r="K66" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M66" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="O66" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P66" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -5983,255 +6269,255 @@
       <c r="I67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>305</v>
+      <c r="K67" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M67" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="P67" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O67" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P67" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="1">
         <v>15283936305</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K68" s="14"/>
       <c r="L68" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M68" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="P68" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O68" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="P68" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="1">
         <v>19180580229</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K69" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K69" s="14"/>
       <c r="L69" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M69" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="P69" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O69" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="P69" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="1">
         <v>19180580229</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>332</v>
+        <v>61</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="P70" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O70" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="P70" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="1">
         <v>19180580229</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>338</v>
+        <v>61</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M71" s="15" t="s">
-        <v>339</v>
+        <v>222</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="P71" s="18" t="s">
-        <v>69</v>
+        <v>320</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="P71" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="1">
         <v>19180580229</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>344</v>
+        <v>61</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="P72" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O72" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="P72" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="1">
@@ -6240,122 +6526,122 @@
       <c r="I73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="15" t="s">
-        <v>348</v>
+      <c r="K73" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="P73" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O73" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="1">
         <v>19180580229</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K74" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K74" s="14"/>
       <c r="L74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M74" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="P74" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O74" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="P74" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="1">
         <v>19180580229</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>358</v>
+        <v>61</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P75" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O75" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P75" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="1">
@@ -6364,2676 +6650,2676 @@
       <c r="I76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K76" s="15" t="s">
-        <v>358</v>
+      <c r="K76" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M76" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="P76" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O76" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>368</v>
+        <v>61</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M77" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="P77" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O77" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="P77" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>372</v>
+        <v>61</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M78" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="P78" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="O78" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="P78" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>376</v>
+        <v>61</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M79" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P79" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="O79" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P79" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>381</v>
+        <v>61</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>361</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M80" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P80" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O80" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P80" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>381</v>
+        <v>61</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>361</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M81" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P81" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O81" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P81" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>390</v>
+        <v>61</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M82" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P82" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O82" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P82" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K83" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="P83" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="G84" s="22"/>
+      <c r="H84" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M84" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O84" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M85" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O85" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="P85" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" s="24"/>
+      <c r="H86" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K86" s="25"/>
+      <c r="L86" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M86" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O86" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="P86" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87" s="25"/>
+      <c r="L87" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M87" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O87" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O88" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="H89" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="L89" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M89" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O89" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="P89" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M90" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O90" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P90" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="L91" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M91" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O91" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P91" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K92" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="L92" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M92" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O92" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P92" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="L93" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O93" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="P93" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H94" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M94" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="P94" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="H95" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="L95" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M95" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O95" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="P95" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M96" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O96" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="P96" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M97" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O97" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="P97" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K98" s="25"/>
+      <c r="L98" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M98" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O98" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="P98" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="G99" s="24"/>
+      <c r="H99" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K99" s="25"/>
+      <c r="L99" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M99" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O99" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="P99" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100" s="24"/>
+      <c r="H100" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="L100" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M100" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O100" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="P100" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="G101" s="24"/>
+      <c r="H101" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="L101" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M101" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O101" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="P101" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K102" s="25"/>
+      <c r="L102" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M102" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O102" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="P102" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G103" s="24"/>
+      <c r="H103" s="23">
+        <v>19180580229</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M103" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O103" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="P103" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="G104" s="24"/>
+      <c r="H104" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K104" s="25"/>
+      <c r="L104" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M104" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O104" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="P104" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G105" s="24"/>
+      <c r="H105" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M105" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O105" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="P105" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H106" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K106" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="L106" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M106" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O106" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="P106" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="G107" s="24"/>
+      <c r="H107" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K107" s="25"/>
+      <c r="L107" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M107" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O107" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="P107" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="G108" s="24"/>
+      <c r="H108" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="L108" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M108" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O108" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="M83" s="15" t="s">
+      <c r="P108" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="G109" s="24"/>
+      <c r="H109" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K109" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="L109" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M109" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O109" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P109" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="O83" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P83" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="D84" s="26" t="s">
+    </row>
+    <row r="110" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E84" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26">
+      <c r="E110" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G110" s="24"/>
+      <c r="H110" s="23">
         <v>13688468803</v>
       </c>
-      <c r="I84" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K84" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="L84" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M84" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O84" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="P84" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D85" s="26" t="s">
+      <c r="I110" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="L110" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M110" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O110" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="P110" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D111" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G85" s="27"/>
-      <c r="H85" s="26">
+      <c r="E111" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="G111" s="24"/>
+      <c r="H111" s="23">
         <v>13688468803</v>
       </c>
-      <c r="I85" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K85" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="L85" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M85" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O85" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="P85" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="D86" s="26" t="s">
+      <c r="I111" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="L111" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M111" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O111" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="P111" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="G112" s="24"/>
+      <c r="H112" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="L112" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M112" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="O112" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="P112" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="D113" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="26">
+      <c r="E113" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" s="24"/>
+      <c r="H113" s="23">
         <v>13688468803</v>
       </c>
-      <c r="I86" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M86" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O86" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="P86" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G87" s="27"/>
-      <c r="H87" s="26">
+      <c r="I113" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K113" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="L113" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M113" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O113" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="P113" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="G114" s="24"/>
+      <c r="H114" s="23">
         <v>13688468803</v>
       </c>
-      <c r="I87" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M87" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O87" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="P87" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D88" s="26" t="s">
+      <c r="I114" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K114" s="25"/>
+      <c r="L114" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M114" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O114" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="P114" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="G88" s="27"/>
-      <c r="H88" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I88" s="26" t="s">
+      <c r="E115" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="G115" s="24"/>
+      <c r="H115" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M115" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O115" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="P115" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G116" s="24"/>
+      <c r="H116" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I116" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K116" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="L116" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M116" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O116" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="P116" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I117" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K88" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="L88" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M88" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O88" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="P88" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D89" s="26" t="s">
+      <c r="K117" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="L117" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M117" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O117" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="P117" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D118" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="H89" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I89" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K89" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="L89" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M89" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O89" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="P89" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I90" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K90" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="L90" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M90" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O90" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="P90" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G91" s="27"/>
-      <c r="H91" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I91" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K91" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="L91" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M91" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O91" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="P91" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G92" s="27"/>
-      <c r="H92" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I92" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K92" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="L92" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M92" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O92" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="P92" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="G93" s="27"/>
-      <c r="H93" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I93" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="L93" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M93" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O93" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="P93" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="H94" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I94" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="L94" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M94" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O94" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="P94" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="F95" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="H95" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I95" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K95" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="L95" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M95" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O95" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="P95" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="G96" s="25"/>
-      <c r="H96" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I96" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="L96" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M96" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O96" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="P96" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I97" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="L97" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M97" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="P97" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="G98" s="27"/>
-      <c r="H98" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I98" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K98" s="28"/>
-      <c r="L98" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O98" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="P98" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="G99" s="27"/>
-      <c r="H99" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I99" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M99" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O99" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="P99" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="G100" s="27"/>
-      <c r="H100" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K100" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="L100" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M100" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O100" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="P100" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="G101" s="27"/>
-      <c r="H101" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I101" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K101" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="L101" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M101" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O101" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="P101" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="G102" s="27"/>
-      <c r="H102" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K102" s="28"/>
-      <c r="L102" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M102" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O102" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="P102" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
+      <c r="E118" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="F118" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="B103" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F103" s="27" t="s">
+      <c r="G118" s="24"/>
+      <c r="H118" s="23">
+        <v>13688468803</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K118" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L118" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M118" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O118" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="G103" s="27"/>
-      <c r="H103" s="26">
-        <v>19180580229</v>
-      </c>
-      <c r="I103" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="L103" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M103" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O103" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="P103" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="G104" s="27"/>
-      <c r="H104" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K104" s="28"/>
-      <c r="L104" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M104" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O104" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="P104" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="G105" s="27"/>
-      <c r="H105" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I105" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K105" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="L105" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M105" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O105" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="P105" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G106" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="H106" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I106" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="L106" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M106" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O106" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="P106" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="G107" s="27"/>
-      <c r="H107" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I107" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K107" s="28"/>
-      <c r="L107" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M107" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O107" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="P107" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="G108" s="27"/>
-      <c r="H108" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I108" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K108" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="L108" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M108" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O108" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="P108" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="G109" s="27"/>
-      <c r="H109" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I109" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K109" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="L109" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M109" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O109" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P109" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="G110" s="27"/>
-      <c r="H110" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I110" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="L110" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M110" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O110" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="P110" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="G111" s="27"/>
-      <c r="H111" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I111" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K111" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="L111" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M111" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O111" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="P111" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="G112" s="27"/>
-      <c r="H112" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I112" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K112" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="L112" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M112" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="O112" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="P112" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>532</v>
-      </c>
-      <c r="G113" s="27"/>
-      <c r="H113" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I113" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K113" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="L113" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M113" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O113" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="P113" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="G114" s="27"/>
-      <c r="H114" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I114" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K114" s="28"/>
-      <c r="L114" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M114" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O114" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="P114" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="G115" s="27"/>
-      <c r="H115" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I115" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K115" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="L115" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M115" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O115" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="P115" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="G116" s="27"/>
-      <c r="H116" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I116" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K116" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="L116" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M116" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O116" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="P116" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="G117" s="27"/>
-      <c r="H117" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I117" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="L117" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M117" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O117" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="P117" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="G118" s="27"/>
-      <c r="H118" s="26">
-        <v>13688468803</v>
-      </c>
-      <c r="I118" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="L118" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M118" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O118" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="P118" s="31" t="s">
-        <v>86</v>
+      <c r="P118" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="K119" s="15"/>
+      <c r="K119" s="14"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="15"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="18"/>
+      <c r="M119" s="14"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="K120" s="15"/>
+      <c r="K120" s="14"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="15"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="18"/>
+      <c r="M120" s="14"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="17"/>
     </row>
     <row r="121" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="K121" s="15"/>
+      <c r="K121" s="14"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="15"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="18"/>
+      <c r="M121" s="14"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="K122" s="15"/>
+      <c r="K122" s="14"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="15"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="18"/>
+      <c r="M122" s="14"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="K123" s="15"/>
+      <c r="K123" s="14"/>
       <c r="L123" s="8"/>
-      <c r="M123" s="15"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="18"/>
+      <c r="M123" s="14"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="K124" s="15"/>
+      <c r="K124" s="14"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="15"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="18"/>
+      <c r="M124" s="14"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="K125" s="15"/>
+      <c r="K125" s="14"/>
       <c r="L125" s="8"/>
-      <c r="M125" s="15"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="18"/>
+      <c r="M125" s="14"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="K126" s="15"/>
+      <c r="K126" s="14"/>
       <c r="L126" s="8"/>
-      <c r="M126" s="15"/>
-      <c r="O126" s="22"/>
-      <c r="P126" s="18"/>
+      <c r="M126" s="14"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="17"/>
     </row>
     <row r="127" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="K127" s="15"/>
+      <c r="K127" s="14"/>
       <c r="L127" s="8"/>
-      <c r="M127" s="15"/>
-      <c r="O127" s="22"/>
-      <c r="P127" s="18"/>
+      <c r="M127" s="14"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="17"/>
     </row>
     <row r="128" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="K128" s="15"/>
+      <c r="K128" s="14"/>
       <c r="L128" s="8"/>
-      <c r="M128" s="15"/>
-      <c r="O128" s="22"/>
-      <c r="P128" s="18"/>
+      <c r="M128" s="14"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="17"/>
     </row>
     <row r="129" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-      <c r="K129" s="15"/>
+      <c r="K129" s="14"/>
       <c r="L129" s="8"/>
-      <c r="M129" s="15"/>
-      <c r="O129" s="22"/>
-      <c r="P129" s="18"/>
+      <c r="M129" s="14"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="17"/>
     </row>
     <row r="130" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-      <c r="K130" s="15"/>
+      <c r="K130" s="14"/>
       <c r="L130" s="8"/>
-      <c r="M130" s="15"/>
-      <c r="O130" s="22"/>
-      <c r="P130" s="18"/>
+      <c r="M130" s="14"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="17"/>
     </row>
     <row r="131" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-      <c r="K131" s="15"/>
+      <c r="K131" s="14"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="15"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="18"/>
+      <c r="M131" s="14"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="17"/>
     </row>
     <row r="132" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
-      <c r="K132" s="15"/>
+      <c r="K132" s="14"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="15"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="18"/>
+      <c r="M132" s="14"/>
+      <c r="O132" s="21"/>
+      <c r="P132" s="17"/>
     </row>
     <row r="133" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-      <c r="K133" s="15"/>
+      <c r="K133" s="14"/>
       <c r="L133" s="8"/>
-      <c r="M133" s="15"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="18"/>
+      <c r="M133" s="14"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="17"/>
     </row>
     <row r="134" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
-      <c r="K134" s="15"/>
+      <c r="K134" s="14"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="15"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="18"/>
+      <c r="M134" s="14"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="17"/>
     </row>
     <row r="135" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-      <c r="K135" s="15"/>
+      <c r="K135" s="14"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="15"/>
-      <c r="O135" s="22"/>
-      <c r="P135" s="18"/>
+      <c r="M135" s="14"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="17"/>
     </row>
     <row r="136" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
-      <c r="K136" s="15"/>
+      <c r="K136" s="14"/>
       <c r="L136" s="8"/>
-      <c r="M136" s="15"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="18"/>
+      <c r="M136" s="14"/>
+      <c r="O136" s="21"/>
+      <c r="P136" s="17"/>
     </row>
     <row r="137" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-      <c r="K137" s="15"/>
+      <c r="K137" s="14"/>
       <c r="L137" s="8"/>
-      <c r="M137" s="15"/>
-      <c r="O137" s="22"/>
-      <c r="P137" s="18"/>
+      <c r="M137" s="14"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="17"/>
     </row>
     <row r="138" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-      <c r="K138" s="15"/>
+      <c r="K138" s="14"/>
       <c r="L138" s="8"/>
-      <c r="M138" s="15"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="18"/>
+      <c r="M138" s="14"/>
+      <c r="O138" s="21"/>
+      <c r="P138" s="17"/>
     </row>
     <row r="139" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
-      <c r="K139" s="15"/>
+      <c r="K139" s="14"/>
       <c r="L139" s="8"/>
-      <c r="M139" s="15"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="18"/>
+      <c r="M139" s="14"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="17"/>
     </row>
     <row r="140" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="K140" s="15"/>
+      <c r="K140" s="14"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="15"/>
-      <c r="O140" s="22"/>
-      <c r="P140" s="18"/>
+      <c r="M140" s="14"/>
+      <c r="O140" s="21"/>
+      <c r="P140" s="17"/>
     </row>
     <row r="141" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="K141" s="15"/>
+      <c r="K141" s="14"/>
       <c r="L141" s="8"/>
-      <c r="M141" s="15"/>
-      <c r="O141" s="22"/>
-      <c r="P141" s="18"/>
+      <c r="M141" s="14"/>
+      <c r="O141" s="21"/>
+      <c r="P141" s="17"/>
     </row>
     <row r="142" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-      <c r="K142" s="15"/>
+      <c r="K142" s="14"/>
       <c r="L142" s="8"/>
-      <c r="M142" s="15"/>
-      <c r="O142" s="22"/>
-      <c r="P142" s="18"/>
+      <c r="M142" s="14"/>
+      <c r="O142" s="21"/>
+      <c r="P142" s="17"/>
     </row>
     <row r="143" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="K143" s="15"/>
+      <c r="K143" s="14"/>
       <c r="L143" s="8"/>
-      <c r="M143" s="15"/>
-      <c r="O143" s="22"/>
-      <c r="P143" s="18"/>
+      <c r="M143" s="14"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="17"/>
     </row>
     <row r="144" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="K144" s="15"/>
+      <c r="K144" s="14"/>
       <c r="L144" s="8"/>
-      <c r="M144" s="15"/>
-      <c r="O144" s="22"/>
-      <c r="P144" s="18"/>
+      <c r="M144" s="14"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="17"/>
     </row>
     <row r="145" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="K145" s="15"/>
+      <c r="K145" s="14"/>
       <c r="L145" s="8"/>
-      <c r="M145" s="15"/>
-      <c r="O145" s="22"/>
-      <c r="P145" s="18"/>
+      <c r="M145" s="14"/>
+      <c r="O145" s="21"/>
+      <c r="P145" s="17"/>
     </row>
     <row r="146" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="K146" s="15"/>
+      <c r="K146" s="14"/>
       <c r="L146" s="8"/>
-      <c r="M146" s="15"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="18"/>
+      <c r="M146" s="14"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="17"/>
     </row>
     <row r="147" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="K147" s="15"/>
+      <c r="K147" s="14"/>
       <c r="L147" s="8"/>
-      <c r="M147" s="15"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="18"/>
+      <c r="M147" s="14"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="17"/>
     </row>
     <row r="148" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="K148" s="15"/>
+      <c r="K148" s="14"/>
       <c r="L148" s="8"/>
-      <c r="M148" s="15"/>
-      <c r="O148" s="22"/>
-      <c r="P148" s="18"/>
+      <c r="M148" s="14"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="17"/>
     </row>
     <row r="149" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="K149" s="15"/>
+      <c r="K149" s="14"/>
       <c r="L149" s="8"/>
-      <c r="M149" s="15"/>
-      <c r="O149" s="22"/>
-      <c r="P149" s="18"/>
+      <c r="M149" s="14"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="17"/>
     </row>
     <row r="150" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="K150" s="15"/>
+      <c r="K150" s="14"/>
       <c r="L150" s="8"/>
-      <c r="M150" s="15"/>
-      <c r="O150" s="22"/>
-      <c r="P150" s="18"/>
+      <c r="M150" s="14"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="17"/>
     </row>
     <row r="151" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="K151" s="15"/>
+      <c r="K151" s="14"/>
       <c r="L151" s="8"/>
-      <c r="M151" s="15"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="18"/>
+      <c r="M151" s="14"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="17"/>
     </row>
     <row r="152" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="K152" s="15"/>
+      <c r="K152" s="14"/>
       <c r="L152" s="8"/>
-      <c r="M152" s="15"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="18"/>
+      <c r="M152" s="14"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="17"/>
     </row>
     <row r="153" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="K153" s="15"/>
+      <c r="K153" s="14"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="15"/>
-      <c r="O153" s="22"/>
-      <c r="P153" s="18"/>
+      <c r="M153" s="14"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="17"/>
     </row>
     <row r="154" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="K154" s="15"/>
+      <c r="K154" s="14"/>
       <c r="L154" s="8"/>
-      <c r="M154" s="15"/>
-      <c r="O154" s="22"/>
-      <c r="P154" s="18"/>
+      <c r="M154" s="14"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="17"/>
     </row>
     <row r="155" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="K155" s="15"/>
+      <c r="K155" s="14"/>
       <c r="L155" s="8"/>
-      <c r="M155" s="15"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="18"/>
+      <c r="M155" s="14"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="17"/>
     </row>
     <row r="156" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="K156" s="15"/>
+      <c r="K156" s="14"/>
       <c r="L156" s="8"/>
-      <c r="M156" s="15"/>
-      <c r="O156" s="22"/>
-      <c r="P156" s="18"/>
+      <c r="M156" s="14"/>
+      <c r="O156" s="21"/>
+      <c r="P156" s="17"/>
     </row>
     <row r="157" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="K157" s="15"/>
+      <c r="K157" s="14"/>
       <c r="L157" s="8"/>
-      <c r="M157" s="15"/>
-      <c r="O157" s="22"/>
-      <c r="P157" s="18"/>
+      <c r="M157" s="14"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="17"/>
     </row>
     <row r="158" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="K158" s="15"/>
+      <c r="K158" s="14"/>
       <c r="L158" s="8"/>
-      <c r="M158" s="15"/>
-      <c r="O158" s="22"/>
-      <c r="P158" s="18"/>
+      <c r="M158" s="14"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="17"/>
     </row>
     <row r="159" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="K159" s="15"/>
+      <c r="K159" s="14"/>
       <c r="L159" s="8"/>
-      <c r="M159" s="15"/>
-      <c r="O159" s="22"/>
-      <c r="P159" s="18"/>
+      <c r="M159" s="14"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="K160" s="15"/>
+      <c r="K160" s="14"/>
       <c r="L160" s="8"/>
-      <c r="M160" s="15"/>
-      <c r="O160" s="22"/>
-      <c r="P160" s="18"/>
+      <c r="M160" s="14"/>
+      <c r="O160" s="21"/>
+      <c r="P160" s="17"/>
     </row>
     <row r="161" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="K161" s="15"/>
+      <c r="K161" s="14"/>
       <c r="L161" s="8"/>
-      <c r="M161" s="15"/>
-      <c r="O161" s="22"/>
-      <c r="P161" s="18"/>
+      <c r="M161" s="14"/>
+      <c r="O161" s="21"/>
+      <c r="P161" s="17"/>
     </row>
     <row r="162" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
-      <c r="K162" s="15"/>
+      <c r="K162" s="14"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="15"/>
-      <c r="O162" s="22"/>
-      <c r="P162" s="18"/>
+      <c r="M162" s="14"/>
+      <c r="O162" s="21"/>
+      <c r="P162" s="17"/>
     </row>
     <row r="163" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
-      <c r="K163" s="15"/>
+      <c r="K163" s="14"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="15"/>
-      <c r="O163" s="22"/>
-      <c r="P163" s="18"/>
+      <c r="M163" s="14"/>
+      <c r="O163" s="21"/>
+      <c r="P163" s="17"/>
     </row>
     <row r="164" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="K164" s="15"/>
+      <c r="K164" s="14"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="15"/>
-      <c r="O164" s="22"/>
-      <c r="P164" s="18"/>
+      <c r="M164" s="14"/>
+      <c r="O164" s="21"/>
+      <c r="P164" s="17"/>
     </row>
     <row r="165" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="K165" s="15"/>
+      <c r="K165" s="14"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="15"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="18"/>
+      <c r="M165" s="14"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="17"/>
     </row>
     <row r="166" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
-      <c r="K166" s="15"/>
+      <c r="K166" s="14"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="15"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="18"/>
+      <c r="M166" s="14"/>
+      <c r="O166" s="21"/>
+      <c r="P166" s="17"/>
     </row>
     <row r="167" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
-      <c r="K167" s="15"/>
+      <c r="K167" s="14"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="15"/>
-      <c r="O167" s="22"/>
-      <c r="P167" s="18"/>
+      <c r="M167" s="14"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="17"/>
     </row>
     <row r="168" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
-      <c r="K168" s="15"/>
+      <c r="K168" s="14"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="15"/>
-      <c r="O168" s="22"/>
-      <c r="P168" s="18"/>
+      <c r="M168" s="14"/>
+      <c r="O168" s="21"/>
+      <c r="P168" s="17"/>
     </row>
     <row r="169" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
-      <c r="K169" s="15"/>
+      <c r="K169" s="14"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="15"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="18"/>
+      <c r="M169" s="14"/>
+      <c r="O169" s="21"/>
+      <c r="P169" s="17"/>
     </row>
     <row r="170" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="K170" s="15"/>
+      <c r="K170" s="14"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="15"/>
-      <c r="O170" s="22"/>
-      <c r="P170" s="18"/>
+      <c r="M170" s="14"/>
+      <c r="O170" s="21"/>
+      <c r="P170" s="17"/>
     </row>
     <row r="171" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="K171" s="15"/>
+      <c r="K171" s="14"/>
       <c r="L171" s="8"/>
-      <c r="M171" s="15"/>
-      <c r="O171" s="22"/>
-      <c r="P171" s="18"/>
+      <c r="M171" s="14"/>
+      <c r="O171" s="21"/>
+      <c r="P171" s="17"/>
     </row>
     <row r="172" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="K172" s="15"/>
+      <c r="K172" s="14"/>
       <c r="L172" s="8"/>
-      <c r="M172" s="15"/>
-      <c r="O172" s="22"/>
-      <c r="P172" s="18"/>
+      <c r="M172" s="14"/>
+      <c r="O172" s="21"/>
+      <c r="P172" s="17"/>
     </row>
     <row r="173" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
-      <c r="K173" s="15"/>
+      <c r="K173" s="14"/>
       <c r="L173" s="8"/>
-      <c r="M173" s="15"/>
-      <c r="O173" s="22"/>
-      <c r="P173" s="18"/>
+      <c r="M173" s="14"/>
+      <c r="O173" s="21"/>
+      <c r="P173" s="17"/>
     </row>
     <row r="174" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
-      <c r="K174" s="15"/>
+      <c r="K174" s="14"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="15"/>
-      <c r="O174" s="22"/>
-      <c r="P174" s="18"/>
+      <c r="M174" s="14"/>
+      <c r="O174" s="21"/>
+      <c r="P174" s="17"/>
     </row>
     <row r="175" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="K175" s="15"/>
+      <c r="K175" s="14"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="15"/>
-      <c r="O175" s="22"/>
-      <c r="P175" s="18"/>
+      <c r="M175" s="14"/>
+      <c r="O175" s="21"/>
+      <c r="P175" s="17"/>
     </row>
     <row r="176" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="K176" s="15"/>
+      <c r="K176" s="14"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="15"/>
-      <c r="O176" s="22"/>
-      <c r="P176" s="18"/>
+      <c r="M176" s="14"/>
+      <c r="O176" s="21"/>
+      <c r="P176" s="17"/>
     </row>
     <row r="177" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="K177" s="15"/>
+      <c r="K177" s="14"/>
       <c r="L177" s="8"/>
-      <c r="M177" s="15"/>
-      <c r="O177" s="22"/>
-      <c r="P177" s="18"/>
+      <c r="M177" s="14"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="17"/>
     </row>
     <row r="178" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
-      <c r="K178" s="15"/>
+      <c r="K178" s="14"/>
       <c r="L178" s="8"/>
-      <c r="M178" s="15"/>
-      <c r="O178" s="22"/>
-      <c r="P178" s="18"/>
+      <c r="M178" s="14"/>
+      <c r="O178" s="21"/>
+      <c r="P178" s="17"/>
     </row>
     <row r="179" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
-      <c r="K179" s="15"/>
+      <c r="K179" s="14"/>
       <c r="L179" s="8"/>
-      <c r="M179" s="15"/>
-      <c r="O179" s="22"/>
-      <c r="P179" s="18"/>
+      <c r="M179" s="14"/>
+      <c r="O179" s="21"/>
+      <c r="P179" s="17"/>
     </row>
     <row r="180" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="K180" s="15"/>
+      <c r="K180" s="14"/>
       <c r="L180" s="8"/>
-      <c r="M180" s="15"/>
-      <c r="O180" s="22"/>
-      <c r="P180" s="18"/>
+      <c r="M180" s="14"/>
+      <c r="O180" s="21"/>
+      <c r="P180" s="17"/>
     </row>
     <row r="181" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="K181" s="15"/>
+      <c r="K181" s="14"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="15"/>
-      <c r="O181" s="22"/>
-      <c r="P181" s="18"/>
+      <c r="M181" s="14"/>
+      <c r="O181" s="21"/>
+      <c r="P181" s="17"/>
     </row>
     <row r="182" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
-      <c r="K182" s="15"/>
+      <c r="K182" s="14"/>
       <c r="L182" s="8"/>
-      <c r="M182" s="15"/>
-      <c r="O182" s="22"/>
-      <c r="P182" s="18"/>
+      <c r="M182" s="14"/>
+      <c r="O182" s="21"/>
+      <c r="P182" s="17"/>
     </row>
     <row r="183" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="K183" s="15"/>
+      <c r="K183" s="14"/>
       <c r="L183" s="8"/>
-      <c r="M183" s="15"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="18"/>
+      <c r="M183" s="14"/>
+      <c r="O183" s="21"/>
+      <c r="P183" s="17"/>
     </row>
     <row r="184" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="K184" s="15"/>
+      <c r="K184" s="14"/>
       <c r="L184" s="8"/>
-      <c r="M184" s="15"/>
-      <c r="O184" s="22"/>
-      <c r="P184" s="18"/>
+      <c r="M184" s="14"/>
+      <c r="O184" s="21"/>
+      <c r="P184" s="17"/>
     </row>
     <row r="185" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="K185" s="15"/>
+      <c r="K185" s="14"/>
       <c r="L185" s="8"/>
-      <c r="M185" s="15"/>
-      <c r="O185" s="22"/>
-      <c r="P185" s="18"/>
+      <c r="M185" s="14"/>
+      <c r="O185" s="21"/>
+      <c r="P185" s="17"/>
     </row>
     <row r="186" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="K186" s="15"/>
+      <c r="K186" s="14"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="15"/>
-      <c r="O186" s="22"/>
-      <c r="P186" s="18"/>
+      <c r="M186" s="14"/>
+      <c r="O186" s="21"/>
+      <c r="P186" s="17"/>
     </row>
     <row r="187" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="K187" s="15"/>
+      <c r="K187" s="14"/>
       <c r="L187" s="8"/>
-      <c r="M187" s="15"/>
-      <c r="O187" s="22"/>
-      <c r="P187" s="18"/>
+      <c r="M187" s="14"/>
+      <c r="O187" s="21"/>
+      <c r="P187" s="17"/>
     </row>
     <row r="188" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="K188" s="15"/>
+      <c r="K188" s="14"/>
       <c r="L188" s="8"/>
-      <c r="M188" s="15"/>
-      <c r="O188" s="22"/>
-      <c r="P188" s="18"/>
+      <c r="M188" s="14"/>
+      <c r="O188" s="21"/>
+      <c r="P188" s="17"/>
     </row>
     <row r="189" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
-      <c r="K189" s="15"/>
+      <c r="K189" s="14"/>
       <c r="L189" s="8"/>
-      <c r="M189" s="15"/>
-      <c r="O189" s="22"/>
-      <c r="P189" s="18"/>
+      <c r="M189" s="14"/>
+      <c r="O189" s="21"/>
+      <c r="P189" s="17"/>
     </row>
     <row r="190" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
-      <c r="K190" s="15"/>
+      <c r="K190" s="14"/>
       <c r="L190" s="8"/>
-      <c r="M190" s="15"/>
-      <c r="O190" s="22"/>
-      <c r="P190" s="18"/>
+      <c r="M190" s="14"/>
+      <c r="O190" s="21"/>
+      <c r="P190" s="17"/>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="K191" s="15"/>
+      <c r="K191" s="14"/>
       <c r="L191" s="8"/>
-      <c r="M191" s="15"/>
-      <c r="O191" s="22"/>
-      <c r="P191" s="18"/>
+      <c r="M191" s="14"/>
+      <c r="O191" s="21"/>
+      <c r="P191" s="17"/>
     </row>
     <row r="192" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
-      <c r="K192" s="15"/>
+      <c r="K192" s="14"/>
       <c r="L192" s="8"/>
-      <c r="M192" s="15"/>
-      <c r="O192" s="22"/>
-      <c r="P192" s="18"/>
+      <c r="M192" s="14"/>
+      <c r="O192" s="21"/>
+      <c r="P192" s="17"/>
     </row>
     <row r="193" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
-      <c r="K193" s="15"/>
+      <c r="K193" s="14"/>
       <c r="L193" s="8"/>
-      <c r="M193" s="15"/>
-      <c r="O193" s="22"/>
-      <c r="P193" s="18"/>
+      <c r="M193" s="14"/>
+      <c r="O193" s="21"/>
+      <c r="P193" s="17"/>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
-      <c r="K194" s="15"/>
+      <c r="K194" s="14"/>
       <c r="L194" s="8"/>
-      <c r="M194" s="15"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="18"/>
+      <c r="M194" s="14"/>
+      <c r="O194" s="21"/>
+      <c r="P194" s="17"/>
     </row>
     <row r="195" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
-      <c r="K195" s="15"/>
+      <c r="K195" s="14"/>
       <c r="L195" s="8"/>
-      <c r="M195" s="15"/>
-      <c r="O195" s="22"/>
-      <c r="P195" s="18"/>
+      <c r="M195" s="14"/>
+      <c r="O195" s="21"/>
+      <c r="P195" s="17"/>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-      <c r="K196" s="15"/>
+      <c r="K196" s="14"/>
       <c r="L196" s="8"/>
-      <c r="M196" s="15"/>
-      <c r="O196" s="22"/>
-      <c r="P196" s="18"/>
+      <c r="M196" s="14"/>
+      <c r="O196" s="21"/>
+      <c r="P196" s="17"/>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
-      <c r="K197" s="15"/>
+      <c r="K197" s="14"/>
       <c r="L197" s="8"/>
-      <c r="M197" s="15"/>
-      <c r="O197" s="22"/>
-      <c r="P197" s="18"/>
+      <c r="M197" s="14"/>
+      <c r="O197" s="21"/>
+      <c r="P197" s="17"/>
     </row>
     <row r="198" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
-      <c r="K198" s="15"/>
+      <c r="K198" s="14"/>
       <c r="L198" s="8"/>
-      <c r="M198" s="15"/>
-      <c r="O198" s="22"/>
-      <c r="P198" s="18"/>
+      <c r="M198" s="14"/>
+      <c r="O198" s="21"/>
+      <c r="P198" s="17"/>
     </row>
     <row r="199" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="K199" s="15"/>
+      <c r="K199" s="14"/>
       <c r="L199" s="8"/>
-      <c r="M199" s="15"/>
-      <c r="O199" s="22"/>
-      <c r="P199" s="18"/>
+      <c r="M199" s="14"/>
+      <c r="O199" s="21"/>
+      <c r="P199" s="17"/>
     </row>
     <row r="200" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-      <c r="K200" s="15"/>
+      <c r="K200" s="14"/>
       <c r="L200" s="8"/>
-      <c r="M200" s="15"/>
-      <c r="O200" s="22"/>
-      <c r="P200" s="18"/>
+      <c r="M200" s="14"/>
+      <c r="O200" s="21"/>
+      <c r="P200" s="17"/>
     </row>
     <row r="201" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-      <c r="K201" s="15"/>
+      <c r="K201" s="14"/>
       <c r="L201" s="8"/>
-      <c r="M201" s="15"/>
-      <c r="O201" s="22"/>
-      <c r="P201" s="18"/>
+      <c r="M201" s="14"/>
+      <c r="O201" s="21"/>
+      <c r="P201" s="17"/>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="K202" s="15"/>
+      <c r="K202" s="14"/>
       <c r="L202" s="8"/>
-      <c r="M202" s="15"/>
-      <c r="O202" s="22"/>
-      <c r="P202" s="18"/>
+      <c r="M202" s="14"/>
+      <c r="O202" s="21"/>
+      <c r="P202" s="17"/>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
-      <c r="K203" s="15"/>
+      <c r="K203" s="14"/>
       <c r="L203" s="8"/>
-      <c r="M203" s="15"/>
-      <c r="O203" s="22"/>
-      <c r="P203" s="18"/>
+      <c r="M203" s="14"/>
+      <c r="O203" s="21"/>
+      <c r="P203" s="17"/>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="K204" s="15"/>
+      <c r="K204" s="14"/>
       <c r="L204" s="8"/>
-      <c r="M204" s="15"/>
-      <c r="O204" s="22"/>
-      <c r="P204" s="18"/>
+      <c r="M204" s="14"/>
+      <c r="O204" s="21"/>
+      <c r="P204" s="17"/>
     </row>
     <row r="205" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
-      <c r="K205" s="15"/>
+      <c r="K205" s="14"/>
       <c r="L205" s="8"/>
-      <c r="M205" s="15"/>
-      <c r="O205" s="22"/>
-      <c r="P205" s="18"/>
+      <c r="M205" s="14"/>
+      <c r="O205" s="21"/>
+      <c r="P205" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9205,7 +9491,7 @@
     <hyperlink ref="O118" r:id="rId162"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId163"/>
 </worksheet>
 </file>
 

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="579">
   <si>
     <t>url</t>
   </si>
@@ -1960,10 +1960,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/electric/electricBannerOrPop</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>electricBannerOrPop001</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2295,12 +2291,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>autoCreator</t>
-  </si>
-  <si>
     <t xml:space="preserve">remarks </t>
   </si>
   <si>
@@ -2321,6 +2311,26 @@
   </si>
   <si>
     <t>获取“通行证类型”的状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动车banner接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/electricBannerOrPop</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCreator</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2880,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2902,7 +2912,9 @@
     <col min="14" max="14" width="26.875" style="3" customWidth="1"/>
     <col min="15" max="15" width="49.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.625" style="3" customWidth="1"/>
-    <col min="17" max="259" width="9" style="3"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="28.125" style="3" customWidth="1"/>
+    <col min="19" max="259" width="9" style="3"/>
     <col min="260" max="260" width="10.125" style="3" customWidth="1"/>
     <col min="261" max="261" width="14.375" style="3" customWidth="1"/>
     <col min="262" max="262" width="25" style="3" customWidth="1"/>
@@ -3600,19 +3612,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>563</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>564</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>0</v>
@@ -3621,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>2</v>
@@ -3630,28 +3642,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>566</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>567</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -3934,19 +3946,19 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>534</v>
@@ -3965,19 +3977,19 @@
         <v>53</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -3985,13 +3997,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>574</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4000,7 +4012,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4013,19 +4025,19 @@
         <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>60</v>
+        <v>575</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -4033,7 +4045,7 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
@@ -4048,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4071,10 +4083,10 @@
         <v>64</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>57</v>
@@ -4082,7 +4094,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4097,7 +4109,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4107,7 +4119,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4119,10 +4131,10 @@
         <v>67</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>68</v>
@@ -4130,7 +4142,7 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
@@ -4145,7 +4157,7 @@
         <v>69</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4155,7 +4167,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4170,10 +4182,10 @@
         <v>71</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>57</v>
@@ -4181,7 +4193,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4196,7 +4208,7 @@
         <v>73</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4206,7 +4218,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4221,10 +4233,10 @@
         <v>71</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>57</v>
@@ -4232,7 +4244,7 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -4247,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4269,10 +4281,10 @@
         <v>77</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>57</v>
@@ -4280,7 +4292,7 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -4295,7 +4307,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4305,7 +4317,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4317,10 +4329,10 @@
         <v>81</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>57</v>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -4353,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4365,10 +4377,10 @@
         <v>81</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>57</v>
@@ -4413,10 +4425,10 @@
         <v>88</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>57</v>
@@ -4461,10 +4473,10 @@
         <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>57</v>
@@ -4509,10 +4521,10 @@
         <v>88</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>57</v>
@@ -4557,10 +4569,10 @@
         <v>88</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>57</v>
@@ -4605,10 +4617,10 @@
         <v>88</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>57</v>
@@ -4653,10 +4665,10 @@
         <v>88</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>57</v>
@@ -4701,10 +4713,10 @@
         <v>88</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>57</v>
@@ -4749,10 +4761,10 @@
         <v>88</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>57</v>
@@ -4797,10 +4809,10 @@
         <v>88</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>57</v>
@@ -4845,10 +4857,10 @@
         <v>88</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
@@ -4896,10 +4908,10 @@
         <v>121</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>57</v>
@@ -4947,10 +4959,10 @@
         <v>128</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
@@ -4995,10 +5007,10 @@
         <v>133</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>57</v>
@@ -5046,10 +5058,10 @@
         <v>133</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>57</v>
@@ -5097,10 +5109,10 @@
         <v>133</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>57</v>
@@ -5145,10 +5157,10 @@
         <v>146</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>57</v>
@@ -5193,10 +5205,10 @@
         <v>152</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>57</v>
@@ -5246,10 +5258,10 @@
         <v>159</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R39" s="16" t="s">
         <v>57</v>
@@ -5294,10 +5306,10 @@
         <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>57</v>
@@ -5347,10 +5359,10 @@
         <v>167</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>57</v>
@@ -5397,10 +5409,10 @@
         <v>173</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>57</v>
@@ -5447,10 +5459,10 @@
         <v>178</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R43" s="16" t="s">
         <v>57</v>
@@ -5500,10 +5512,10 @@
         <v>159</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R44" s="16" t="s">
         <v>57</v>
@@ -5551,10 +5563,10 @@
         <v>152</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>57</v>
@@ -5604,10 +5616,10 @@
         <v>159</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>57</v>
@@ -5657,10 +5669,10 @@
         <v>159</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>57</v>
@@ -5710,10 +5722,10 @@
         <v>159</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>57</v>
@@ -5763,10 +5775,10 @@
         <v>159</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>57</v>
@@ -5816,10 +5828,10 @@
         <v>159</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
@@ -5869,10 +5881,10 @@
         <v>159</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>57</v>
@@ -5922,10 +5934,10 @@
         <v>216</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
@@ -5975,10 +5987,10 @@
         <v>216</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>57</v>
@@ -6025,10 +6037,10 @@
         <v>216</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>57</v>
@@ -6075,10 +6087,10 @@
         <v>228</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>57</v>
@@ -6128,10 +6140,10 @@
         <v>236</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>57</v>
@@ -6181,10 +6193,10 @@
         <v>236</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>57</v>
@@ -6231,10 +6243,10 @@
         <v>236</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>57</v>
@@ -6277,10 +6289,10 @@
         <v>248</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>57</v>
@@ -6323,10 +6335,10 @@
         <v>254</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q60" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>57</v>
@@ -6369,10 +6381,10 @@
         <v>259</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q61" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>57</v>
@@ -6417,10 +6429,10 @@
         <v>265</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q62" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>57</v>
@@ -6465,10 +6477,10 @@
         <v>271</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q63" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>57</v>
@@ -6518,10 +6530,10 @@
         <v>278</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q64" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>57</v>
@@ -6571,10 +6583,10 @@
         <v>278</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q65" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>57</v>
@@ -6624,10 +6636,10 @@
         <v>278</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q66" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>57</v>
@@ -6677,10 +6689,10 @@
         <v>278</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q67" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>57</v>
@@ -6726,10 +6738,10 @@
         <v>259</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q68" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>57</v>
@@ -6772,10 +6784,10 @@
         <v>299</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q69" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>57</v>
@@ -6820,10 +6832,10 @@
         <v>304</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q70" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>57</v>
@@ -6871,10 +6883,10 @@
         <v>312</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q71" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -6919,10 +6931,10 @@
         <v>316</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q72" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>57</v>
@@ -6967,10 +6979,10 @@
         <v>320</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q73" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -7013,10 +7025,10 @@
         <v>324</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q74" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>57</v>
@@ -7061,10 +7073,10 @@
         <v>330</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q75" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>57</v>
@@ -7109,10 +7121,10 @@
         <v>334</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q76" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>57</v>
@@ -7159,10 +7171,10 @@
         <v>340</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q77" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>57</v>
@@ -7209,10 +7221,10 @@
         <v>340</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q78" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>57</v>
@@ -7262,10 +7274,10 @@
         <v>330</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q79" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>57</v>
@@ -7315,10 +7327,10 @@
         <v>330</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q80" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>57</v>
@@ -7368,10 +7380,10 @@
         <v>330</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q81" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>57</v>
@@ -7421,10 +7433,10 @@
         <v>330</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q82" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>57</v>
@@ -7474,10 +7486,10 @@
         <v>330</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q83" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>57</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="581">
   <si>
     <t>url</t>
   </si>
@@ -519,25 +519,13 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
   </si>
   <si>
-    <t>检测是否领取</t>
-  </si>
-  <si>
     <t>未领取电动自行车电子行驶证</t>
   </si>
   <si>
     <t>{"data":{"isBind":false}}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45684</t>
-  </si>
-  <si>
     <t>行驶证二维码</t>
-  </si>
-  <si>
-    <t>电动自行车行驶证二维码</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
   </si>
   <si>
     <t>http://testbmcpvtapp.hikcreate.com</t>
@@ -1968,29 +1956,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>electricBicycleI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sBind00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{"plateNum":"%E4%B8%B4%E8%B4%B5%E5%B7%9EA20111"}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1999,42 +1964,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ElectricBicycle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Qr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/sys/notice/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{"type":"electricBicycleNotice"}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{"type":"electricBicycleLaw"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/sys/notice/detail</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2331,6 +2265,84 @@
   </si>
   <si>
     <t>autoCreator</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否领取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45684</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>electricBicycleI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sBind00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ElectricBicycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Qr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动自行车行驶证二维码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取须知信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/7704</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2890,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3612,19 +3624,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>0</v>
@@ -3633,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>2</v>
@@ -3642,28 +3654,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -3946,22 +3958,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="28">
@@ -3971,25 +3983,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -3997,13 +4009,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4012,7 +4024,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4022,22 +4034,22 @@
         <v>52</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -4045,22 +4057,22 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>571</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4077,16 +4089,16 @@
         <v>54</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>64</v>
+        <v>572</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>57</v>
@@ -4094,22 +4106,22 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>575</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4119,7 +4131,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4128,36 +4140,36 @@
         <v>54</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>67</v>
+        <v>576</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>577</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>542</v>
+        <v>579</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4167,7 +4179,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4176,16 +4188,16 @@
         <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>57</v>
@@ -4193,22 +4205,22 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4218,7 +4230,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4227,16 +4239,16 @@
         <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>57</v>
@@ -4244,22 +4256,22 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4269,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>53</v>
@@ -4278,13 +4290,13 @@
         <v>54</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>57</v>
@@ -4292,22 +4304,22 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4317,7 +4329,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4326,13 +4338,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>57</v>
@@ -4340,22 +4352,22 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="1">
@@ -4365,7 +4377,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4374,13 +4386,13 @@
         <v>54</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>57</v>
@@ -4388,22 +4400,22 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4413,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4422,13 +4434,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>57</v>
@@ -4436,22 +4448,22 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1">
@@ -4461,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>53</v>
@@ -4470,13 +4482,13 @@
         <v>54</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>57</v>
@@ -4484,22 +4496,22 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1">
@@ -4509,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>53</v>
@@ -4518,13 +4530,13 @@
         <v>54</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>57</v>
@@ -4532,22 +4544,22 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1">
@@ -4557,7 +4569,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>53</v>
@@ -4566,13 +4578,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>57</v>
@@ -4580,22 +4592,22 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1">
@@ -4605,7 +4617,7 @@
         <v>13</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>53</v>
@@ -4614,13 +4626,13 @@
         <v>54</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>57</v>
@@ -4628,22 +4640,22 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -4653,7 +4665,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>53</v>
@@ -4662,13 +4674,13 @@
         <v>54</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>57</v>
@@ -4676,22 +4688,22 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1">
@@ -4701,7 +4713,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>53</v>
@@ -4710,13 +4722,13 @@
         <v>54</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>57</v>
@@ -4724,22 +4736,22 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1">
@@ -4749,7 +4761,7 @@
         <v>13</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>53</v>
@@ -4758,13 +4770,13 @@
         <v>54</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>57</v>
@@ -4772,22 +4784,22 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1">
@@ -4797,7 +4809,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>53</v>
@@ -4806,13 +4818,13 @@
         <v>54</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>57</v>
@@ -4820,22 +4832,22 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -4845,7 +4857,7 @@
         <v>13</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>53</v>
@@ -4854,13 +4866,13 @@
         <v>54</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
@@ -4868,22 +4880,22 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -4893,7 +4905,7 @@
         <v>52</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -4902,16 +4914,16 @@
         <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>57</v>
@@ -4919,22 +4931,22 @@
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="1">
@@ -4944,7 +4956,7 @@
         <v>52</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -4953,16 +4965,16 @@
         <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
@@ -4970,22 +4982,22 @@
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -4995,7 +5007,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5004,13 +5016,13 @@
         <v>54</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>57</v>
@@ -5018,22 +5030,22 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1">
@@ -5043,7 +5055,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5052,16 +5064,16 @@
         <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>57</v>
@@ -5069,22 +5081,22 @@
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1">
@@ -5094,7 +5106,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>53</v>
@@ -5103,16 +5115,16 @@
         <v>54</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>57</v>
@@ -5120,22 +5132,22 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5145,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>53</v>
@@ -5154,13 +5166,13 @@
         <v>54</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>57</v>
@@ -5168,22 +5180,22 @@
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5193,7 +5205,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5202,13 +5214,13 @@
         <v>54</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>57</v>
@@ -5216,25 +5228,25 @@
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H39" s="1">
         <v>19180580229</v>
@@ -5243,7 +5255,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5252,16 +5264,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R39" s="16" t="s">
         <v>57</v>
@@ -5269,7 +5281,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5294,7 +5306,7 @@
         <v>52</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>53</v>
@@ -5306,10 +5318,10 @@
         <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>57</v>
@@ -5317,25 +5329,25 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" s="1">
         <v>19180580229</v>
@@ -5344,7 +5356,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5353,16 +5365,16 @@
         <v>54</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>57</v>
@@ -5370,25 +5382,25 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H42" s="1">
         <v>19180580229</v>
@@ -5397,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>53</v>
@@ -5406,13 +5418,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>57</v>
@@ -5420,25 +5432,25 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H43" s="1">
         <v>19180580229</v>
@@ -5447,7 +5459,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>53</v>
@@ -5456,13 +5468,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R43" s="16" t="s">
         <v>57</v>
@@ -5470,25 +5482,25 @@
     </row>
     <row r="44" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -5497,7 +5509,7 @@
         <v>13</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>53</v>
@@ -5506,16 +5518,16 @@
         <v>54</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R44" s="16" t="s">
         <v>57</v>
@@ -5523,22 +5535,22 @@
     </row>
     <row r="45" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="1">
@@ -5548,7 +5560,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>53</v>
@@ -5557,16 +5569,16 @@
         <v>54</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>57</v>
@@ -5574,25 +5586,25 @@
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H46" s="1">
         <v>19180580229</v>
@@ -5601,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>53</v>
@@ -5610,16 +5622,16 @@
         <v>54</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>57</v>
@@ -5627,25 +5639,25 @@
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H47" s="1">
         <v>19180580229</v>
@@ -5654,7 +5666,7 @@
         <v>13</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>53</v>
@@ -5663,16 +5675,16 @@
         <v>54</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>57</v>
@@ -5680,25 +5692,25 @@
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H48" s="1">
         <v>19180580229</v>
@@ -5707,7 +5719,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>53</v>
@@ -5716,16 +5728,16 @@
         <v>54</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>57</v>
@@ -5733,25 +5745,25 @@
     </row>
     <row r="49" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H49" s="1">
         <v>19180580229</v>
@@ -5760,7 +5772,7 @@
         <v>13</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>53</v>
@@ -5769,16 +5781,16 @@
         <v>54</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>57</v>
@@ -5786,25 +5798,25 @@
     </row>
     <row r="50" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H50" s="1">
         <v>19180580229</v>
@@ -5813,7 +5825,7 @@
         <v>13</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>53</v>
@@ -5822,16 +5834,16 @@
         <v>54</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
@@ -5839,25 +5851,25 @@
     </row>
     <row r="51" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H51" s="1">
         <v>19180580229</v>
@@ -5866,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>53</v>
@@ -5875,16 +5887,16 @@
         <v>54</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>57</v>
@@ -5892,25 +5904,25 @@
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
@@ -5919,25 +5931,25 @@
         <v>52</v>
       </c>
       <c r="K52" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O52" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="P52" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
@@ -5945,25 +5957,25 @@
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
@@ -5972,25 +5984,25 @@
         <v>52</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>57</v>
@@ -5998,25 +6010,25 @@
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
@@ -6025,7 +6037,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6034,13 +6046,13 @@
         <v>54</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>57</v>
@@ -6048,25 +6060,25 @@
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
@@ -6075,7 +6087,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6084,13 +6096,13 @@
         <v>54</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>57</v>
@@ -6098,25 +6110,25 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
@@ -6125,25 +6137,25 @@
         <v>52</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>57</v>
@@ -6151,25 +6163,25 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
@@ -6178,25 +6190,25 @@
         <v>52</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>57</v>
@@ -6204,25 +6216,25 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
@@ -6231,7 +6243,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
@@ -6240,13 +6252,13 @@
         <v>54</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>57</v>
@@ -6254,22 +6266,22 @@
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1">
@@ -6286,13 +6298,13 @@
         <v>54</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>57</v>
@@ -6300,22 +6312,22 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6332,13 +6344,13 @@
         <v>54</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q60" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>57</v>
@@ -6346,22 +6358,22 @@
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6378,13 +6390,13 @@
         <v>54</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q61" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>57</v>
@@ -6392,22 +6404,22 @@
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6417,7 +6429,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
@@ -6426,13 +6438,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q62" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>57</v>
@@ -6440,22 +6452,22 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6465,7 +6477,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6474,13 +6486,13 @@
         <v>54</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q63" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>57</v>
@@ -6488,25 +6500,25 @@
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6515,7 +6527,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6524,16 +6536,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q64" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>57</v>
@@ -6541,25 +6553,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6568,25 +6580,25 @@
         <v>13</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q65" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>57</v>
@@ -6594,25 +6606,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -6621,25 +6633,25 @@
         <v>13</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q66" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>57</v>
@@ -6647,25 +6659,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -6674,25 +6686,25 @@
         <v>13</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q67" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>57</v>
@@ -6700,22 +6712,22 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -6732,16 +6744,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q68" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>57</v>
@@ -6749,22 +6761,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -6781,13 +6793,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q69" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>57</v>
@@ -6795,22 +6807,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -6820,7 +6832,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -6829,13 +6841,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q70" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>57</v>
@@ -6843,22 +6855,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -6868,25 +6880,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q71" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -6894,22 +6906,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -6919,7 +6931,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -6928,13 +6940,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q72" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>57</v>
@@ -6942,22 +6954,22 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -6967,7 +6979,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -6976,13 +6988,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q73" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -6990,22 +7002,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7022,13 +7034,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q74" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>57</v>
@@ -7036,22 +7048,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7061,7 +7073,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7070,13 +7082,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q75" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>57</v>
@@ -7084,22 +7096,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7109,7 +7121,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7118,13 +7130,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q76" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>57</v>
@@ -7132,25 +7144,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7159,7 +7171,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7168,13 +7180,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q77" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>57</v>
@@ -7182,25 +7194,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7209,7 +7221,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7218,13 +7230,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q78" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>57</v>
@@ -7232,25 +7244,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7259,7 +7271,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7268,16 +7280,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q79" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>57</v>
@@ -7285,25 +7297,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7312,7 +7324,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7321,16 +7333,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q80" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>57</v>
@@ -7338,25 +7350,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7365,7 +7377,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7374,16 +7386,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q81" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>57</v>
@@ -7391,25 +7403,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7418,7 +7430,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7427,16 +7439,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q82" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>57</v>
@@ -7444,25 +7456,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7471,7 +7483,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7480,16 +7492,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q83" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>57</v>
@@ -7497,22 +7509,22 @@
     </row>
     <row r="84" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="22">
@@ -7522,7 +7534,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>53</v>
@@ -7531,7 +7543,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P84" s="27" t="s">
         <v>57</v>
@@ -7539,22 +7551,22 @@
     </row>
     <row r="85" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="22">
@@ -7564,7 +7576,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L85" s="25" t="s">
         <v>53</v>
@@ -7573,7 +7585,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>57</v>
@@ -7581,22 +7593,22 @@
     </row>
     <row r="86" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="22">
@@ -7613,7 +7625,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P86" s="27" t="s">
         <v>57</v>
@@ -7621,22 +7633,22 @@
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="22">
@@ -7653,7 +7665,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P87" s="27" t="s">
         <v>57</v>
@@ -7661,22 +7673,22 @@
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="22">
@@ -7686,7 +7698,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L88" s="25" t="s">
         <v>53</v>
@@ -7695,7 +7707,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P88" s="27" t="s">
         <v>57</v>
@@ -7703,25 +7715,25 @@
     </row>
     <row r="89" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H89" s="22">
         <v>19180580229</v>
@@ -7730,7 +7742,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L89" s="25" t="s">
         <v>53</v>
@@ -7739,7 +7751,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P89" s="27" t="s">
         <v>57</v>
@@ -7747,22 +7759,22 @@
     </row>
     <row r="90" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="22">
@@ -7772,7 +7784,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L90" s="25" t="s">
         <v>53</v>
@@ -7781,7 +7793,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P90" s="27" t="s">
         <v>57</v>
@@ -7789,22 +7801,22 @@
     </row>
     <row r="91" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="22">
@@ -7814,7 +7826,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>53</v>
@@ -7823,7 +7835,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P91" s="27" t="s">
         <v>57</v>
@@ -7831,22 +7843,22 @@
     </row>
     <row r="92" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="22">
@@ -7856,7 +7868,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>53</v>
@@ -7865,7 +7877,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P92" s="27" t="s">
         <v>57</v>
@@ -7873,22 +7885,22 @@
     </row>
     <row r="93" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="22">
@@ -7898,7 +7910,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>53</v>
@@ -7907,7 +7919,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P93" s="27" t="s">
         <v>57</v>
@@ -7915,25 +7927,25 @@
     </row>
     <row r="94" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H94" s="22">
         <v>19180580229</v>
@@ -7942,7 +7954,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L94" s="25" t="s">
         <v>53</v>
@@ -7951,7 +7963,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P94" s="27" t="s">
         <v>57</v>
@@ -7959,25 +7971,25 @@
     </row>
     <row r="95" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H95" s="22">
         <v>19180580229</v>
@@ -7986,7 +7998,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>53</v>
@@ -7995,7 +8007,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P95" s="27" t="s">
         <v>57</v>
@@ -8003,22 +8015,22 @@
     </row>
     <row r="96" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="22">
@@ -8028,7 +8040,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L96" s="25" t="s">
         <v>53</v>
@@ -8037,7 +8049,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P96" s="27" t="s">
         <v>57</v>
@@ -8045,22 +8057,22 @@
     </row>
     <row r="97" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="22">
@@ -8070,7 +8082,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>53</v>
@@ -8079,7 +8091,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P97" s="27" t="s">
         <v>57</v>
@@ -8087,22 +8099,22 @@
     </row>
     <row r="98" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="22">
@@ -8119,7 +8131,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P98" s="27" t="s">
         <v>57</v>
@@ -8127,22 +8139,22 @@
     </row>
     <row r="99" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="22">
@@ -8159,7 +8171,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P99" s="27" t="s">
         <v>57</v>
@@ -8167,22 +8179,22 @@
     </row>
     <row r="100" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="22">
@@ -8192,7 +8204,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L100" s="25" t="s">
         <v>53</v>
@@ -8201,7 +8213,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P100" s="27" t="s">
         <v>57</v>
@@ -8209,22 +8221,22 @@
     </row>
     <row r="101" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="22">
@@ -8234,7 +8246,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L101" s="25" t="s">
         <v>53</v>
@@ -8243,7 +8255,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P101" s="27" t="s">
         <v>57</v>
@@ -8251,22 +8263,22 @@
     </row>
     <row r="102" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="22">
@@ -8283,7 +8295,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P102" s="27" t="s">
         <v>57</v>
@@ -8291,22 +8303,22 @@
     </row>
     <row r="103" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="22">
@@ -8316,7 +8328,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L103" s="25" t="s">
         <v>53</v>
@@ -8325,7 +8337,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P103" s="27" t="s">
         <v>57</v>
@@ -8333,22 +8345,22 @@
     </row>
     <row r="104" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="22">
@@ -8365,30 +8377,30 @@
         <v>54</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="P104" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G105" s="23"/>
       <c r="H105" s="22">
@@ -8398,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L105" s="25" t="s">
         <v>53</v>
@@ -8407,33 +8419,33 @@
         <v>54</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P105" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H106" s="22">
         <v>13688468803</v>
@@ -8442,7 +8454,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L106" s="25" t="s">
         <v>53</v>
@@ -8451,30 +8463,30 @@
         <v>54</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P106" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="22">
@@ -8491,7 +8503,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>57</v>
@@ -8499,10 +8511,10 @@
     </row>
     <row r="108" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>51</v>
@@ -8514,7 +8526,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="22">
@@ -8524,7 +8536,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>53</v>
@@ -8536,27 +8548,27 @@
         <v>56</v>
       </c>
       <c r="P108" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="22">
@@ -8566,7 +8578,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>53</v>
@@ -8575,7 +8587,7 @@
         <v>54</v>
       </c>
       <c r="O109" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P109" s="27" t="s">
         <v>57</v>
@@ -8583,22 +8595,22 @@
     </row>
     <row r="110" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G110" s="23"/>
       <c r="H110" s="22">
@@ -8608,7 +8620,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L110" s="25" t="s">
         <v>53</v>
@@ -8617,30 +8629,30 @@
         <v>54</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P110" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="22">
@@ -8650,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L111" s="25" t="s">
         <v>53</v>
@@ -8659,30 +8671,30 @@
         <v>54</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P111" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="22">
@@ -8692,39 +8704,39 @@
         <v>13</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L112" s="25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P112" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="22">
@@ -8734,7 +8746,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>53</v>
@@ -8743,30 +8755,30 @@
         <v>54</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P113" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="22">
@@ -8783,30 +8795,30 @@
         <v>54</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P114" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="22">
@@ -8816,7 +8828,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L115" s="25" t="s">
         <v>53</v>
@@ -8825,30 +8837,30 @@
         <v>54</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P115" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="22">
@@ -8858,7 +8870,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L116" s="25" t="s">
         <v>53</v>
@@ -8867,30 +8879,30 @@
         <v>54</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P116" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="22">
@@ -8900,7 +8912,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L117" s="25" t="s">
         <v>53</v>
@@ -8909,30 +8921,30 @@
         <v>54</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P117" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="22">
@@ -8942,7 +8954,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L118" s="25" t="s">
         <v>53</v>
@@ -8951,10 +8963,10 @@
         <v>54</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P118" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="589">
   <si>
     <t>url</t>
   </si>
@@ -552,12 +552,6 @@
     <t>文件上传</t>
   </si>
   <si>
-    <t>参数为文件，此用例待定</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/5452</t>
-  </si>
-  <si>
     <t>获取系统字典</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>获取证件类型</t>
   </si>
   <si>
-    <t>ElectricBicycle010</t>
-  </si>
-  <si>
     <t>地址选择</t>
   </si>
   <si>
@@ -585,82 +576,52 @@
     <t>/electricBicycle/apply/address/addressSelector</t>
   </si>
   <si>
-    <t>{"id":2}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45572</t>
   </si>
   <si>
-    <t>ElectricBicycle011</t>
-  </si>
-  <si>
     <t>地址选择器-选择服务中心</t>
   </si>
   <si>
     <t>{"id":5}</t>
   </si>
   <si>
-    <t>ElectricBicycle012</t>
-  </si>
-  <si>
     <t>地址选择器-选择居委会</t>
   </si>
   <si>
     <t>{"id":"9a9d5843d07141b0bba18c58cddec48e"}</t>
   </si>
   <si>
-    <t>ElectricBicycle013</t>
-  </si>
-  <si>
     <t>地址选择器-选择村组</t>
   </si>
   <si>
     <t>{"id":"566458c984364f5f93fdccd4d1b83038"}</t>
   </si>
   <si>
-    <t>ElectricBicycle014</t>
-  </si>
-  <si>
     <t>地址选择器-选择地址</t>
   </si>
   <si>
     <t>{"id":"19840055aa664aba9def0d297f70824f"}</t>
   </si>
   <si>
-    <t>ElectricBicycle015</t>
-  </si>
-  <si>
     <t>地址选择器-选择楼栋数</t>
   </si>
   <si>
     <t>{"id":"dfb1203a87b142c29987f4176a56083c"}</t>
   </si>
   <si>
-    <t>ElectricBicycle016</t>
-  </si>
-  <si>
     <t>地址选择器-选择单元</t>
   </si>
   <si>
     <t>{"id":"2d7bc0fdf1de4f16b1bfbd434904f8de"}</t>
   </si>
   <si>
-    <t>ElectricBicycle017</t>
-  </si>
-  <si>
     <t>地址选择器-选择楼层</t>
   </si>
   <si>
     <t>{"id":"def23bb57bb74447ab493f543b4b3edc"}</t>
   </si>
   <si>
-    <t>ElectricBicycle018</t>
-  </si>
-  <si>
     <t>{"id":"d3070c180f4c490bb62f2d0db2c13e39"}</t>
-  </si>
-  <si>
-    <t>ElectricBicycle019</t>
   </si>
   <si>
     <t>地址选择器-选择房号</t>
@@ -1965,10 +1926,6 @@
   </si>
   <si>
     <t>{"type":"electricBicycleNotice"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"electricBicycleLaw"}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2033,6 +1990,292 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>sys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/pvtapi/sys/dict/list</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dictType":"body_color"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dictType":"id_type"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>“通行证类型”状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动自行车预约</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/19711</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>passcardTypeState001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPoint</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqData</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks </t>
+  </si>
+  <si>
+    <t>请求成功，返回正确信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>胥键雪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>taoke</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取“通行证类型”的状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动车banner接口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/electricBannerOrPop</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCreator</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否领取</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45684</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>electricBicycleI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sBind00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ElectricBicycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Qr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动自行车行驶证二维码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取须知信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/7704</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/sys/notice/detail</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/5452</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fileU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/file/upload</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"electricBicycleLaw"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":""}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取系统字典</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/5077</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2084,265 +2327,58 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ict</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ist002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>/pvtapi/file/upload</t>
+    <t>/electricBicycle/apply/address/addressSelector</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>fileU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pload00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t>{"id":2}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>/pvtapi/sys/dict/list</t>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45572</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{"dictType":"body_color"}</t>
+    <t>地址选择</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>{"dictType":"id_type"}</t>
+    <t>/electricBicycle/apply/address/addressSelector</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>“通行证类型”状态</t>
+    <t>addressSelector001</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>电动自行车预约</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/19711</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>passcardTypeState001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>caseNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>testPoint</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontCondition</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>reqData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherExpectData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks </t>
-  </si>
-  <si>
-    <t>请求成功，返回正确信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>胥键雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>taoke</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取“通行证类型”的状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动车banner接口</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/electricBannerOrPop</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoCreator</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测是否领取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45684</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>electricBicycleI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sBind00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ElectricBicycle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Qr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>电动自行车行驶证二维码</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取须知信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/7704</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/sys/notice/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pvtapi/sys/notice/detail</t>
+    <t>addressSelector002</t>
+  </si>
+  <si>
+    <t>addressSelector003</t>
+  </si>
+  <si>
+    <t>addressSelector004</t>
+  </si>
+  <si>
+    <t>addressSelector005</t>
+  </si>
+  <si>
+    <t>addressSelector006</t>
+  </si>
+  <si>
+    <t>addressSelector007</t>
+  </si>
+  <si>
+    <t>addressSelector008</t>
+  </si>
+  <si>
+    <t>addressSelector009</t>
+  </si>
+  <si>
+    <t>addressSelector010</t>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45572</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2902,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3624,19 +3660,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>0</v>
@@ -3645,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>2</v>
@@ -3654,28 +3690,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -3958,22 +3994,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="28">
@@ -3983,25 +4019,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -4009,13 +4045,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4024,7 +4060,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4034,22 +4070,22 @@
         <v>52</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -4057,13 +4093,13 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -4072,7 +4108,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4092,13 +4128,13 @@
         <v>62</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>57</v>
@@ -4106,7 +4142,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4118,10 +4154,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4131,7 +4167,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4140,13 +4176,13 @@
         <v>54</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>64</v>
@@ -4154,13 +4190,13 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -4169,7 +4205,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4179,7 +4215,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4191,13 +4227,13 @@
         <v>66</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>57</v>
@@ -4205,7 +4241,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4220,7 +4256,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4230,7 +4266,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4245,10 +4281,10 @@
         <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>57</v>
@@ -4256,13 +4292,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>564</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4271,7 +4307,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4281,7 +4317,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>72</v>
+        <v>569</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>53</v>
@@ -4289,14 +4325,14 @@
       <c r="M19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="19" t="s">
-        <v>73</v>
+      <c r="O19" s="16" t="s">
+        <v>565</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>57</v>
@@ -4304,22 +4340,22 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4329,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4338,13 +4374,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>77</v>
+        <v>571</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>57</v>
@@ -4352,22 +4388,22 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="1">
@@ -4377,7 +4413,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4386,13 +4422,13 @@
         <v>54</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>57</v>
@@ -4400,22 +4436,22 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>576</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>577</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4425,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>83</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4434,13 +4470,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>84</v>
+        <v>575</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>57</v>
@@ -4448,22 +4484,22 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>85</v>
+        <v>579</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1">
@@ -4473,7 +4509,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>53</v>
@@ -4482,13 +4518,13 @@
         <v>54</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>57</v>
@@ -4496,22 +4532,22 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>580</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1">
@@ -4521,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>53</v>
@@ -4530,13 +4566,13 @@
         <v>54</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>57</v>
@@ -4544,22 +4580,22 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>91</v>
+        <v>581</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1">
@@ -4569,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>53</v>
@@ -4578,13 +4614,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>84</v>
+        <v>588</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>57</v>
@@ -4592,22 +4628,22 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>94</v>
+        <v>582</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1">
@@ -4617,7 +4653,7 @@
         <v>13</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>53</v>
@@ -4626,13 +4662,13 @@
         <v>54</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>57</v>
@@ -4640,22 +4676,22 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>97</v>
+        <v>583</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -4665,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>53</v>
@@ -4674,13 +4710,13 @@
         <v>54</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>57</v>
@@ -4688,22 +4724,22 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>100</v>
+        <v>584</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1">
@@ -4713,7 +4749,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>53</v>
@@ -4722,13 +4758,13 @@
         <v>54</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>57</v>
@@ -4736,22 +4772,22 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1">
@@ -4761,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>53</v>
@@ -4770,13 +4806,13 @@
         <v>54</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>57</v>
@@ -4784,22 +4820,22 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>106</v>
+        <v>586</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1">
@@ -4809,7 +4845,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>53</v>
@@ -4818,13 +4854,13 @@
         <v>54</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>57</v>
@@ -4832,22 +4868,22 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>108</v>
+        <v>587</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -4857,7 +4893,7 @@
         <v>13</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>53</v>
@@ -4866,13 +4902,13 @@
         <v>54</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
@@ -4880,22 +4916,22 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -4905,7 +4941,7 @@
         <v>52</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -4914,16 +4950,16 @@
         <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>57</v>
@@ -4931,22 +4967,22 @@
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="1">
@@ -4956,7 +4992,7 @@
         <v>52</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -4965,16 +5001,16 @@
         <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
@@ -4982,22 +5018,22 @@
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5007,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5016,13 +5052,13 @@
         <v>54</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>57</v>
@@ -5030,22 +5066,22 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1">
@@ -5055,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5064,16 +5100,16 @@
         <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>57</v>
@@ -5081,22 +5117,22 @@
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1">
@@ -5106,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>53</v>
@@ -5115,16 +5151,16 @@
         <v>54</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>57</v>
@@ -5132,22 +5168,22 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5157,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>53</v>
@@ -5166,13 +5202,13 @@
         <v>54</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>57</v>
@@ -5180,22 +5216,22 @@
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5205,7 +5241,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5214,13 +5250,13 @@
         <v>54</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>57</v>
@@ -5228,25 +5264,25 @@
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H39" s="1">
         <v>19180580229</v>
@@ -5255,7 +5291,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5264,16 +5300,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R39" s="16" t="s">
         <v>57</v>
@@ -5281,7 +5317,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5306,7 +5342,7 @@
         <v>52</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>53</v>
@@ -5318,10 +5354,10 @@
         <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>57</v>
@@ -5329,25 +5365,25 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H41" s="1">
         <v>19180580229</v>
@@ -5356,7 +5392,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5365,16 +5401,16 @@
         <v>54</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>57</v>
@@ -5382,25 +5418,25 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H42" s="1">
         <v>19180580229</v>
@@ -5409,7 +5445,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>53</v>
@@ -5418,13 +5454,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>57</v>
@@ -5432,25 +5468,25 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H43" s="1">
         <v>19180580229</v>
@@ -5459,7 +5495,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>53</v>
@@ -5468,13 +5504,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R43" s="16" t="s">
         <v>57</v>
@@ -5482,25 +5518,25 @@
     </row>
     <row r="44" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -5509,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>53</v>
@@ -5518,16 +5554,16 @@
         <v>54</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R44" s="16" t="s">
         <v>57</v>
@@ -5535,22 +5571,22 @@
     </row>
     <row r="45" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="1">
@@ -5560,7 +5596,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>53</v>
@@ -5569,16 +5605,16 @@
         <v>54</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>57</v>
@@ -5586,25 +5622,25 @@
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H46" s="1">
         <v>19180580229</v>
@@ -5613,7 +5649,7 @@
         <v>13</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>53</v>
@@ -5622,16 +5658,16 @@
         <v>54</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>57</v>
@@ -5639,25 +5675,25 @@
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H47" s="1">
         <v>19180580229</v>
@@ -5666,7 +5702,7 @@
         <v>13</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>53</v>
@@ -5675,16 +5711,16 @@
         <v>54</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>57</v>
@@ -5692,25 +5728,25 @@
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H48" s="1">
         <v>19180580229</v>
@@ -5719,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>53</v>
@@ -5728,16 +5764,16 @@
         <v>54</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>57</v>
@@ -5745,25 +5781,25 @@
     </row>
     <row r="49" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H49" s="1">
         <v>19180580229</v>
@@ -5772,7 +5808,7 @@
         <v>13</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>53</v>
@@ -5781,16 +5817,16 @@
         <v>54</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>57</v>
@@ -5798,25 +5834,25 @@
     </row>
     <row r="50" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H50" s="1">
         <v>19180580229</v>
@@ -5825,7 +5861,7 @@
         <v>13</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>53</v>
@@ -5834,16 +5870,16 @@
         <v>54</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
@@ -5851,25 +5887,25 @@
     </row>
     <row r="51" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H51" s="1">
         <v>19180580229</v>
@@ -5878,7 +5914,7 @@
         <v>13</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>53</v>
@@ -5887,16 +5923,16 @@
         <v>54</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>57</v>
@@ -5904,25 +5940,25 @@
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
@@ -5931,25 +5967,25 @@
         <v>52</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
@@ -5957,25 +5993,25 @@
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
@@ -5984,25 +6020,25 @@
         <v>52</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>57</v>
@@ -6010,25 +6046,25 @@
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
@@ -6037,7 +6073,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6046,13 +6082,13 @@
         <v>54</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>57</v>
@@ -6060,25 +6096,25 @@
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
@@ -6087,7 +6123,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6096,13 +6132,13 @@
         <v>54</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>57</v>
@@ -6110,25 +6146,25 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
@@ -6137,25 +6173,25 @@
         <v>52</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>57</v>
@@ -6163,25 +6199,25 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
@@ -6190,25 +6226,25 @@
         <v>52</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>57</v>
@@ -6216,25 +6252,25 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
@@ -6243,7 +6279,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
@@ -6252,13 +6288,13 @@
         <v>54</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>57</v>
@@ -6266,22 +6302,22 @@
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1">
@@ -6298,13 +6334,13 @@
         <v>54</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>57</v>
@@ -6312,22 +6348,22 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6344,13 +6380,13 @@
         <v>54</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q60" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>57</v>
@@ -6358,22 +6394,22 @@
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6390,13 +6426,13 @@
         <v>54</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q61" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>57</v>
@@ -6404,22 +6440,22 @@
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6429,7 +6465,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
@@ -6438,13 +6474,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q62" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>57</v>
@@ -6452,22 +6488,22 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6477,7 +6513,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6486,13 +6522,13 @@
         <v>54</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q63" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>57</v>
@@ -6500,25 +6536,25 @@
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6527,7 +6563,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6536,16 +6572,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q64" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>57</v>
@@ -6553,25 +6589,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6580,25 +6616,25 @@
         <v>13</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q65" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>57</v>
@@ -6606,25 +6642,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -6633,25 +6669,25 @@
         <v>13</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q66" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>57</v>
@@ -6659,25 +6695,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -6686,25 +6722,25 @@
         <v>13</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q67" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>57</v>
@@ -6712,22 +6748,22 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -6744,16 +6780,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q68" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>57</v>
@@ -6761,22 +6797,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -6793,13 +6829,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q69" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>57</v>
@@ -6807,22 +6843,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -6832,7 +6868,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -6841,13 +6877,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q70" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>57</v>
@@ -6855,22 +6891,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -6880,25 +6916,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q71" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -6906,22 +6942,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -6931,7 +6967,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -6940,13 +6976,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q72" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>57</v>
@@ -6954,22 +6990,22 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -6979,7 +7015,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -6988,13 +7024,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q73" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -7002,22 +7038,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7034,13 +7070,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q74" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>57</v>
@@ -7048,22 +7084,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7073,7 +7109,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7082,13 +7118,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q75" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>57</v>
@@ -7096,22 +7132,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7121,7 +7157,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7130,13 +7166,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q76" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>57</v>
@@ -7144,25 +7180,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7171,7 +7207,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7180,13 +7216,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q77" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>57</v>
@@ -7194,25 +7230,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7221,7 +7257,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7230,13 +7266,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q78" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>57</v>
@@ -7244,25 +7280,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7271,7 +7307,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7280,16 +7316,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q79" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>57</v>
@@ -7297,25 +7333,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7324,7 +7360,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7333,16 +7369,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q80" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>57</v>
@@ -7350,25 +7386,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7377,7 +7413,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7386,16 +7422,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q81" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>57</v>
@@ -7403,25 +7439,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7430,7 +7466,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7439,16 +7475,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q82" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>57</v>
@@ -7456,25 +7492,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7483,7 +7519,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7492,16 +7528,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Q83" s="37" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>57</v>
@@ -7509,22 +7545,22 @@
     </row>
     <row r="84" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="22">
@@ -7534,7 +7570,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>53</v>
@@ -7543,7 +7579,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P84" s="27" t="s">
         <v>57</v>
@@ -7551,22 +7587,22 @@
     </row>
     <row r="85" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="22">
@@ -7576,7 +7612,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L85" s="25" t="s">
         <v>53</v>
@@ -7585,7 +7621,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>57</v>
@@ -7593,22 +7629,22 @@
     </row>
     <row r="86" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="22">
@@ -7625,7 +7661,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="P86" s="27" t="s">
         <v>57</v>
@@ -7633,22 +7669,22 @@
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="22">
@@ -7665,7 +7701,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="P87" s="27" t="s">
         <v>57</v>
@@ -7673,22 +7709,22 @@
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="22">
@@ -7698,7 +7734,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L88" s="25" t="s">
         <v>53</v>
@@ -7707,7 +7743,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="P88" s="27" t="s">
         <v>57</v>
@@ -7715,25 +7751,25 @@
     </row>
     <row r="89" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H89" s="22">
         <v>19180580229</v>
@@ -7742,7 +7778,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="L89" s="25" t="s">
         <v>53</v>
@@ -7751,7 +7787,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="P89" s="27" t="s">
         <v>57</v>
@@ -7759,22 +7795,22 @@
     </row>
     <row r="90" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="22">
@@ -7784,7 +7820,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="L90" s="25" t="s">
         <v>53</v>
@@ -7793,7 +7829,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P90" s="27" t="s">
         <v>57</v>
@@ -7801,22 +7837,22 @@
     </row>
     <row r="91" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="22">
@@ -7826,7 +7862,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>53</v>
@@ -7835,7 +7871,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P91" s="27" t="s">
         <v>57</v>
@@ -7843,22 +7879,22 @@
     </row>
     <row r="92" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="22">
@@ -7868,7 +7904,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>53</v>
@@ -7877,7 +7913,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P92" s="27" t="s">
         <v>57</v>
@@ -7885,22 +7921,22 @@
     </row>
     <row r="93" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="22">
@@ -7910,7 +7946,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>53</v>
@@ -7919,7 +7955,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="P93" s="27" t="s">
         <v>57</v>
@@ -7927,25 +7963,25 @@
     </row>
     <row r="94" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="H94" s="22">
         <v>19180580229</v>
@@ -7954,7 +7990,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L94" s="25" t="s">
         <v>53</v>
@@ -7963,7 +7999,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="P94" s="27" t="s">
         <v>57</v>
@@ -7971,25 +8007,25 @@
     </row>
     <row r="95" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="H95" s="22">
         <v>19180580229</v>
@@ -7998,7 +8034,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>53</v>
@@ -8007,7 +8043,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="P95" s="27" t="s">
         <v>57</v>
@@ -8015,22 +8051,22 @@
     </row>
     <row r="96" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="22">
@@ -8040,7 +8076,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="L96" s="25" t="s">
         <v>53</v>
@@ -8049,7 +8085,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P96" s="27" t="s">
         <v>57</v>
@@ -8057,22 +8093,22 @@
     </row>
     <row r="97" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="22">
@@ -8082,7 +8118,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>53</v>
@@ -8091,7 +8127,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P97" s="27" t="s">
         <v>57</v>
@@ -8099,22 +8135,22 @@
     </row>
     <row r="98" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="22">
@@ -8131,7 +8167,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="P98" s="27" t="s">
         <v>57</v>
@@ -8139,22 +8175,22 @@
     </row>
     <row r="99" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="22">
@@ -8171,7 +8207,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="P99" s="27" t="s">
         <v>57</v>
@@ -8179,22 +8215,22 @@
     </row>
     <row r="100" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="22">
@@ -8204,7 +8240,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L100" s="25" t="s">
         <v>53</v>
@@ -8213,7 +8249,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="P100" s="27" t="s">
         <v>57</v>
@@ -8221,22 +8257,22 @@
     </row>
     <row r="101" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="22">
@@ -8246,7 +8282,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="L101" s="25" t="s">
         <v>53</v>
@@ -8255,7 +8291,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="P101" s="27" t="s">
         <v>57</v>
@@ -8263,22 +8299,22 @@
     </row>
     <row r="102" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="22">
@@ -8295,7 +8331,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="P102" s="27" t="s">
         <v>57</v>
@@ -8303,22 +8339,22 @@
     </row>
     <row r="103" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="22">
@@ -8328,7 +8364,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="L103" s="25" t="s">
         <v>53</v>
@@ -8337,7 +8373,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P103" s="27" t="s">
         <v>57</v>
@@ -8345,22 +8381,22 @@
     </row>
     <row r="104" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="22">
@@ -8377,7 +8413,7 @@
         <v>54</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P104" s="27" t="s">
         <v>64</v>
@@ -8385,22 +8421,22 @@
     </row>
     <row r="105" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G105" s="23"/>
       <c r="H105" s="22">
@@ -8410,7 +8446,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="L105" s="25" t="s">
         <v>53</v>
@@ -8419,7 +8455,7 @@
         <v>54</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="P105" s="27" t="s">
         <v>64</v>
@@ -8427,25 +8463,25 @@
     </row>
     <row r="106" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="H106" s="22">
         <v>13688468803</v>
@@ -8454,7 +8490,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="L106" s="25" t="s">
         <v>53</v>
@@ -8463,7 +8499,7 @@
         <v>54</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="P106" s="27" t="s">
         <v>64</v>
@@ -8471,22 +8507,22 @@
     </row>
     <row r="107" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="22">
@@ -8503,7 +8539,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>57</v>
@@ -8511,10 +8547,10 @@
     </row>
     <row r="108" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>51</v>
@@ -8526,7 +8562,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="22">
@@ -8536,7 +8572,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>53</v>
@@ -8553,10 +8589,10 @@
     </row>
     <row r="109" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>65</v>
@@ -8565,10 +8601,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="22">
@@ -8578,7 +8614,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>53</v>
@@ -8595,22 +8631,22 @@
     </row>
     <row r="110" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G110" s="23"/>
       <c r="H110" s="22">
@@ -8620,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="L110" s="25" t="s">
         <v>53</v>
@@ -8629,7 +8665,7 @@
         <v>54</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="P110" s="27" t="s">
         <v>64</v>
@@ -8637,22 +8673,22 @@
     </row>
     <row r="111" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="22">
@@ -8662,7 +8698,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L111" s="25" t="s">
         <v>53</v>
@@ -8671,7 +8707,7 @@
         <v>54</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="P111" s="27" t="s">
         <v>64</v>
@@ -8679,22 +8715,22 @@
     </row>
     <row r="112" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="22">
@@ -8704,16 +8740,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="L112" s="25" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="P112" s="27" t="s">
         <v>64</v>
@@ -8721,22 +8757,22 @@
     </row>
     <row r="113" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="22">
@@ -8746,7 +8782,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>53</v>
@@ -8755,7 +8791,7 @@
         <v>54</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="P113" s="27" t="s">
         <v>64</v>
@@ -8763,22 +8799,22 @@
     </row>
     <row r="114" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="22">
@@ -8795,7 +8831,7 @@
         <v>54</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="P114" s="27" t="s">
         <v>64</v>
@@ -8803,22 +8839,22 @@
     </row>
     <row r="115" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="22">
@@ -8828,7 +8864,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="L115" s="25" t="s">
         <v>53</v>
@@ -8837,7 +8873,7 @@
         <v>54</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="P115" s="27" t="s">
         <v>64</v>
@@ -8845,22 +8881,22 @@
     </row>
     <row r="116" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="22">
@@ -8870,7 +8906,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="L116" s="25" t="s">
         <v>53</v>
@@ -8879,7 +8915,7 @@
         <v>54</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="P116" s="27" t="s">
         <v>64</v>
@@ -8887,22 +8923,22 @@
     </row>
     <row r="117" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="22">
@@ -8912,7 +8948,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="L117" s="25" t="s">
         <v>53</v>
@@ -8921,7 +8957,7 @@
         <v>54</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="P117" s="27" t="s">
         <v>64</v>
@@ -8929,22 +8965,22 @@
     </row>
     <row r="118" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="22">
@@ -8954,7 +8990,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="L118" s="25" t="s">
         <v>53</v>
@@ -8963,7 +8999,7 @@
         <v>54</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="P118" s="27" t="s">
         <v>64</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="599">
   <si>
     <t>url</t>
   </si>
@@ -630,78 +630,33 @@
     <t>{"id":"32fa16cbf5974f2c86014a24913e570b"}</t>
   </si>
   <si>
-    <t>ElectricBicycle020</t>
-  </si>
-  <si>
-    <t>车架号是否存在</t>
-  </si>
-  <si>
     <t>车架号存在</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/getBikeCccInfo</t>
-  </si>
-  <si>
-    <t>{"frameNumber":"579757890668997"}</t>
-  </si>
-  <si>
     <t>{"data":{"showDialog":false}}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45032</t>
-  </si>
-  <si>
-    <t>ElectricBicycle021</t>
-  </si>
-  <si>
-    <t>检查车架号和身份证号</t>
-  </si>
-  <si>
     <t>申请数量未达到限制</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/checkStatus</t>
-  </si>
-  <si>
-    <t>{"id":"","frameNumber":"579757890668997","certificateType":"%E5%B1%85%E6%B0%91%E8%BA%AB%E4%BB%BD%E8%AF%81","certificateNumber":"511101199901011234"}</t>
-  </si>
-  <si>
     <t>{"data":{"applyCountReachedLimit":false}}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45540</t>
-  </si>
-  <si>
-    <t>ElectricBicycle022</t>
-  </si>
-  <si>
     <t>车管所列表</t>
   </si>
   <si>
     <t>/pvtapi/electricBicycle/dmv/list</t>
   </si>
   <si>
-    <t>{"dmvName":"","page":1,"size":10,"businessType":1,"latitude":"","longitude":"","certificateType":"居民身份证","certificateNumber":"511101199901011234"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45216</t>
   </si>
   <si>
-    <t>ElectricBicycle023</t>
-  </si>
-  <si>
     <t>搜索不存在车管所</t>
   </si>
   <si>
-    <t>{"dmvName":"滴滴滴","page":1,"size":10,"businessType":1,"latitude":"","longitude":"","certificateType":"居民身份证","certificateNumber":"511101199901011234"}</t>
-  </si>
-  <si>
     <t>{"data":{,"list":[]}}</t>
   </si>
   <si>
-    <t>ElectricBicycle024</t>
-  </si>
-  <si>
     <t>搜索正确的车管所</t>
   </si>
   <si>
@@ -711,21 +666,12 @@
     <t>{"data":{"list":[{"id":559,"name":"三桥车管所"}]}}</t>
   </si>
   <si>
-    <t>ElectricBicycle025</t>
-  </si>
-  <si>
     <t>获取可预约日期的列表</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/exchangeLicensePlate/getDataList</t>
-  </si>
-  <si>
     <t>{"dmvId":559,"type":"1"}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45508</t>
-  </si>
-  <si>
     <t>ElectricBicycle026</t>
   </si>
   <si>
@@ -736,9 +682,6 @@
   </si>
   <si>
     <t>/pvtapi/electricBicycle/apply/newGB/submit</t>
-  </si>
-  <si>
-    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"511101199901011234","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":559,"dmvName":"三桥车管所","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/44776</t>
@@ -1898,35 +1841,35 @@
   </si>
   <si>
     <t>{"passcardType":"8"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/pvtapi/deliveryVehicle/passcardTypeState</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"type":"banner"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>electricBannerOrPop001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/pvtapi/electricBicycle/isBind</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"plateNum":"%E4%B8%B4%E8%B4%B5%E5%B7%9EA20111"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/electricBicycle/qr</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"type":"electricBicycleNotice"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1958,7 +1901,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2041,118 +1984,118 @@
   </si>
   <si>
     <t>/pvtapi/sys/dict/list</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"dictType":"body_color"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"dictType":"id_type"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>“通行证类型”状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电动自行车预约</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/19711</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>passcardTypeState001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>caseNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>function</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>priority</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>testPoint</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>frontCondition</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>reqData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>expectResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>otherExpectData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">remarks </t>
   </si>
   <si>
     <t>请求成功，返回正确信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>胥键雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>taoke</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"success":true,"code":1000,"msg":"操作成功"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>获取“通行证类型”的状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电动车banner接口</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/electric/electricBannerOrPop</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>creator</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>autoCreator</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>检测是否领取</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45684</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2175,7 +2118,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2198,39 +2141,39 @@
       </rPr>
       <t>001</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电动自行车行驶证二维码</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/46554</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>获取须知信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/7704</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/pvtapi/sys/notice/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/pvtapi/sys/notice/detail</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文件上传</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/5452</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2255,27 +2198,27 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/pvtapi/file/upload</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"type":"electricBicycleLaw"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"file":""}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>获取系统字典</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/5077</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2324,31 +2267,31 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/electricBicycle/apply/address/addressSelector</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"id":2}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45572</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地址选择</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>/electricBicycle/apply/address/addressSelector</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>addressSelector001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>addressSelector002</t>
@@ -2379,18 +2322,231 @@
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45572</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"frameNumber":"579757890668997"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/getBikeCccInfo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/checkStatus</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"","frameNumber":"579757890679889","certificateType":"%E5%B1%85%E6%B0%91%E8%BA%AB%E4%BB%BD%E8%AF%81","certificateNumber":"520102199306117822", "businessType" :1}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号需要是登录手机号得身份证</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/dmv/list</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dmvName":"","page":1,"size":10,"businessType":1,"latitude":"","longitude":"","certificateType":"居民身份证","certificateNumber":"511101199901011234"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dmvName":"滴滴滴","page":1,"size":10,"businessType":1,"latitude":"","longitude":"","certificateType":"居民身份证","certificateNumber":"511101199901011234"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>车架号是否存在</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45032</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBikeCccInfo001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查车架号和身份证号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45540</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkStatus001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>车管所列表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45216</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electricBicycle/apply/address/addressSelector</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dmvL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dmvL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dmvL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取可预约日期的列表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45508</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/exchangeLicensePlate/getDataList</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getDataList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交新国标备案申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/44776</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>newGBsubmit001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/apply/newGB/submit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"511101199901011234","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2543,98 +2699,95 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2642,16 +2795,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2938,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2950,9 +3106,9 @@
     <col min="4" max="4" width="14.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="48.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="53.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.75" style="3" customWidth="1"/>
@@ -3660,19 +3816,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>0</v>
@@ -3681,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>2</v>
@@ -3690,28 +3846,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -3994,22 +4150,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="28">
@@ -4019,25 +4175,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -4045,13 +4201,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4060,32 +4216,32 @@
         <v>58</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -4093,13 +4249,13 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -4108,11 +4264,11 @@
         <v>61</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>52</v>
@@ -4128,13 +4284,13 @@
         <v>62</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>57</v>
@@ -4142,7 +4298,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4154,20 +4310,20 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4176,13 +4332,13 @@
         <v>54</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>64</v>
@@ -4190,13 +4346,13 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -4205,17 +4361,17 @@
         <v>65</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4227,13 +4383,13 @@
         <v>66</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>57</v>
@@ -4241,7 +4397,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4256,17 +4412,17 @@
         <v>69</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4281,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>57</v>
@@ -4292,13 +4448,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4307,17 +4463,17 @@
         <v>71</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>53</v>
@@ -4326,13 +4482,13 @@
         <v>54</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>57</v>
@@ -4340,13 +4496,13 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4355,17 +4511,17 @@
         <v>73</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4374,13 +4530,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>57</v>
@@ -4388,7 +4544,7 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -4407,13 +4563,13 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4425,10 +4581,10 @@
         <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>57</v>
@@ -4436,13 +4592,13 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -4451,17 +4607,17 @@
         <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4470,13 +4626,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>57</v>
@@ -4484,7 +4640,7 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -4503,7 +4659,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -4521,10 +4677,10 @@
         <v>80</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>57</v>
@@ -4532,7 +4688,7 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -4551,7 +4707,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
@@ -4569,10 +4725,10 @@
         <v>80</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>57</v>
@@ -4580,7 +4736,7 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -4599,7 +4755,7 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
@@ -4614,13 +4770,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>57</v>
@@ -4628,7 +4784,7 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -4647,7 +4803,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
@@ -4665,10 +4821,10 @@
         <v>80</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>57</v>
@@ -4676,7 +4832,7 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -4691,11 +4847,11 @@
         <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
@@ -4713,10 +4869,10 @@
         <v>80</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>57</v>
@@ -4724,7 +4880,7 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -4743,7 +4899,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
@@ -4761,10 +4917,10 @@
         <v>80</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>57</v>
@@ -4772,7 +4928,7 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -4791,7 +4947,7 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
@@ -4809,10 +4965,10 @@
         <v>80</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>57</v>
@@ -4820,7 +4976,7 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -4839,7 +4995,7 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>13</v>
@@ -4857,10 +5013,10 @@
         <v>80</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>57</v>
@@ -4868,7 +5024,7 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -4882,12 +5038,12 @@
       <c r="E31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>79</v>
+      <c r="F31" s="29" t="s">
+        <v>586</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
@@ -4905,43 +5061,43 @@
         <v>80</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>98</v>
+      <c r="A32" s="31" t="s">
+        <v>580</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
+      <c r="C32" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>571</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>102</v>
+        <v>570</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -4950,49 +5106,51 @@
         <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>105</v>
+      <c r="A33" s="31" t="s">
+        <v>583</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>106</v>
+      <c r="C33" s="37" t="s">
+        <v>581</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>574</v>
+      </c>
       <c r="H33" s="1">
-        <v>19180580229</v>
+        <v>17822000000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>109</v>
+      <c r="K33" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -5001,39 +5159,39 @@
         <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>112</v>
+      <c r="A34" s="31" t="s">
+        <v>587</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>113</v>
+      <c r="C34" s="37" t="s">
+        <v>584</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>575</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5042,8 +5200,8 @@
       <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>115</v>
+      <c r="K34" s="30" t="s">
+        <v>576</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5052,36 +5210,36 @@
         <v>54</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>116</v>
+        <v>585</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>117</v>
+      <c r="A35" s="31" t="s">
+        <v>588</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1">
@@ -5090,8 +5248,8 @@
       <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>119</v>
+      <c r="K35" s="30" t="s">
+        <v>577</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5100,39 +5258,39 @@
         <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>121</v>
+      <c r="A36" s="31" t="s">
+        <v>589</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1">
@@ -5142,7 +5300,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>53</v>
@@ -5151,39 +5309,39 @@
         <v>54</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>125</v>
+      <c r="A37" s="31" t="s">
+        <v>593</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>126</v>
+      <c r="C37" s="37" t="s">
+        <v>590</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>592</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5193,7 +5351,7 @@
         <v>13</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>53</v>
@@ -5202,36 +5360,36 @@
         <v>54</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>129</v>
+        <v>591</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>130</v>
+      <c r="A38" s="31" t="s">
+        <v>596</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>131</v>
+      <c r="C38" s="37" t="s">
+        <v>594</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>597</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5240,8 +5398,8 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>134</v>
+      <c r="K38" s="30" t="s">
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5250,13 +5408,13 @@
         <v>54</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>135</v>
+        <v>595</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>57</v>
@@ -5264,25 +5422,25 @@
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H39" s="1">
         <v>19180580229</v>
@@ -5291,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5300,16 +5458,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R39" s="16" t="s">
         <v>57</v>
@@ -5317,7 +5475,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5342,7 +5500,7 @@
         <v>52</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>53</v>
@@ -5354,10 +5512,10 @@
         <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>57</v>
@@ -5365,25 +5523,25 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H41" s="1">
         <v>19180580229</v>
@@ -5392,7 +5550,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5401,16 +5559,16 @@
         <v>54</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>57</v>
@@ -5418,25 +5576,25 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H42" s="1">
         <v>19180580229</v>
@@ -5445,7 +5603,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>53</v>
@@ -5454,13 +5612,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>57</v>
@@ -5468,25 +5626,25 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1">
         <v>19180580229</v>
@@ -5495,7 +5653,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>53</v>
@@ -5504,13 +5662,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R43" s="16" t="s">
         <v>57</v>
@@ -5518,25 +5676,25 @@
     </row>
     <row r="44" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -5545,7 +5703,7 @@
         <v>13</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>53</v>
@@ -5554,16 +5712,16 @@
         <v>54</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R44" s="16" t="s">
         <v>57</v>
@@ -5571,22 +5729,22 @@
     </row>
     <row r="45" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="1">
@@ -5596,7 +5754,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>53</v>
@@ -5605,16 +5763,16 @@
         <v>54</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>57</v>
@@ -5622,25 +5780,25 @@
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H46" s="1">
         <v>19180580229</v>
@@ -5649,7 +5807,7 @@
         <v>13</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>53</v>
@@ -5658,16 +5816,16 @@
         <v>54</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>57</v>
@@ -5675,25 +5833,25 @@
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H47" s="1">
         <v>19180580229</v>
@@ -5702,7 +5860,7 @@
         <v>13</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>53</v>
@@ -5711,16 +5869,16 @@
         <v>54</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>57</v>
@@ -5728,25 +5886,25 @@
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H48" s="1">
         <v>19180580229</v>
@@ -5755,7 +5913,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>53</v>
@@ -5764,16 +5922,16 @@
         <v>54</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>57</v>
@@ -5781,25 +5939,25 @@
     </row>
     <row r="49" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H49" s="1">
         <v>19180580229</v>
@@ -5808,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>53</v>
@@ -5817,16 +5975,16 @@
         <v>54</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>57</v>
@@ -5834,25 +5992,25 @@
     </row>
     <row r="50" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H50" s="1">
         <v>19180580229</v>
@@ -5861,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>53</v>
@@ -5870,16 +6028,16 @@
         <v>54</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
@@ -5887,25 +6045,25 @@
     </row>
     <row r="51" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H51" s="1">
         <v>19180580229</v>
@@ -5914,7 +6072,7 @@
         <v>13</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>53</v>
@@ -5923,16 +6081,16 @@
         <v>54</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>57</v>
@@ -5940,25 +6098,25 @@
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
@@ -5967,25 +6125,25 @@
         <v>52</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
@@ -5993,25 +6151,25 @@
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
@@ -6020,25 +6178,25 @@
         <v>52</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>57</v>
@@ -6046,25 +6204,25 @@
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
@@ -6073,7 +6231,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6082,13 +6240,13 @@
         <v>54</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>57</v>
@@ -6096,25 +6254,25 @@
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
@@ -6123,7 +6281,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6132,13 +6290,13 @@
         <v>54</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>57</v>
@@ -6146,25 +6304,25 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
@@ -6173,25 +6331,25 @@
         <v>52</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>57</v>
@@ -6199,25 +6357,25 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
@@ -6226,25 +6384,25 @@
         <v>52</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>57</v>
@@ -6252,25 +6410,25 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
@@ -6279,7 +6437,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
@@ -6288,13 +6446,13 @@
         <v>54</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>57</v>
@@ -6302,22 +6460,22 @@
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1">
@@ -6334,13 +6492,13 @@
         <v>54</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>57</v>
@@ -6348,22 +6506,22 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6380,13 +6538,13 @@
         <v>54</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q60" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>57</v>
@@ -6394,22 +6552,22 @@
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6426,13 +6584,13 @@
         <v>54</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q61" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>57</v>
@@ -6440,22 +6598,22 @@
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6465,7 +6623,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
@@ -6474,13 +6632,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q62" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>57</v>
@@ -6488,22 +6646,22 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6513,7 +6671,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6522,13 +6680,13 @@
         <v>54</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q63" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>57</v>
@@ -6536,25 +6694,25 @@
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6563,7 +6721,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6572,16 +6730,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q64" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>57</v>
@@ -6589,25 +6747,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6616,25 +6774,25 @@
         <v>13</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q65" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>57</v>
@@ -6642,25 +6800,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -6669,25 +6827,25 @@
         <v>13</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q66" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>57</v>
@@ -6695,25 +6853,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -6722,25 +6880,25 @@
         <v>13</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q67" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>57</v>
@@ -6748,22 +6906,22 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -6780,16 +6938,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q68" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>57</v>
@@ -6797,22 +6955,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -6829,13 +6987,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q69" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>57</v>
@@ -6843,22 +7001,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -6868,7 +7026,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -6877,13 +7035,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q70" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>57</v>
@@ -6891,22 +7049,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -6916,25 +7074,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q71" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -6942,22 +7100,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -6967,7 +7125,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -6976,13 +7134,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q72" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>57</v>
@@ -6990,22 +7148,22 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -7015,7 +7173,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -7024,13 +7182,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q73" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -7038,22 +7196,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7070,13 +7228,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q74" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>57</v>
@@ -7084,22 +7242,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7109,7 +7267,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7118,13 +7276,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q75" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>57</v>
@@ -7132,22 +7290,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7157,7 +7315,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7166,13 +7324,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q76" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>57</v>
@@ -7180,25 +7338,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7207,7 +7365,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7216,13 +7374,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q77" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>57</v>
@@ -7230,25 +7388,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7257,7 +7415,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7266,13 +7424,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q78" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>57</v>
@@ -7280,25 +7438,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7307,7 +7465,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7316,16 +7474,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q79" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>57</v>
@@ -7333,25 +7491,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7360,7 +7518,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7369,16 +7527,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q80" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>57</v>
@@ -7386,25 +7544,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7413,7 +7571,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7422,16 +7580,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q81" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>57</v>
@@ -7439,25 +7597,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7466,7 +7624,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7475,16 +7633,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q82" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>57</v>
@@ -7492,25 +7650,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7519,7 +7677,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7528,16 +7686,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="Q83" s="37" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>57</v>
@@ -7545,22 +7703,22 @@
     </row>
     <row r="84" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="22">
@@ -7570,7 +7728,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>53</v>
@@ -7579,7 +7737,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="P84" s="27" t="s">
         <v>57</v>
@@ -7587,22 +7745,22 @@
     </row>
     <row r="85" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="22">
@@ -7612,7 +7770,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="L85" s="25" t="s">
         <v>53</v>
@@ -7621,7 +7779,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>57</v>
@@ -7629,22 +7787,22 @@
     </row>
     <row r="86" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="22">
@@ -7661,7 +7819,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="P86" s="27" t="s">
         <v>57</v>
@@ -7669,22 +7827,22 @@
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="22">
@@ -7701,7 +7859,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="P87" s="27" t="s">
         <v>57</v>
@@ -7709,22 +7867,22 @@
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B88" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>351</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="22">
@@ -7734,7 +7892,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="L88" s="25" t="s">
         <v>53</v>
@@ -7743,7 +7901,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="P88" s="27" t="s">
         <v>57</v>
@@ -7751,25 +7909,25 @@
     </row>
     <row r="89" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="H89" s="22">
         <v>19180580229</v>
@@ -7778,7 +7936,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="L89" s="25" t="s">
         <v>53</v>
@@ -7787,7 +7945,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="P89" s="27" t="s">
         <v>57</v>
@@ -7795,22 +7953,22 @@
     </row>
     <row r="90" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="22">
@@ -7820,7 +7978,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="L90" s="25" t="s">
         <v>53</v>
@@ -7829,7 +7987,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="P90" s="27" t="s">
         <v>57</v>
@@ -7837,22 +7995,22 @@
     </row>
     <row r="91" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="22">
@@ -7862,7 +8020,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>53</v>
@@ -7871,7 +8029,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="P91" s="27" t="s">
         <v>57</v>
@@ -7879,22 +8037,22 @@
     </row>
     <row r="92" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="22">
@@ -7904,7 +8062,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>53</v>
@@ -7913,7 +8071,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="P92" s="27" t="s">
         <v>57</v>
@@ -7921,22 +8079,22 @@
     </row>
     <row r="93" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="22">
@@ -7946,7 +8104,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>53</v>
@@ -7955,7 +8113,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="P93" s="27" t="s">
         <v>57</v>
@@ -7963,25 +8121,25 @@
     </row>
     <row r="94" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H94" s="22">
         <v>19180580229</v>
@@ -7990,7 +8148,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="L94" s="25" t="s">
         <v>53</v>
@@ -7999,7 +8157,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="P94" s="27" t="s">
         <v>57</v>
@@ -8007,25 +8165,25 @@
     </row>
     <row r="95" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="H95" s="22">
         <v>19180580229</v>
@@ -8034,7 +8192,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>53</v>
@@ -8043,7 +8201,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="P95" s="27" t="s">
         <v>57</v>
@@ -8051,22 +8209,22 @@
     </row>
     <row r="96" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="22">
@@ -8076,7 +8234,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="L96" s="25" t="s">
         <v>53</v>
@@ -8085,7 +8243,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="P96" s="27" t="s">
         <v>57</v>
@@ -8093,22 +8251,22 @@
     </row>
     <row r="97" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="22">
@@ -8118,7 +8276,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>53</v>
@@ -8127,7 +8285,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="P97" s="27" t="s">
         <v>57</v>
@@ -8135,22 +8293,22 @@
     </row>
     <row r="98" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="22">
@@ -8167,7 +8325,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="P98" s="27" t="s">
         <v>57</v>
@@ -8175,22 +8333,22 @@
     </row>
     <row r="99" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="22">
@@ -8207,7 +8365,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="P99" s="27" t="s">
         <v>57</v>
@@ -8215,22 +8373,22 @@
     </row>
     <row r="100" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="22">
@@ -8240,7 +8398,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="L100" s="25" t="s">
         <v>53</v>
@@ -8249,7 +8407,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="P100" s="27" t="s">
         <v>57</v>
@@ -8257,22 +8415,22 @@
     </row>
     <row r="101" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="22">
@@ -8282,7 +8440,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="L101" s="25" t="s">
         <v>53</v>
@@ -8291,7 +8449,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="P101" s="27" t="s">
         <v>57</v>
@@ -8299,22 +8457,22 @@
     </row>
     <row r="102" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="22">
@@ -8331,7 +8489,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="P102" s="27" t="s">
         <v>57</v>
@@ -8339,22 +8497,22 @@
     </row>
     <row r="103" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="22">
@@ -8364,7 +8522,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="L103" s="25" t="s">
         <v>53</v>
@@ -8373,7 +8531,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="P103" s="27" t="s">
         <v>57</v>
@@ -8381,22 +8539,22 @@
     </row>
     <row r="104" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="22">
@@ -8413,7 +8571,7 @@
         <v>54</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="P104" s="27" t="s">
         <v>64</v>
@@ -8421,22 +8579,22 @@
     </row>
     <row r="105" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G105" s="23"/>
       <c r="H105" s="22">
@@ -8446,7 +8604,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="L105" s="25" t="s">
         <v>53</v>
@@ -8455,7 +8613,7 @@
         <v>54</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="P105" s="27" t="s">
         <v>64</v>
@@ -8463,25 +8621,25 @@
     </row>
     <row r="106" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="H106" s="22">
         <v>13688468803</v>
@@ -8490,7 +8648,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="L106" s="25" t="s">
         <v>53</v>
@@ -8499,7 +8657,7 @@
         <v>54</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="P106" s="27" t="s">
         <v>64</v>
@@ -8507,22 +8665,22 @@
     </row>
     <row r="107" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="22">
@@ -8539,7 +8697,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>57</v>
@@ -8547,10 +8705,10 @@
     </row>
     <row r="108" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>51</v>
@@ -8562,7 +8720,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="22">
@@ -8572,7 +8730,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>53</v>
@@ -8589,10 +8747,10 @@
     </row>
     <row r="109" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>65</v>
@@ -8601,10 +8759,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="22">
@@ -8614,7 +8772,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>53</v>
@@ -8631,22 +8789,22 @@
     </row>
     <row r="110" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G110" s="23"/>
       <c r="H110" s="22">
@@ -8656,7 +8814,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="L110" s="25" t="s">
         <v>53</v>
@@ -8665,7 +8823,7 @@
         <v>54</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="P110" s="27" t="s">
         <v>64</v>
@@ -8673,22 +8831,22 @@
     </row>
     <row r="111" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="22">
@@ -8698,7 +8856,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="L111" s="25" t="s">
         <v>53</v>
@@ -8707,7 +8865,7 @@
         <v>54</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="P111" s="27" t="s">
         <v>64</v>
@@ -8715,22 +8873,22 @@
     </row>
     <row r="112" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="22">
@@ -8740,16 +8898,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="L112" s="25" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="P112" s="27" t="s">
         <v>64</v>
@@ -8757,22 +8915,22 @@
     </row>
     <row r="113" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="22">
@@ -8782,7 +8940,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>53</v>
@@ -8791,7 +8949,7 @@
         <v>54</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="P113" s="27" t="s">
         <v>64</v>
@@ -8799,22 +8957,22 @@
     </row>
     <row r="114" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="22">
@@ -8831,7 +8989,7 @@
         <v>54</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="P114" s="27" t="s">
         <v>64</v>
@@ -8839,22 +8997,22 @@
     </row>
     <row r="115" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="22">
@@ -8864,7 +9022,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="L115" s="25" t="s">
         <v>53</v>
@@ -8873,7 +9031,7 @@
         <v>54</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="P115" s="27" t="s">
         <v>64</v>
@@ -8881,22 +9039,22 @@
     </row>
     <row r="116" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="22">
@@ -8906,7 +9064,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="L116" s="25" t="s">
         <v>53</v>
@@ -8915,7 +9073,7 @@
         <v>54</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="P116" s="27" t="s">
         <v>64</v>
@@ -8923,22 +9081,22 @@
     </row>
     <row r="117" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="22">
@@ -8948,7 +9106,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="L117" s="25" t="s">
         <v>53</v>
@@ -8957,7 +9115,7 @@
         <v>54</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="P117" s="27" t="s">
         <v>64</v>
@@ -8965,22 +9123,22 @@
     </row>
     <row r="118" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="22">
@@ -8990,7 +9148,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="L118" s="25" t="s">
         <v>53</v>
@@ -8999,7 +9157,7 @@
         <v>54</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="P118" s="27" t="s">
         <v>64</v>
@@ -9879,7 +10037,7 @@
   <mergeCells count="1">
     <mergeCell ref="A10:E11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O13" r:id="rId1"/>
     <hyperlink ref="R13" r:id="rId2"/>
@@ -10059,7 +10217,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="601">
   <si>
     <t>url</t>
   </si>
@@ -687,9 +687,6 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/44776</t>
   </si>
   <si>
-    <t>ElectricBicycle027</t>
-  </si>
-  <si>
     <t>预约状态查询</t>
   </si>
   <si>
@@ -2325,10 +2322,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"frameNumber":"579757890668997"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>/pvtapi/electricBicycle/getBikeCccInfo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2526,7 +2519,42 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"511101199901011234","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45356</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/apply/records/applyStatus</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyStatus001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"frameNumber":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>520102199306117822</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"520102199306117822","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3094,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3816,19 +3844,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>518</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>519</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>0</v>
@@ -3837,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>2</v>
@@ -3846,28 +3874,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>521</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>522</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>534</v>
-      </c>
       <c r="R1" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -4150,22 +4178,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="28">
@@ -4175,25 +4203,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q13" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R13" s="16" t="s">
         <v>57</v>
@@ -4201,13 +4229,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4216,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4226,22 +4254,22 @@
         <v>52</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q14" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R14" s="16" t="s">
         <v>57</v>
@@ -4249,13 +4277,13 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -4264,7 +4292,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4284,13 +4312,13 @@
         <v>62</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q15" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R15" s="16" t="s">
         <v>57</v>
@@ -4298,7 +4326,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4310,10 +4338,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4323,7 +4351,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4332,13 +4360,13 @@
         <v>54</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q16" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>64</v>
@@ -4346,13 +4374,13 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -4361,7 +4389,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4371,7 +4399,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4383,13 +4411,13 @@
         <v>66</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q17" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q17" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R17" s="16" t="s">
         <v>57</v>
@@ -4397,7 +4425,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4412,7 +4440,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4422,7 +4450,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4437,10 +4465,10 @@
         <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q18" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q18" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R18" s="16" t="s">
         <v>57</v>
@@ -4448,13 +4476,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4463,7 +4491,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4473,7 +4501,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>53</v>
@@ -4482,13 +4510,13 @@
         <v>54</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q19" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q19" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R19" s="19" t="s">
         <v>57</v>
@@ -4496,13 +4524,13 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4511,7 +4539,7 @@
         <v>73</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4521,7 +4549,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4530,13 +4558,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q20" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R20" s="16" t="s">
         <v>57</v>
@@ -4544,7 +4572,7 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -4569,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4581,10 +4609,10 @@
         <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q21" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q21" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R21" s="16" t="s">
         <v>57</v>
@@ -4592,13 +4620,13 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -4607,7 +4635,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4617,7 +4645,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4626,13 +4654,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q22" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q22" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R22" s="16" t="s">
         <v>57</v>
@@ -4640,7 +4668,7 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -4677,10 +4705,10 @@
         <v>80</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q23" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R23" s="16" t="s">
         <v>57</v>
@@ -4688,7 +4716,7 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -4725,10 +4753,10 @@
         <v>80</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q24" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q24" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R24" s="16" t="s">
         <v>57</v>
@@ -4736,7 +4764,7 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -4770,13 +4798,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q25" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q25" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R25" s="16" t="s">
         <v>57</v>
@@ -4784,7 +4812,7 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -4821,10 +4849,10 @@
         <v>80</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q26" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q26" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R26" s="16" t="s">
         <v>57</v>
@@ -4832,7 +4860,7 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -4847,7 +4875,7 @@
         <v>89</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -4869,10 +4897,10 @@
         <v>80</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q27" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q27" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R27" s="16" t="s">
         <v>57</v>
@@ -4880,7 +4908,7 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -4917,10 +4945,10 @@
         <v>80</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q28" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q28" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R28" s="16" t="s">
         <v>57</v>
@@ -4928,7 +4956,7 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -4965,10 +4993,10 @@
         <v>80</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q29" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q29" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R29" s="16" t="s">
         <v>57</v>
@@ -4976,7 +5004,7 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -5013,10 +5041,10 @@
         <v>80</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q30" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q30" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R30" s="16" t="s">
         <v>57</v>
@@ -5024,7 +5052,7 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -5039,7 +5067,7 @@
         <v>96</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -5061,10 +5089,10 @@
         <v>80</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q31" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R31" s="16" t="s">
         <v>57</v>
@@ -5072,13 +5100,13 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -5087,7 +5115,7 @@
         <v>98</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -5096,8 +5124,8 @@
       <c r="I32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>570</v>
+      <c r="K32" s="30" t="s">
+        <v>599</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -5109,13 +5137,13 @@
         <v>99</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q32" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q32" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R32" s="16" t="s">
         <v>57</v>
@@ -5123,13 +5151,13 @@
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -5138,10 +5166,10 @@
         <v>100</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>572</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>574</v>
       </c>
       <c r="H33" s="1">
         <v>17822000000</v>
@@ -5150,7 +5178,7 @@
         <v>52</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -5162,13 +5190,13 @@
         <v>101</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q33" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q33" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R33" s="16" t="s">
         <v>57</v>
@@ -5176,13 +5204,13 @@
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -5191,7 +5219,7 @@
         <v>102</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5201,7 +5229,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5210,13 +5238,13 @@
         <v>54</v>
       </c>
       <c r="O34" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P34" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q34" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q34" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R34" s="16" t="s">
         <v>57</v>
@@ -5224,7 +5252,7 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -5249,7 +5277,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5264,10 +5292,10 @@
         <v>104</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q35" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>57</v>
@@ -5275,7 +5303,7 @@
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
@@ -5315,10 +5343,10 @@
         <v>104</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q36" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q36" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R36" s="16" t="s">
         <v>57</v>
@@ -5326,13 +5354,13 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -5341,7 +5369,7 @@
         <v>110</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5360,13 +5388,13 @@
         <v>54</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q37" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q37" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R37" s="16" t="s">
         <v>57</v>
@@ -5374,13 +5402,13 @@
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -5389,7 +5417,7 @@
         <v>114</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5399,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5408,36 +5436,36 @@
         <v>54</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q38" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R38" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>117</v>
+      <c r="A39" s="31" t="s">
+        <v>598</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>120</v>
+        <v>597</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>112</v>
@@ -5449,7 +5477,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5458,16 +5486,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>123</v>
+        <v>596</v>
       </c>
       <c r="P39" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q39" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R39" s="16" t="s">
         <v>57</v>
@@ -5475,7 +5503,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5500,7 +5528,7 @@
         <v>52</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>53</v>
@@ -5512,10 +5540,10 @@
         <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q40" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q40" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R40" s="16" t="s">
         <v>57</v>
@@ -5523,22 +5551,22 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>112</v>
@@ -5550,7 +5578,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5559,16 +5587,16 @@
         <v>54</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="O41" s="16" t="s">
-        <v>131</v>
-      </c>
       <c r="P41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q41" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q41" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R41" s="16" t="s">
         <v>57</v>
@@ -5576,22 +5604,22 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>112</v>
@@ -5603,7 +5631,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>53</v>
@@ -5612,13 +5640,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q42" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q42" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R42" s="16" t="s">
         <v>57</v>
@@ -5626,22 +5654,22 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>112</v>
@@ -5653,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>53</v>
@@ -5662,13 +5690,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q43" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q43" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R43" s="16" t="s">
         <v>57</v>
@@ -5676,25 +5704,25 @@
     </row>
     <row r="44" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -5703,7 +5731,7 @@
         <v>13</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>53</v>
@@ -5712,16 +5740,16 @@
         <v>54</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P44" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q44" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q44" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R44" s="16" t="s">
         <v>57</v>
@@ -5729,7 +5757,7 @@
     </row>
     <row r="45" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
@@ -5741,7 +5769,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>115</v>
@@ -5754,7 +5782,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>53</v>
@@ -5763,42 +5791,42 @@
         <v>54</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O45" s="20" t="s">
         <v>116</v>
       </c>
       <c r="P45" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q45" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q45" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R45" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="H46" s="1">
         <v>19180580229</v>
@@ -5807,7 +5835,7 @@
         <v>13</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>53</v>
@@ -5816,42 +5844,42 @@
         <v>54</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P46" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q46" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q46" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R46" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H47" s="1">
         <v>19180580229</v>
@@ -5860,7 +5888,7 @@
         <v>13</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>53</v>
@@ -5869,42 +5897,42 @@
         <v>54</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P47" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q47" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q47" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R47" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="H48" s="1">
         <v>19180580229</v>
@@ -5913,7 +5941,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>53</v>
@@ -5922,42 +5950,42 @@
         <v>54</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P48" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q48" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q48" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R48" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H49" s="1">
         <v>19180580229</v>
@@ -5966,7 +5994,7 @@
         <v>13</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>53</v>
@@ -5975,42 +6003,42 @@
         <v>54</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P49" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q49" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R49" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="H50" s="1">
         <v>19180580229</v>
@@ -6019,7 +6047,7 @@
         <v>13</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>53</v>
@@ -6028,42 +6056,42 @@
         <v>54</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P50" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q50" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q50" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="H51" s="1">
         <v>19180580229</v>
@@ -6072,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>53</v>
@@ -6081,42 +6109,42 @@
         <v>54</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q51" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q51" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="G52" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
@@ -6125,51 +6153,51 @@
         <v>52</v>
       </c>
       <c r="K52" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="N52" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="O52" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="P52" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q52" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q52" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
@@ -6178,51 +6206,51 @@
         <v>52</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M53" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M53" s="13" t="s">
+      <c r="N53" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="O53" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="P53" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q53" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q53" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
@@ -6231,7 +6259,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6240,39 +6268,39 @@
         <v>54</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P54" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q54" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q54" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
@@ -6281,7 +6309,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6290,39 +6318,39 @@
         <v>54</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P55" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q55" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q55" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="G56" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
@@ -6331,51 +6359,51 @@
         <v>52</v>
       </c>
       <c r="K56" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M56" s="13" t="s">
+      <c r="N56" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="O56" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="P56" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q56" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q56" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
@@ -6384,51 +6412,51 @@
         <v>52</v>
       </c>
       <c r="K57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M57" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M57" s="13" t="s">
+      <c r="N57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="O57" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P57" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q57" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q57" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
@@ -6437,7 +6465,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
@@ -6446,13 +6474,13 @@
         <v>54</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P58" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q58" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q58" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>57</v>
@@ -6460,22 +6488,22 @@
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1">
@@ -6492,13 +6520,13 @@
         <v>54</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P59" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q59" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q59" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>57</v>
@@ -6506,22 +6534,22 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6538,13 +6566,13 @@
         <v>54</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q60" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q60" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>57</v>
@@ -6552,22 +6580,22 @@
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6584,13 +6612,13 @@
         <v>54</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q61" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q61" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>57</v>
@@ -6598,22 +6626,22 @@
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6623,7 +6651,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
@@ -6632,13 +6660,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P62" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q62" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q62" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>57</v>
@@ -6646,22 +6674,22 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6671,7 +6699,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6680,13 +6708,13 @@
         <v>54</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P63" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q63" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q63" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>57</v>
@@ -6694,25 +6722,25 @@
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="G64" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6721,7 +6749,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6730,16 +6758,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O64" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="O64" s="20" t="s">
-        <v>242</v>
-      </c>
       <c r="P64" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q64" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q64" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>57</v>
@@ -6747,25 +6775,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6774,25 +6802,25 @@
         <v>13</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P65" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q65" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q65" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>57</v>
@@ -6800,25 +6828,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -6827,25 +6855,25 @@
         <v>13</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P66" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q66" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q66" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>57</v>
@@ -6853,25 +6881,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -6880,25 +6908,25 @@
         <v>13</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q67" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q67" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R67" s="16" t="s">
         <v>57</v>
@@ -6906,22 +6934,22 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -6938,16 +6966,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P68" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q68" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q68" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R68" s="16" t="s">
         <v>57</v>
@@ -6955,22 +6983,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -6987,13 +7015,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P69" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q69" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q69" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>57</v>
@@ -7001,22 +7029,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -7026,7 +7054,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -7035,13 +7063,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q70" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q70" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>57</v>
@@ -7049,22 +7077,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -7074,25 +7102,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M71" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L71" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M71" s="13" t="s">
+      <c r="N71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="O71" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="P71" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q71" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q71" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>57</v>
@@ -7100,22 +7128,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -7125,7 +7153,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -7134,13 +7162,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q72" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q72" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>57</v>
@@ -7148,22 +7176,22 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -7173,7 +7201,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -7182,13 +7210,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q73" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q73" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>57</v>
@@ -7196,22 +7224,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7228,13 +7256,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q74" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q74" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>57</v>
@@ -7242,22 +7270,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7267,7 +7295,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7276,13 +7304,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q75" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q75" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>57</v>
@@ -7290,22 +7318,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7315,7 +7343,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7324,13 +7352,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P76" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q76" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q76" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>57</v>
@@ -7338,25 +7366,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="G77" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7365,7 +7393,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7374,13 +7402,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P77" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q77" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q77" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R77" s="16" t="s">
         <v>57</v>
@@ -7388,25 +7416,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7415,7 +7443,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7424,13 +7452,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P78" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q78" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q78" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R78" s="16" t="s">
         <v>57</v>
@@ -7438,25 +7466,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7465,7 +7493,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7474,16 +7502,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q79" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q79" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R79" s="16" t="s">
         <v>57</v>
@@ -7491,25 +7519,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7518,7 +7546,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7527,16 +7555,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P80" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q80" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q80" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>57</v>
@@ -7544,25 +7572,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7571,7 +7599,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7580,16 +7608,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P81" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q81" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q81" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>57</v>
@@ -7597,25 +7625,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7624,7 +7652,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7633,16 +7661,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P82" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q82" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q82" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R82" s="16" t="s">
         <v>57</v>
@@ -7650,25 +7678,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7677,7 +7705,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7686,16 +7714,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P83" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q83" s="37" t="s">
         <v>526</v>
-      </c>
-      <c r="Q83" s="37" t="s">
-        <v>527</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>57</v>
@@ -7703,22 +7731,22 @@
     </row>
     <row r="84" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C84" s="22" t="s">
         <v>332</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>333</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F84" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="22">
@@ -7728,7 +7756,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>53</v>
@@ -7737,7 +7765,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P84" s="27" t="s">
         <v>57</v>
@@ -7745,22 +7773,22 @@
     </row>
     <row r="85" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>338</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85" s="23" t="s">
         <v>338</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>339</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="22">
@@ -7770,7 +7798,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L85" s="25" t="s">
         <v>53</v>
@@ -7779,7 +7807,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>57</v>
@@ -7787,22 +7815,22 @@
     </row>
     <row r="86" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>342</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="F86" s="23" t="s">
         <v>343</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>344</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="22">
@@ -7819,7 +7847,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P86" s="27" t="s">
         <v>57</v>
@@ -7827,22 +7855,22 @@
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>347</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="23" t="s">
         <v>347</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>348</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="22">
@@ -7859,7 +7887,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P87" s="27" t="s">
         <v>57</v>
@@ -7867,22 +7895,22 @@
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>350</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>351</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="23" t="s">
         <v>351</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>352</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="22">
@@ -7892,7 +7920,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L88" s="25" t="s">
         <v>53</v>
@@ -7901,7 +7929,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P88" s="27" t="s">
         <v>57</v>
@@ -7909,25 +7937,25 @@
     </row>
     <row r="89" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H89" s="22">
         <v>19180580229</v>
@@ -7936,7 +7964,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L89" s="25" t="s">
         <v>53</v>
@@ -7945,7 +7973,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P89" s="27" t="s">
         <v>57</v>
@@ -7953,22 +7981,22 @@
     </row>
     <row r="90" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="C90" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F90" s="23" t="s">
         <v>361</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>362</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="22">
@@ -7978,7 +8006,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L90" s="25" t="s">
         <v>53</v>
@@ -7987,7 +8015,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P90" s="27" t="s">
         <v>57</v>
@@ -7995,22 +8023,22 @@
     </row>
     <row r="91" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B91" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="22">
@@ -8020,7 +8048,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L91" s="25" t="s">
         <v>53</v>
@@ -8029,7 +8057,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P91" s="27" t="s">
         <v>57</v>
@@ -8037,22 +8065,22 @@
     </row>
     <row r="92" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="22">
@@ -8062,7 +8090,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L92" s="25" t="s">
         <v>53</v>
@@ -8071,7 +8099,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P92" s="27" t="s">
         <v>57</v>
@@ -8079,22 +8107,22 @@
     </row>
     <row r="93" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="C93" s="22" t="s">
         <v>372</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>373</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93" s="23" t="s">
         <v>373</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>374</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="22">
@@ -8104,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>53</v>
@@ -8113,7 +8141,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P93" s="27" t="s">
         <v>57</v>
@@ -8121,25 +8149,25 @@
     </row>
     <row r="94" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>372</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>373</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H94" s="22">
         <v>19180580229</v>
@@ -8148,7 +8176,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L94" s="25" t="s">
         <v>53</v>
@@ -8157,7 +8185,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P94" s="27" t="s">
         <v>57</v>
@@ -8165,25 +8193,25 @@
     </row>
     <row r="95" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>381</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>382</v>
-      </c>
       <c r="G95" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H95" s="22">
         <v>19180580229</v>
@@ -8192,7 +8220,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L95" s="25" t="s">
         <v>53</v>
@@ -8201,7 +8229,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P95" s="27" t="s">
         <v>57</v>
@@ -8209,22 +8237,22 @@
     </row>
     <row r="96" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>385</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="22">
@@ -8234,7 +8262,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L96" s="25" t="s">
         <v>53</v>
@@ -8243,7 +8271,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P96" s="27" t="s">
         <v>57</v>
@@ -8251,22 +8279,22 @@
     </row>
     <row r="97" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D97" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="22">
@@ -8276,7 +8304,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>53</v>
@@ -8285,7 +8313,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P97" s="27" t="s">
         <v>57</v>
@@ -8293,22 +8321,22 @@
     </row>
     <row r="98" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="C98" s="22" t="s">
         <v>394</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>395</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>395</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>396</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="22">
@@ -8325,7 +8353,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P98" s="27" t="s">
         <v>57</v>
@@ -8333,22 +8361,22 @@
     </row>
     <row r="99" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>398</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>399</v>
       </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>399</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="22">
@@ -8365,7 +8393,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P99" s="27" t="s">
         <v>57</v>
@@ -8373,22 +8401,22 @@
     </row>
     <row r="100" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>402</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>403</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F100" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>404</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="22">
@@ -8398,7 +8426,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L100" s="25" t="s">
         <v>53</v>
@@ -8407,7 +8435,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P100" s="27" t="s">
         <v>57</v>
@@ -8415,22 +8443,22 @@
     </row>
     <row r="101" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="22">
@@ -8440,7 +8468,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L101" s="25" t="s">
         <v>53</v>
@@ -8449,7 +8477,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P101" s="27" t="s">
         <v>57</v>
@@ -8457,22 +8485,22 @@
     </row>
     <row r="102" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>410</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>411</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>412</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="22">
@@ -8489,7 +8517,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P102" s="27" t="s">
         <v>57</v>
@@ -8497,22 +8525,22 @@
     </row>
     <row r="103" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>415</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>416</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="22">
@@ -8522,7 +8550,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L103" s="25" t="s">
         <v>53</v>
@@ -8531,7 +8559,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P103" s="27" t="s">
         <v>57</v>
@@ -8539,22 +8567,22 @@
     </row>
     <row r="104" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="C104" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>421</v>
       </c>
       <c r="D104" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F104" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="22">
@@ -8571,7 +8599,7 @@
         <v>54</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P104" s="27" t="s">
         <v>64</v>
@@ -8579,22 +8607,22 @@
     </row>
     <row r="105" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C105" s="22" t="s">
         <v>425</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>426</v>
       </c>
       <c r="D105" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="F105" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="G105" s="23"/>
       <c r="H105" s="22">
@@ -8604,7 +8632,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L105" s="25" t="s">
         <v>53</v>
@@ -8613,7 +8641,7 @@
         <v>54</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P105" s="27" t="s">
         <v>64</v>
@@ -8621,25 +8649,25 @@
     </row>
     <row r="106" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>432</v>
       </c>
       <c r="D106" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F106" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="F106" s="23" t="s">
-        <v>434</v>
-      </c>
       <c r="G106" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H106" s="22">
         <v>13688468803</v>
@@ -8648,7 +8676,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L106" s="25" t="s">
         <v>53</v>
@@ -8657,7 +8685,7 @@
         <v>54</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P106" s="27" t="s">
         <v>64</v>
@@ -8665,22 +8693,22 @@
     </row>
     <row r="107" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="C107" s="22" t="s">
         <v>438</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>439</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>439</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>440</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="22">
@@ -8697,7 +8725,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P107" s="27" t="s">
         <v>57</v>
@@ -8705,10 +8733,10 @@
     </row>
     <row r="108" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>51</v>
@@ -8720,7 +8748,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="22">
@@ -8730,7 +8758,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L108" s="25" t="s">
         <v>53</v>
@@ -8747,10 +8775,10 @@
     </row>
     <row r="109" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>65</v>
@@ -8759,10 +8787,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="F109" s="23" t="s">
         <v>446</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>447</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="22">
@@ -8772,7 +8800,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>53</v>
@@ -8789,22 +8817,22 @@
     </row>
     <row r="110" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>449</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>450</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="F110" s="23" t="s">
         <v>451</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>452</v>
       </c>
       <c r="G110" s="23"/>
       <c r="H110" s="22">
@@ -8814,7 +8842,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L110" s="25" t="s">
         <v>53</v>
@@ -8823,7 +8851,7 @@
         <v>54</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P110" s="27" t="s">
         <v>64</v>
@@ -8831,22 +8859,22 @@
     </row>
     <row r="111" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D111" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G111" s="23"/>
       <c r="H111" s="22">
@@ -8856,7 +8884,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L111" s="25" t="s">
         <v>53</v>
@@ -8865,7 +8893,7 @@
         <v>54</v>
       </c>
       <c r="O111" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P111" s="27" t="s">
         <v>64</v>
@@ -8873,22 +8901,22 @@
     </row>
     <row r="112" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C112" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="D112" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>461</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="22">
@@ -8898,16 +8926,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="L112" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M112" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="L112" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="M112" s="24" t="s">
+      <c r="O112" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="O112" s="26" t="s">
-        <v>464</v>
       </c>
       <c r="P112" s="27" t="s">
         <v>64</v>
@@ -8915,22 +8943,22 @@
     </row>
     <row r="113" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>465</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>466</v>
       </c>
       <c r="D113" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F113" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="G113" s="23"/>
       <c r="H113" s="22">
@@ -8940,7 +8968,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>53</v>
@@ -8949,7 +8977,7 @@
         <v>54</v>
       </c>
       <c r="O113" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P113" s="27" t="s">
         <v>64</v>
@@ -8957,22 +8985,22 @@
     </row>
     <row r="114" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B114" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>471</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>472</v>
       </c>
       <c r="D114" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="F114" s="23" t="s">
         <v>473</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>474</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="22">
@@ -8989,7 +9017,7 @@
         <v>54</v>
       </c>
       <c r="O114" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P114" s="27" t="s">
         <v>64</v>
@@ -8997,22 +9025,22 @@
     </row>
     <row r="115" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="F115" s="23" t="s">
         <v>478</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>479</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="22">
@@ -9022,7 +9050,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L115" s="25" t="s">
         <v>53</v>
@@ -9031,7 +9059,7 @@
         <v>54</v>
       </c>
       <c r="O115" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P115" s="27" t="s">
         <v>64</v>
@@ -9039,22 +9067,22 @@
     </row>
     <row r="116" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C116" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>483</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F116" s="23" t="s">
         <v>484</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>485</v>
       </c>
       <c r="G116" s="23"/>
       <c r="H116" s="22">
@@ -9064,7 +9092,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L116" s="25" t="s">
         <v>53</v>
@@ -9073,7 +9101,7 @@
         <v>54</v>
       </c>
       <c r="O116" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P116" s="27" t="s">
         <v>64</v>
@@ -9081,22 +9109,22 @@
     </row>
     <row r="117" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C117" s="22" t="s">
         <v>488</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>489</v>
       </c>
       <c r="D117" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F117" s="23" t="s">
         <v>490</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>491</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="22">
@@ -9106,7 +9134,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L117" s="25" t="s">
         <v>53</v>
@@ -9115,7 +9143,7 @@
         <v>54</v>
       </c>
       <c r="O117" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P117" s="27" t="s">
         <v>64</v>
@@ -9123,22 +9151,22 @@
     </row>
     <row r="118" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D118" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="22">
@@ -9148,7 +9176,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L118" s="25" t="s">
         <v>53</v>
@@ -9157,7 +9185,7 @@
         <v>54</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P118" s="27" t="s">
         <v>64</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -2531,17 +2531,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"520102199306117822","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{"frameNumber":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>520102199306117822</t>
+      <t>{"frameNumber":"579757890668997</t>
     </r>
     <r>
       <rPr>
@@ -2551,10 +2546,6 @@
       </rPr>
       <t>"}</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"520102199306117822","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3122,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5125,7 +5116,7 @@
         <v>52</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -5427,7 +5418,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="611">
   <si>
     <t>url</t>
   </si>
@@ -513,12 +513,6 @@
     <t>电动车banner接口</t>
   </si>
   <si>
-    <t>/electric/electricBannerOrPop</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
-  </si>
-  <si>
     <t>未领取电动自行车电子行驶证</t>
   </si>
   <si>
@@ -681,9 +675,6 @@
     <t>无车身整车编码时，正确提交新国标备案申请</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/apply/newGB/submit</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/44776</t>
   </si>
   <si>
@@ -699,69 +690,30 @@
     <t>{"id":"12339157"}</t>
   </si>
   <si>
-    <t>{"data":{"applyId":"12339157","list":[{"processType":0,"processStatus":1,"processStatusZh":"已提交"}]}}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/32/interface/api/45356</t>
   </si>
   <si>
-    <t>ElectricBicycle028</t>
-  </si>
-  <si>
     <t>{"type":"popWindows"}</t>
   </si>
   <si>
-    <t>ElectricBicycle029</t>
-  </si>
-  <si>
-    <t>登记信息详情</t>
-  </si>
-  <si>
     <t>国标车登记信息详情</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/apply/records/applyDetail</t>
-  </si>
-  <si>
     <t>{"data":{"id":"12339157"}}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45360</t>
-  </si>
-  <si>
-    <t>ElectricBicycle030</t>
-  </si>
-  <si>
-    <t>登记记录列表查询</t>
-  </si>
-  <si>
     <t>历史登记记录</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/apply/records/list</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45352</t>
-  </si>
-  <si>
     <t>ElectricBicycle031</t>
   </si>
   <si>
-    <t>取消申请</t>
-  </si>
-  <si>
     <t>撤回预约申请</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/applyCancel</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45324</t>
-  </si>
-  <si>
     <t>ElectricBicycle032</t>
   </si>
   <si>
@@ -775,9 +727,6 @@
   </si>
   <si>
     <t>有车身整车编码时，正确提交新国标备案申请</t>
-  </si>
-  <si>
-    <t>{"pictureAddressPrefix":"http://10.197.236.194","id":12339157,"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","certificateType":"居民身份证","certificateNumber":"511101199901011234","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddress":"迟ii好方法发货","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":120,"vehicleSizeWidth":50,"vehicleSizeHigh":30,"vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","dmvId":477,"appointDate":"2021-05-12","appointTime":1,"dmvName":"人保观山湖支公司办理点","chinaProductCertification":"","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","frameNumberPicture2":"/group1/M00/00/13/CsXsyWCaS7CAU6_9AAH--QiLY5Q939.jpg","notResidenceCertificate":"","showDetailAddress":true,"applyCountReachedLimit":false,"appointDates":""}</t>
   </si>
   <si>
     <t>{"data":{"id":"12339157"}</t>
@@ -862,9 +811,6 @@
     <t>{"data":{"applyId":"12339157","list":[{"processType":4,"processStatus":1,"processStatusZh":"已归档"}]}}</t>
   </si>
   <si>
-    <t>ElectricBicycle040</t>
-  </si>
-  <si>
     <t>获取电动车手机号列表</t>
   </si>
   <si>
@@ -874,9 +820,6 @@
     <t>/pvtapi/electricBicycle/getPhones</t>
   </si>
   <si>
-    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011233"}</t>
-  </si>
-  <si>
     <t>请求成功，返回错误信息</t>
   </si>
   <si>
@@ -889,45 +832,24 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/45652</t>
   </si>
   <si>
-    <t>ElectricBicycle041</t>
-  </si>
-  <si>
     <t>姓名错误时获取电动车手机号列表</t>
   </si>
   <si>
     <t>{"ownerName":"%E5%A4%A7%E5%8F%B7","idCard":"511101199901011233"}</t>
   </si>
   <si>
-    <t>ElectricBicycle042</t>
-  </si>
-  <si>
     <t>正确获取电动车手机号列表</t>
   </si>
   <si>
-    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234"}</t>
-  </si>
-  <si>
     <t>ElectricBicycle043</t>
   </si>
   <si>
     <t>发送短信</t>
   </si>
   <si>
-    <t>/pvtapi/electricBicycle/smsSend</t>
-  </si>
-  <si>
     <t>ElectricBicycle039、ElectricBicycle042</t>
   </si>
   <si>
-    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234","phone":"19180580229"}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/45640</t>
-  </si>
-  <si>
-    <t>ElectricBicycle044</t>
-  </si>
-  <si>
     <t>绑定电动车验证短信</t>
   </si>
   <si>
@@ -949,9 +871,6 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/45644</t>
   </si>
   <si>
-    <t>ElectricBicycle045</t>
-  </si>
-  <si>
     <t>绑定电动车-验证已失效短信</t>
   </si>
   <si>
@@ -964,9 +883,6 @@
     <t>{"msg":"验证码已失效，请重新获取"}</t>
   </si>
   <si>
-    <t>ElectricBicycle046</t>
-  </si>
-  <si>
     <t>绑定电动车-验证正确短信</t>
   </si>
   <si>
@@ -985,22 +901,10 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/45648</t>
   </si>
   <si>
-    <t>ElecBicyChange001</t>
-  </si>
-  <si>
     <t>电动自行车号牌换领</t>
   </si>
   <si>
-    <t>换领须知文案</t>
-  </si>
-  <si>
     <t>【号牌换领】换领须知文案</t>
-  </si>
-  <si>
-    <t>/pvtapi/elecBicyChange/apply/elecBicyChangeNotice</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/78482</t>
   </si>
   <si>
     <t>ElecBicyChange002</t>
@@ -2531,10 +2435,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"520102199306117822","residenceAddress":"小号地址","ownerName":"小号","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{"frameNumber":"579757890668997</t>
     </r>
@@ -2548,12 +2448,228 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>{"id":"12339225"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{"applyId":"12339157","list":[{"processType":0,"processStatus":1,"processStatusZh":"已提交"}]}}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/61377</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/electricBannerOrPop</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricBanner001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记信息详情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/apply/records/applyDetail</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pplyDetail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45360</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"12339157"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约状态查询</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记记录列表查询</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45352</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/apply/records/list</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45324</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/applyCancel</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyCancel001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>applyR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecords001</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","chinaProductCertification":"","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","certificateType":"居民身份证","certificateNumber":"520102199306117822","residenceAddress":"小号地址","ownerName":"pytest自动化","cellphoneNumber":"19180580229","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","currentHomeAddress":"","notResidenceCertificate":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":"120","vehicleSizeWidth":"50","vehicleSizeHigh":"30","vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","showDetailAddress":false,"id":"","dmvId":565,"dmvName":"自动化","appointDate":"2021-05-28","appointTime":1,"applyCountReachedLimit":false,"appointDates":""}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/apply/newGB/submit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pictureAddressPrefix":"http://10.197.236.194","id":12339157,"idCardFront":"/group1/M00/00/12/CsXswmCWYmSAR-MyAAETz8z_wnU267.jpg","idCardBack":"/group1/M00/00/12/CsXswmCWX7KAUhnwAAJNBLcB7t8390.jpg","idCardHolding":"/group1/M00/00/12/CsXsyWCWX7WAVlilAAIH4RXNjCU152.jpg","frameNumberPicture":"/group1/M00/00/12/CsXsyWCWX7mATu4tAAJRfeuJLMk818.jpg","qualificationPictureFront":"/group1/M00/00/12/CsXswmCWX8CAap1KAAI478TVrkk602.jpg","qualificationPictureBack":"/group1/M00/00/12/CsXswmCWX8OAcUDXAAJbjNcuYDA752.jpg","vehicleInvoicePicture":"/group1/M00/00/12/CsXsyWCWX8WAXVpIAAJALFqsbA0243.jpg","vehicleRearLeft":"/group1/M00/00/12/CsXsyWCWX8qAb28IAAouW5i3RRs249.jpg","vehicleLeft":"/group1/M00/00/12/CsXswmCWX8-AEpM2AAlcdGC3lu4658.jpg","vehicleRight":"/group1/M00/00/12/CsXswmCWX9SADyOGAAncK1T4SXo181.jpg","certificateType":"居民身份证","certificateNumber":"511101199901011234","residenceAddress":"小号地址","ownerName":"pytest自动化","cellphoneNumber":"19180580229","currentHomeAddress":"迟ii好方法发货","currentHomeAddressProvince":"贵州省","currentHomeAddressCity":"","currentHomeAddressArea":"贵阳市南明区新华社区服务中心纪念塔居委会解放路88号-贵阳红星拖拉机厂宿舍1栋4单元1层102","currentHomeAddressStreet":"","vehiclePurchaseTime":"2018-10-10","frameNumber":"579757890668997","vehicleBrands":"小宝","vehicleColor":"灰,白,白","vehicleSizeLong":120,"vehicleSizeWidth":50,"vehicleSizeHigh":30,"vehicleModel":"5569885598","vehicleManufacturer":"小黑","vehicleProductionDate":"2005-10-10","dmvId":477,"appointDate":"2021-05-12","appointTime":1,"dmvName":"人保观山湖支公司办理点","chinaProductCertification":"","vehiclePurchaseInvoice":"","vehiclePurchaseHolding":"","frameNumberPicture2":"/group1/M00/00/13/CsXsyWCaS7CAU6_9AAH--QiLY5Q939.jpg","notResidenceCertificate":"","showDetailAddress":true,"applyCountReachedLimit":false,"appointDates":""}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取电动车手机号列表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45652</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/getPhones</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPhones002</t>
+  </si>
+  <si>
+    <t>getPhones003</t>
+  </si>
+  <si>
+    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011233"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPhones001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45640</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/smsSend</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsSend001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234","phone":"19180580229"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/electricBicycle/smsValid</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsValid001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsValid002</t>
+  </si>
+  <si>
+    <t>smsValid003</t>
+  </si>
+  <si>
+    <t>获取行驶证列表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>换领须知文案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/78482</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/elecBicyChangeNotice</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>elecBicyChangeNotice001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2680,8 +2796,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2706,6 +2853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2720,7 +2873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2754,9 +2907,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2834,6 +2984,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3113,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3125,14 +3322,14 @@
     <col min="4" max="4" width="14.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="55.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="53.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.75" style="3" customWidth="1"/>
     <col min="13" max="13" width="72.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="84.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="49.125" style="3" customWidth="1"/>
     <col min="16" max="16" width="31.625" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3"/>
@@ -3833,60 +4030,60 @@
     <col min="16142" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="34" t="s">
+    <row r="1" spans="1:18" s="35" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>519</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="34" t="s">
-        <v>520</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="M1" s="34" t="s">
+      <c r="K1" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="O1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>523</v>
+      <c r="P1" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -3918,13 +4115,13 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3960,13 +4157,13 @@
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4001,13 +4198,13 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4040,13 +4237,13 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4079,20 +4276,20 @@
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -4100,7 +4297,7 @@
     <row r="8" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -4131,7 +4328,7 @@
       <c r="I9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -4152,81 +4349,81 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>513</v>
+      <c r="A13" s="30" t="s">
+        <v>481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>497</v>
+      <c r="E13" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>465</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>17822000000</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>496</v>
+      <c r="K13" s="29" t="s">
+        <v>464</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="30" t="s">
-        <v>527</v>
+      <c r="M13" s="29" t="s">
+        <v>495</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>512</v>
+      <c r="O13" s="15" t="s">
+        <v>480</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R13" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R13" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>499</v>
+      <c r="A14" s="30" t="s">
+        <v>467</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4234,8 +4431,8 @@
       <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>531</v>
+      <c r="F14" s="28" t="s">
+        <v>499</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4244,46 +4441,46 @@
       <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>530</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R14" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R14" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>536</v>
+      <c r="A15" s="30" t="s">
+        <v>504</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>500</v>
+        <v>59</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>468</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4292,47 +4489,47 @@
       <c r="I15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>535</v>
+        <v>60</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>503</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R15" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R15" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>537</v>
+      <c r="A16" s="30" t="s">
+        <v>505</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>470</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4341,46 +4538,46 @@
       <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="30" t="s">
-        <v>501</v>
+      <c r="K16" s="29" t="s">
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="16" t="s">
-        <v>539</v>
+      <c r="O16" s="15" t="s">
+        <v>507</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>64</v>
+        <v>493</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>504</v>
+      <c r="A17" s="30" t="s">
+        <v>472</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>542</v>
+        <v>63</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>510</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4389,49 +4586,49 @@
       <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="30" t="s">
-        <v>503</v>
+      <c r="K17" s="29" t="s">
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>541</v>
+        <v>64</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q17" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R17" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R17" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>505</v>
+      <c r="A18" s="30" t="s">
+        <v>473</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>543</v>
+        <v>67</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>511</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4440,49 +4637,49 @@
       <c r="I18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="30" t="s">
-        <v>548</v>
+      <c r="K18" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q18" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R18" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R18" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>546</v>
+      <c r="A19" s="32" t="s">
+        <v>514</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>547</v>
+        <v>69</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>515</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4491,46 +4688,46 @@
       <c r="I19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="L19" s="18" t="s">
+      <c r="K19" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>545</v>
+      <c r="O19" s="15" t="s">
+        <v>513</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q19" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R19" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R19" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>552</v>
+      <c r="A20" s="30" t="s">
+        <v>520</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>507</v>
+        <v>71</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>475</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4539,46 +4736,46 @@
       <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="30" t="s">
-        <v>508</v>
+      <c r="K20" s="29" t="s">
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="20" t="s">
-        <v>551</v>
+      <c r="O20" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R20" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R20" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>506</v>
+      <c r="A21" s="30" t="s">
+        <v>474</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="1">
@@ -4587,46 +4784,46 @@
       <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="30" t="s">
-        <v>509</v>
+      <c r="K21" s="29" t="s">
+        <v>477</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="20" t="s">
-        <v>75</v>
+      <c r="O21" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q21" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R21" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R21" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4635,46 +4832,46 @@
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>554</v>
+      <c r="K22" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="20" t="s">
-        <v>555</v>
+      <c r="O22" s="19" t="s">
+        <v>523</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q22" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R22" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R22" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="1">
@@ -4683,46 +4880,46 @@
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>82</v>
+      <c r="K23" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="20" t="s">
-        <v>80</v>
+      <c r="O23" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R23" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="1">
@@ -4731,46 +4928,46 @@
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>84</v>
+      <c r="K24" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>80</v>
+      <c r="O24" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q24" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R24" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R24" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="1">
@@ -4779,46 +4976,46 @@
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>86</v>
+      <c r="K25" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>568</v>
+      <c r="O25" s="19" t="s">
+        <v>536</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q25" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R25" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R25" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="1">
@@ -4827,46 +5024,46 @@
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>88</v>
+      <c r="K26" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="20" t="s">
-        <v>80</v>
+      <c r="O26" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q26" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R26" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R26" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -4875,46 +5072,46 @@
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>90</v>
+      <c r="K27" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="20" t="s">
-        <v>80</v>
+      <c r="O27" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q27" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R27" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R27" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="1">
@@ -4923,46 +5120,46 @@
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>92</v>
+      <c r="K28" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>80</v>
+      <c r="O28" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q28" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R28" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="1">
@@ -4971,46 +5168,46 @@
       <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>94</v>
+      <c r="K29" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="20" t="s">
-        <v>80</v>
+      <c r="O29" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q29" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R29" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R29" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="1">
@@ -5019,46 +5216,46 @@
       <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>95</v>
+      <c r="K30" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="20" t="s">
-        <v>80</v>
+      <c r="O30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q30" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R30" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R30" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>584</v>
+        <v>94</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>552</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -5067,46 +5264,46 @@
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>97</v>
+      <c r="K31" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="20" t="s">
-        <v>80</v>
+      <c r="O31" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R31" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R31" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>578</v>
+      <c r="A32" s="30" t="s">
+        <v>546</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>576</v>
+      <c r="C32" s="36" t="s">
+        <v>544</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>569</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>537</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -5115,52 +5312,52 @@
       <c r="I32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>600</v>
+      <c r="K32" s="29" t="s">
+        <v>567</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>577</v>
+        <v>97</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>545</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q32" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R32" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R32" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>581</v>
+      <c r="A33" s="30" t="s">
+        <v>549</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>579</v>
+      <c r="C33" s="36" t="s">
+        <v>547</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>572</v>
+        <v>98</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>540</v>
       </c>
       <c r="H33" s="1">
         <v>17822000000</v>
@@ -5168,49 +5365,49 @@
       <c r="I33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>571</v>
+      <c r="K33" s="29" t="s">
+        <v>539</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>580</v>
+        <v>99</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>548</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q33" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R33" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R33" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>585</v>
+      <c r="A34" s="30" t="s">
+        <v>553</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>582</v>
+      <c r="C34" s="36" t="s">
+        <v>550</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>573</v>
+        <v>100</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>541</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5219,46 +5416,46 @@
       <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="30" t="s">
-        <v>574</v>
+      <c r="K34" s="29" t="s">
+        <v>542</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="20" t="s">
-        <v>583</v>
+      <c r="O34" s="19" t="s">
+        <v>551</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q34" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R34" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R34" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>586</v>
+      <c r="A35" s="30" t="s">
+        <v>554</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1">
@@ -5267,49 +5464,49 @@
       <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="30" t="s">
-        <v>575</v>
+      <c r="K35" s="29" t="s">
+        <v>543</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="20" t="s">
         <v>104</v>
       </c>
+      <c r="O35" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="P35" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R35" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R35" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>587</v>
+      <c r="A36" s="30" t="s">
+        <v>555</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="1">
@@ -5318,49 +5515,49 @@
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>108</v>
+      <c r="K36" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q36" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R36" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R36" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>591</v>
+      <c r="A37" s="30" t="s">
+        <v>559</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>588</v>
+      <c r="C37" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>590</v>
+        <v>108</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>558</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5369,46 +5566,46 @@
       <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>111</v>
+      <c r="K37" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O37" s="20" t="s">
-        <v>589</v>
+      <c r="O37" s="19" t="s">
+        <v>557</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q37" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R37" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R37" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>594</v>
+      <c r="A38" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>592</v>
+      <c r="C38" s="36" t="s">
+        <v>560</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>595</v>
+        <v>112</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>563</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5417,49 +5614,49 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="30" t="s">
-        <v>599</v>
+      <c r="K38" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O38" s="20" t="s">
-        <v>593</v>
+      <c r="O38" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R38" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R38" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
-        <v>598</v>
+      <c r="A39" s="30" t="s">
+        <v>566</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H39" s="1">
         <v>19180580229</v>
@@ -5467,34 +5664,34 @@
       <c r="I39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>120</v>
+      <c r="K39" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>596</v>
+      <c r="N39" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>564</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R39" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R39" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>123</v>
+      <c r="A40" s="30" t="s">
+        <v>572</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5508,8 +5705,8 @@
       <c r="E40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>59</v>
+      <c r="F40" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="1">
@@ -5518,49 +5715,49 @@
       <c r="I40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K40" s="13" t="s">
-        <v>124</v>
+      <c r="K40" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O40" s="16" t="s">
-        <v>60</v>
+      <c r="O40" s="15" t="s">
+        <v>570</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q40" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R40" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R40" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>125</v>
+      <c r="A41" s="30" t="s">
+        <v>575</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
+      <c r="C41" s="36" t="s">
+        <v>573</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>574</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H41" s="1">
         <v>19180580229</v>
@@ -5568,52 +5765,52 @@
       <c r="I41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>120</v>
+      <c r="K41" s="29" t="s">
+        <v>577</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>576</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q41" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R41" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R41" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>131</v>
+      <c r="A42" s="30" t="s">
+        <v>586</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>132</v>
+      <c r="C42" s="36" t="s">
+        <v>579</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>581</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H42" s="1">
         <v>19180580229</v>
@@ -5621,49 +5818,49 @@
       <c r="I42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>135</v>
+      <c r="K42" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>136</v>
+      <c r="O42" s="15" t="s">
+        <v>580</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q42" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R42" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R42" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>137</v>
+      <c r="A43" s="30" t="s">
+        <v>585</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>138</v>
+      <c r="C43" s="36" t="s">
+        <v>582</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>584</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H43" s="1">
         <v>19180580229</v>
@@ -5671,49 +5868,49 @@
       <c r="I43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>120</v>
+      <c r="K43" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="16" t="s">
-        <v>141</v>
+      <c r="O43" s="15" t="s">
+        <v>583</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q43" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R43" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R43" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>117</v>
+      <c r="C44" s="36" t="s">
+        <v>578</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1">
         <v>19180580229</v>
@@ -5721,421 +5918,421 @@
       <c r="I44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>120</v>
+      <c r="K44" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40">
+        <v>19180580229</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="O45" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q45" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="R45" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="47" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="47">
+        <v>19180580229</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="O46" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q46" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R46" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="47" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="47">
+        <v>19180580229</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="O47" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q47" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R47" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="47" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="47">
+        <v>19180580229</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="O48" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q48" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R48" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="47" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="O44" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q44" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R44" s="16" t="s">
+      <c r="H49" s="47">
+        <v>19180580229</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="O49" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q49" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R49" s="54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="50" spans="1:18" s="47" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C50" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="1">
+      <c r="E50" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="47">
         <v>19180580229</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I50" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L45" s="7" t="s">
+      <c r="K50" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L50" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M50" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O45" s="20" t="s">
+      <c r="N50" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="O50" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q50" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R50" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="47" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q45" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R45" s="16" t="s">
+      <c r="G51" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="47">
+        <v>19180580229</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="L51" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="O51" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q51" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="R51" s="54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O46" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q46" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R46" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H47" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q47" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R47" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H48" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O48" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q48" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R48" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H49" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O49" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R49" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q50" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R50" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="1">
-        <v>19180580229</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O51" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q51" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>171</v>
+    <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="30" t="s">
+        <v>596</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>172</v>
+      <c r="C52" s="36" t="s">
+        <v>590</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>174</v>
+        <v>155</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>592</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H52" s="1">
         <v>19180580229</v>
@@ -6143,52 +6340,52 @@
       <c r="I52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K52" s="13" t="s">
-        <v>175</v>
+      <c r="K52" s="29" t="s">
+        <v>595</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O52" s="20" t="s">
-        <v>179</v>
+        <v>159</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>591</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q52" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R52" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R52" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>180</v>
+    <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
+        <v>593</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1">
         <v>19180580229</v>
@@ -6196,52 +6393,52 @@
       <c r="I53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>182</v>
+      <c r="K53" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M53" s="13" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O53" s="20" t="s">
-        <v>179</v>
+        <v>159</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q53" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R53" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R53" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>183</v>
+    <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="30" t="s">
+        <v>594</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H54" s="1">
         <v>19180580229</v>
@@ -6249,49 +6446,49 @@
       <c r="I54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="13" t="s">
-        <v>185</v>
+      <c r="K54" s="29" t="s">
+        <v>610</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M54" s="13" t="s">
+      <c r="M54" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="20" t="s">
-        <v>179</v>
+      <c r="O54" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q54" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R54" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R54" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>186</v>
+    <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="30" t="s">
+        <v>599</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>598</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H55" s="1">
         <v>19180580229</v>
@@ -6299,49 +6496,49 @@
       <c r="I55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>190</v>
+      <c r="K55" s="29" t="s">
+        <v>600</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M55" s="13" t="s">
+      <c r="M55" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O55" s="20" t="s">
-        <v>191</v>
+      <c r="O55" s="19" t="s">
+        <v>597</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q55" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R55" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R55" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>192</v>
+    <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="30" t="s">
+        <v>602</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>195</v>
+        <v>168</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>601</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1">
         <v>19180580229</v>
@@ -6349,52 +6546,52 @@
       <c r="I56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>196</v>
+      <c r="K56" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M56" s="13" t="s">
-        <v>197</v>
+        <v>157</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>199</v>
+        <v>172</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q56" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R56" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R56" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>200</v>
+    <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="30" t="s">
+        <v>603</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H57" s="1">
         <v>19180580229</v>
@@ -6402,52 +6599,52 @@
       <c r="I57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>202</v>
+      <c r="K57" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="L57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M57" s="13" t="s">
-        <v>203</v>
-      </c>
       <c r="N57" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q57" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R57" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R57" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>205</v>
+    <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="30" t="s">
+        <v>604</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H58" s="1">
         <v>19180580229</v>
@@ -6455,46 +6652,46 @@
       <c r="I58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>207</v>
+      <c r="K58" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M58" s="13" t="s">
+      <c r="M58" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O58" s="20" t="s">
-        <v>199</v>
+      <c r="O58" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q58" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R58" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R58" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1">
@@ -6503,44 +6700,44 @@
       <c r="I59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K59" s="13"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M59" s="13" t="s">
+      <c r="M59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O59" s="20" t="s">
-        <v>211</v>
+      <c r="O59" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q59" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R59" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R59" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>212</v>
+      <c r="A60" s="30" t="s">
+        <v>609</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>606</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>216</v>
+        <v>185</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>608</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6549,44 +6746,44 @@
       <c r="I60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K60" s="13"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M60" s="13" t="s">
+      <c r="M60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O60" s="20" t="s">
-        <v>217</v>
+      <c r="O60" s="19" t="s">
+        <v>607</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q60" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R60" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R60" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>184</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>605</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6595,44 +6792,44 @@
       <c r="I61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K61" s="13"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M61" s="13" t="s">
+      <c r="M61" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="20" t="s">
-        <v>222</v>
+      <c r="O61" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q61" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R61" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R61" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6641,46 +6838,46 @@
       <c r="I62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="13" t="s">
-        <v>227</v>
+      <c r="K62" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M62" s="13" t="s">
+      <c r="M62" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O62" s="20" t="s">
-        <v>228</v>
+      <c r="O62" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q62" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R62" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R62" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6689,49 +6886,49 @@
       <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>233</v>
+      <c r="K63" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M63" s="13" t="s">
+      <c r="M63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="20" t="s">
-        <v>234</v>
+      <c r="O63" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q63" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R63" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R63" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6739,52 +6936,52 @@
       <c r="I64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>239</v>
+      <c r="K64" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M64" s="13" t="s">
+      <c r="M64" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O64" s="20" t="s">
-        <v>241</v>
+        <v>208</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q64" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R64" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R64" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6792,52 +6989,52 @@
       <c r="I65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="13" t="s">
-        <v>239</v>
+      <c r="K65" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M65" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M65" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>241</v>
+        <v>213</v>
+      </c>
+      <c r="O65" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q65" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R65" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R65" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -6845,52 +7042,52 @@
       <c r="I66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="13" t="s">
-        <v>239</v>
+      <c r="K66" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M66" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M66" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O66" s="20" t="s">
-        <v>241</v>
+        <v>217</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q66" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R66" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R66" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -6898,49 +7095,49 @@
       <c r="I67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K67" s="13" t="s">
-        <v>239</v>
+      <c r="K67" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M67" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O67" s="20" t="s">
-        <v>241</v>
+        <v>221</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q67" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R67" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R67" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -6949,47 +7146,47 @@
       <c r="I68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K68" s="13"/>
+      <c r="K68" s="12"/>
       <c r="L68" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="13" t="s">
+      <c r="M68" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O68" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q68" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R68" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R68" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -6998,44 +7195,44 @@
       <c r="I69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K69" s="13"/>
+      <c r="K69" s="12"/>
       <c r="L69" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="13" t="s">
+      <c r="M69" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="20" t="s">
-        <v>262</v>
+      <c r="O69" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q69" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R69" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R69" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -7044,46 +7241,46 @@
       <c r="I70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K70" s="13" t="s">
-        <v>266</v>
+      <c r="K70" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="13" t="s">
+      <c r="M70" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O70" s="20" t="s">
-        <v>267</v>
+      <c r="O70" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q70" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R70" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R70" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -7092,49 +7289,49 @@
       <c r="I71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K71" s="13" t="s">
-        <v>272</v>
+      <c r="K71" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>273</v>
+        <v>157</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O71" s="20" t="s">
-        <v>275</v>
+        <v>242</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q71" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R71" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R71" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -7143,46 +7340,46 @@
       <c r="I72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>278</v>
+      <c r="K72" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="13" t="s">
+      <c r="M72" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O72" s="20" t="s">
-        <v>279</v>
+      <c r="O72" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q72" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R72" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R72" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -7191,46 +7388,46 @@
       <c r="I73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="13" t="s">
-        <v>282</v>
+      <c r="K73" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M73" s="13" t="s">
+      <c r="M73" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O73" s="20" t="s">
-        <v>283</v>
+      <c r="O73" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q73" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R73" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R73" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7239,44 +7436,44 @@
       <c r="I74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K74" s="13"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M74" s="13" t="s">
+      <c r="M74" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O74" s="20" t="s">
-        <v>287</v>
+      <c r="O74" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q74" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R74" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R74" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7285,46 +7482,46 @@
       <c r="I75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K75" s="13" t="s">
-        <v>292</v>
+      <c r="K75" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M75" s="13" t="s">
+      <c r="M75" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O75" s="20" t="s">
-        <v>293</v>
+      <c r="O75" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q75" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R75" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R75" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7333,49 +7530,49 @@
       <c r="I76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="13" t="s">
-        <v>292</v>
+      <c r="K76" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M76" s="13" t="s">
+      <c r="M76" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O76" s="20" t="s">
-        <v>297</v>
+      <c r="O76" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q76" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R76" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R76" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7383,49 +7580,49 @@
       <c r="I77" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K77" s="13" t="s">
-        <v>302</v>
+      <c r="K77" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M77" s="13" t="s">
+      <c r="M77" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O77" s="20" t="s">
-        <v>303</v>
+      <c r="O77" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q77" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R77" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R77" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7433,49 +7630,49 @@
       <c r="I78" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K78" s="13" t="s">
-        <v>306</v>
+      <c r="K78" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M78" s="13" t="s">
+      <c r="M78" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="O78" s="20" t="s">
-        <v>303</v>
+      <c r="O78" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q78" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R78" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R78" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7483,52 +7680,52 @@
       <c r="I79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K79" s="13" t="s">
-        <v>310</v>
+      <c r="K79" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M79" s="13" t="s">
+      <c r="M79" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O79" s="20" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="O79" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q79" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R79" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q79" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R79" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7536,52 +7733,52 @@
       <c r="I80" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K80" s="13" t="s">
-        <v>315</v>
+      <c r="K80" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M80" s="13" t="s">
+      <c r="M80" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="O80" s="20" t="s">
-        <v>293</v>
+        <v>284</v>
+      </c>
+      <c r="O80" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q80" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R80" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R80" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7589,52 +7786,52 @@
       <c r="I81" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K81" s="13" t="s">
-        <v>315</v>
+      <c r="K81" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="13" t="s">
+      <c r="M81" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O81" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
+      </c>
+      <c r="O81" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q81" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R81" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R81" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7642,52 +7839,52 @@
       <c r="I82" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K82" s="13" t="s">
-        <v>324</v>
+      <c r="K82" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M82" s="13" t="s">
+      <c r="M82" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O82" s="20" t="s">
         <v>293</v>
       </c>
+      <c r="O82" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="P82" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q82" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R82" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q82" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R82" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7695,2362 +7892,2362 @@
       <c r="I83" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K83" s="13" t="s">
-        <v>324</v>
+      <c r="K83" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M83" s="13" t="s">
+      <c r="M83" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O83" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q83" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="R83" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="H84" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="L85" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P85" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G86" s="22"/>
+      <c r="H86" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K86" s="23"/>
+      <c r="L86" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="P86" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G87" s="22"/>
+      <c r="H87" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K87" s="23"/>
+      <c r="L87" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M87" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="P87" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G88" s="22"/>
+      <c r="H88" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="P88" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H89" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P89" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F90" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="O83" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q83" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="R83" s="16" t="s">
+      <c r="G90" s="22"/>
+      <c r="H90" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P90" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B84" s="22" t="s">
+    <row r="91" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G91" s="22"/>
+      <c r="H91" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="22" t="s">
+      <c r="P91" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="22">
+      <c r="E92" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" s="22"/>
+      <c r="H92" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="L92" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P92" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="P93" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H94" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="L94" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O94" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="P94" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H95" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="L95" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O95" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="P95" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M96" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O96" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="P96" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O97" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="P97" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K98" s="23"/>
+      <c r="L98" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M98" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O98" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="P98" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I99" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K99" s="23"/>
+      <c r="L99" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M99" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O99" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="P99" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I100" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K100" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="L100" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O100" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="P100" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="G101" s="22"/>
+      <c r="H101" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K101" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="L101" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M101" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O101" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="P101" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G102" s="22"/>
+      <c r="H102" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K102" s="23"/>
+      <c r="L102" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O102" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="P102" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G103" s="22"/>
+      <c r="H103" s="21">
+        <v>19180580229</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="L103" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O103" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="P103" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="G104" s="22"/>
+      <c r="H104" s="21">
         <v>13688468803</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K84" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="L84" s="25" t="s">
+      <c r="K104" s="23"/>
+      <c r="L104" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M84" s="24" t="s">
+      <c r="M104" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O84" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="P84" s="27" t="s">
+      <c r="O104" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="P104" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="G105" s="22"/>
+      <c r="H105" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="L105" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M105" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O105" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="P105" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="H106" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I106" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="L106" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M106" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O106" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="P106" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="G107" s="22"/>
+      <c r="H107" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107" s="23"/>
+      <c r="L107" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M107" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O107" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="P107" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D85" s="22" t="s">
+    <row r="108" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="22">
+      <c r="E108" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G108" s="22"/>
+      <c r="H108" s="21">
         <v>13688468803</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I108" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K85" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="L85" s="25" t="s">
+      <c r="K108" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="L108" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M85" s="24" t="s">
+      <c r="M108" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O85" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="P85" s="27" t="s">
+      <c r="O108" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P108" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="G109" s="22"/>
+      <c r="H109" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I109" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K109" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="L109" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M109" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O109" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P109" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="D86" s="22" t="s">
+    <row r="110" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="G110" s="22"/>
+      <c r="H110" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I110" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="L110" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O110" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="P110" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="G111" s="22"/>
+      <c r="H111" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I111" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="L111" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O111" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="P111" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="G112" s="22"/>
+      <c r="H112" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I112" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="O112" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="P112" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="G86" s="23"/>
-      <c r="H86" s="22">
+      <c r="E113" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="G113" s="22"/>
+      <c r="H113" s="21">
         <v>13688468803</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I113" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K86" s="24"/>
-      <c r="L86" s="25" t="s">
+      <c r="K113" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="L113" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M86" s="24" t="s">
+      <c r="M113" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O86" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="G87" s="23"/>
-      <c r="H87" s="22">
+      <c r="O113" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="P113" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="G114" s="22"/>
+      <c r="H114" s="21">
         <v>13688468803</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I114" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K87" s="24"/>
-      <c r="L87" s="25" t="s">
+      <c r="K114" s="23"/>
+      <c r="L114" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M87" s="24" t="s">
+      <c r="M114" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O87" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D88" s="22" t="s">
+      <c r="O114" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="P114" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I88" s="22" t="s">
+      <c r="E115" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="G115" s="22"/>
+      <c r="H115" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I115" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K115" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="L115" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M115" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O115" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="P115" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="G116" s="22"/>
+      <c r="H116" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K116" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="L116" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M116" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O116" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="P116" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="G117" s="22"/>
+      <c r="H117" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I117" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K88" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="L88" s="25" t="s">
+      <c r="K117" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="L117" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M88" s="24" t="s">
+      <c r="M117" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O88" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D89" s="22" t="s">
+      <c r="O117" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="P117" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="H89" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I89" s="22" t="s">
+      <c r="E118" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G118" s="22"/>
+      <c r="H118" s="21">
+        <v>13688468803</v>
+      </c>
+      <c r="I118" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K89" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="L89" s="25" t="s">
+      <c r="K118" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="L118" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M89" s="24" t="s">
+      <c r="M118" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O89" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G90" s="23"/>
-      <c r="H90" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I90" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M90" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O90" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G91" s="23"/>
-      <c r="H91" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="L91" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M91" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O91" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="P91" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="L92" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M92" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O92" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I93" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K93" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M93" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O93" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="G94" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H94" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="L94" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M94" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O94" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="P94" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G95" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H95" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K95" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="L95" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M95" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O95" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="P95" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="G96" s="21"/>
-      <c r="H96" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K96" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M96" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O96" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="P96" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="G97" s="21"/>
-      <c r="H97" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="L97" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M97" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O97" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="P97" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="G98" s="23"/>
-      <c r="H98" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K98" s="24"/>
-      <c r="L98" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M98" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O98" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="P98" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I99" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99" s="24"/>
-      <c r="L99" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M99" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O99" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="P99" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="F100" s="23" t="s">
+      <c r="O118" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="G100" s="23"/>
-      <c r="H100" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="L100" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M100" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O100" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="P100" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I101" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M101" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O101" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="P101" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K102" s="24"/>
-      <c r="L102" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M102" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O102" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="P102" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="22">
-        <v>19180580229</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="L103" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M103" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O103" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="P103" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I104" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K104" s="24"/>
-      <c r="L104" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M104" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O104" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="P104" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="G105" s="23"/>
-      <c r="H105" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I105" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="L105" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M105" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O105" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="P105" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H106" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I106" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K106" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="L106" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M106" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O106" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="P106" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I107" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K107" s="24"/>
-      <c r="L107" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M107" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O107" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="P107" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K108" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="L108" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M108" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O108" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="P108" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="G109" s="23"/>
-      <c r="H109" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I109" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K109" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M109" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O109" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="P109" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="L110" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M110" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O110" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="P110" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I111" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K111" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="L111" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M111" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O111" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="P111" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="G112" s="23"/>
-      <c r="H112" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I112" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="L112" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="M112" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="O112" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="P112" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K113" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="L113" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M113" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O113" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="P113" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="G114" s="23"/>
-      <c r="H114" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I114" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K114" s="24"/>
-      <c r="L114" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M114" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O114" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="P114" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K115" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="L115" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M115" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O115" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="P115" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K116" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="L116" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M116" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O116" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="P116" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I117" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="L117" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M117" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O117" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="P117" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="22">
-        <v>13688468803</v>
-      </c>
-      <c r="I118" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K118" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="L118" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M118" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O118" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="P118" s="27" t="s">
-        <v>64</v>
+      <c r="P118" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="K119" s="13"/>
+      <c r="K119" s="12"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="13"/>
-      <c r="O119" s="20"/>
-      <c r="P119" s="16"/>
+      <c r="M119" s="12"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="15"/>
     </row>
     <row r="120" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="K120" s="13"/>
+      <c r="K120" s="12"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="13"/>
-      <c r="O120" s="20"/>
-      <c r="P120" s="16"/>
+      <c r="M120" s="12"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="15"/>
     </row>
     <row r="121" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="K121" s="13"/>
+      <c r="K121" s="12"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="13"/>
-      <c r="O121" s="20"/>
-      <c r="P121" s="16"/>
+      <c r="M121" s="12"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="15"/>
     </row>
     <row r="122" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="K122" s="13"/>
+      <c r="K122" s="12"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="13"/>
-      <c r="O122" s="20"/>
-      <c r="P122" s="16"/>
+      <c r="M122" s="12"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="15"/>
     </row>
     <row r="123" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="K123" s="13"/>
+      <c r="K123" s="12"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="13"/>
-      <c r="O123" s="20"/>
-      <c r="P123" s="16"/>
+      <c r="M123" s="12"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="15"/>
     </row>
     <row r="124" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="K124" s="13"/>
+      <c r="K124" s="12"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="13"/>
-      <c r="O124" s="20"/>
-      <c r="P124" s="16"/>
+      <c r="M124" s="12"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="15"/>
     </row>
     <row r="125" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="K125" s="13"/>
+      <c r="K125" s="12"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="13"/>
-      <c r="O125" s="20"/>
-      <c r="P125" s="16"/>
+      <c r="M125" s="12"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="15"/>
     </row>
     <row r="126" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="K126" s="13"/>
+      <c r="K126" s="12"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="13"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="16"/>
+      <c r="M126" s="12"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="15"/>
     </row>
     <row r="127" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="K127" s="13"/>
+      <c r="K127" s="12"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="13"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="16"/>
+      <c r="M127" s="12"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="15"/>
     </row>
     <row r="128" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="K128" s="13"/>
+      <c r="K128" s="12"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="13"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="16"/>
+      <c r="M128" s="12"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="15"/>
     </row>
     <row r="129" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="K129" s="13"/>
+      <c r="K129" s="12"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="13"/>
-      <c r="O129" s="20"/>
-      <c r="P129" s="16"/>
+      <c r="M129" s="12"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="15"/>
     </row>
     <row r="130" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="K130" s="13"/>
+      <c r="K130" s="12"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="13"/>
-      <c r="O130" s="20"/>
-      <c r="P130" s="16"/>
+      <c r="M130" s="12"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="15"/>
     </row>
     <row r="131" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="K131" s="13"/>
+      <c r="K131" s="12"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="13"/>
-      <c r="O131" s="20"/>
-      <c r="P131" s="16"/>
+      <c r="M131" s="12"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="15"/>
     </row>
     <row r="132" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="K132" s="13"/>
+      <c r="K132" s="12"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="13"/>
-      <c r="O132" s="20"/>
-      <c r="P132" s="16"/>
+      <c r="M132" s="12"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="15"/>
     </row>
     <row r="133" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="K133" s="13"/>
+      <c r="K133" s="12"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="13"/>
-      <c r="O133" s="20"/>
-      <c r="P133" s="16"/>
+      <c r="M133" s="12"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="15"/>
     </row>
     <row r="134" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="K134" s="13"/>
+      <c r="K134" s="12"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="13"/>
-      <c r="O134" s="20"/>
-      <c r="P134" s="16"/>
+      <c r="M134" s="12"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="15"/>
     </row>
     <row r="135" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="K135" s="13"/>
+      <c r="K135" s="12"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="13"/>
-      <c r="O135" s="20"/>
-      <c r="P135" s="16"/>
+      <c r="M135" s="12"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="15"/>
     </row>
     <row r="136" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="K136" s="13"/>
+      <c r="K136" s="12"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="13"/>
-      <c r="O136" s="20"/>
-      <c r="P136" s="16"/>
+      <c r="M136" s="12"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="15"/>
     </row>
     <row r="137" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="K137" s="13"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="13"/>
-      <c r="O137" s="20"/>
-      <c r="P137" s="16"/>
+      <c r="M137" s="12"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="15"/>
     </row>
     <row r="138" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="K138" s="13"/>
+      <c r="K138" s="12"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="13"/>
-      <c r="O138" s="20"/>
-      <c r="P138" s="16"/>
+      <c r="M138" s="12"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="15"/>
     </row>
     <row r="139" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="K139" s="13"/>
+      <c r="K139" s="12"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="13"/>
-      <c r="O139" s="20"/>
-      <c r="P139" s="16"/>
+      <c r="M139" s="12"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="15"/>
     </row>
     <row r="140" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="K140" s="13"/>
+      <c r="K140" s="12"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="13"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="16"/>
+      <c r="M140" s="12"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="15"/>
     </row>
     <row r="141" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="K141" s="13"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="13"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="16"/>
+      <c r="M141" s="12"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="15"/>
     </row>
     <row r="142" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="K142" s="13"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="13"/>
-      <c r="O142" s="20"/>
-      <c r="P142" s="16"/>
+      <c r="M142" s="12"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="15"/>
     </row>
     <row r="143" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="K143" s="13"/>
+      <c r="K143" s="12"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="13"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="16"/>
+      <c r="M143" s="12"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="15"/>
     </row>
     <row r="144" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="K144" s="13"/>
+      <c r="K144" s="12"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="13"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="16"/>
+      <c r="M144" s="12"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="15"/>
     </row>
     <row r="145" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="K145" s="13"/>
+      <c r="K145" s="12"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="13"/>
-      <c r="O145" s="20"/>
-      <c r="P145" s="16"/>
+      <c r="M145" s="12"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="15"/>
     </row>
     <row r="146" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="K146" s="13"/>
+      <c r="K146" s="12"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="13"/>
-      <c r="O146" s="20"/>
-      <c r="P146" s="16"/>
+      <c r="M146" s="12"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="15"/>
     </row>
     <row r="147" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="K147" s="13"/>
+      <c r="K147" s="12"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="13"/>
-      <c r="O147" s="20"/>
-      <c r="P147" s="16"/>
+      <c r="M147" s="12"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="15"/>
     </row>
     <row r="148" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="K148" s="13"/>
+      <c r="K148" s="12"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="13"/>
-      <c r="O148" s="20"/>
-      <c r="P148" s="16"/>
+      <c r="M148" s="12"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="15"/>
     </row>
     <row r="149" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="K149" s="13"/>
+      <c r="K149" s="12"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="13"/>
-      <c r="O149" s="20"/>
-      <c r="P149" s="16"/>
+      <c r="M149" s="12"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="15"/>
     </row>
     <row r="150" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="K150" s="13"/>
+      <c r="K150" s="12"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="13"/>
-      <c r="O150" s="20"/>
-      <c r="P150" s="16"/>
+      <c r="M150" s="12"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="15"/>
     </row>
     <row r="151" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="K151" s="13"/>
+      <c r="K151" s="12"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="13"/>
-      <c r="O151" s="20"/>
-      <c r="P151" s="16"/>
+      <c r="M151" s="12"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="15"/>
     </row>
     <row r="152" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="K152" s="13"/>
+      <c r="K152" s="12"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="13"/>
-      <c r="O152" s="20"/>
-      <c r="P152" s="16"/>
+      <c r="M152" s="12"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="15"/>
     </row>
     <row r="153" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="K153" s="13"/>
+      <c r="K153" s="12"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="13"/>
-      <c r="O153" s="20"/>
-      <c r="P153" s="16"/>
+      <c r="M153" s="12"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="15"/>
     </row>
     <row r="154" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="K154" s="13"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="13"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="16"/>
+      <c r="M154" s="12"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="15"/>
     </row>
     <row r="155" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="K155" s="13"/>
+      <c r="K155" s="12"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="13"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="16"/>
+      <c r="M155" s="12"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="15"/>
     </row>
     <row r="156" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="K156" s="13"/>
+      <c r="K156" s="12"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="13"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="16"/>
+      <c r="M156" s="12"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="15"/>
     </row>
     <row r="157" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="K157" s="13"/>
+      <c r="K157" s="12"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="13"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="16"/>
+      <c r="M157" s="12"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="15"/>
     </row>
     <row r="158" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="K158" s="13"/>
+      <c r="K158" s="12"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="13"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="16"/>
+      <c r="M158" s="12"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="15"/>
     </row>
     <row r="159" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="K159" s="13"/>
+      <c r="K159" s="12"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="13"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="16"/>
+      <c r="M159" s="12"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="15"/>
     </row>
     <row r="160" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="K160" s="13"/>
+      <c r="K160" s="12"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="13"/>
-      <c r="O160" s="20"/>
-      <c r="P160" s="16"/>
+      <c r="M160" s="12"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="15"/>
     </row>
     <row r="161" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="K161" s="13"/>
+      <c r="K161" s="12"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="13"/>
-      <c r="O161" s="20"/>
-      <c r="P161" s="16"/>
+      <c r="M161" s="12"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="15"/>
     </row>
     <row r="162" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="K162" s="13"/>
+      <c r="K162" s="12"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="13"/>
-      <c r="O162" s="20"/>
-      <c r="P162" s="16"/>
+      <c r="M162" s="12"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="15"/>
     </row>
     <row r="163" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="K163" s="13"/>
+      <c r="K163" s="12"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="13"/>
-      <c r="O163" s="20"/>
-      <c r="P163" s="16"/>
+      <c r="M163" s="12"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="15"/>
     </row>
     <row r="164" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="K164" s="13"/>
+      <c r="K164" s="12"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="13"/>
-      <c r="O164" s="20"/>
-      <c r="P164" s="16"/>
+      <c r="M164" s="12"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="15"/>
     </row>
     <row r="165" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="K165" s="13"/>
+      <c r="K165" s="12"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="13"/>
-      <c r="O165" s="20"/>
-      <c r="P165" s="16"/>
+      <c r="M165" s="12"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="15"/>
     </row>
     <row r="166" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="K166" s="13"/>
+      <c r="K166" s="12"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="13"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="16"/>
+      <c r="M166" s="12"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="15"/>
     </row>
     <row r="167" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="K167" s="13"/>
+      <c r="K167" s="12"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="13"/>
-      <c r="O167" s="20"/>
-      <c r="P167" s="16"/>
+      <c r="M167" s="12"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="15"/>
     </row>
     <row r="168" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="K168" s="13"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="13"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="16"/>
+      <c r="M168" s="12"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="15"/>
     </row>
     <row r="169" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="K169" s="13"/>
+      <c r="K169" s="12"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="13"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="16"/>
+      <c r="M169" s="12"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="15"/>
     </row>
     <row r="170" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="K170" s="13"/>
+      <c r="K170" s="12"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="13"/>
-      <c r="O170" s="20"/>
-      <c r="P170" s="16"/>
+      <c r="M170" s="12"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="15"/>
     </row>
     <row r="171" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="K171" s="13"/>
+      <c r="K171" s="12"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="13"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="16"/>
+      <c r="M171" s="12"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="15"/>
     </row>
     <row r="172" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="K172" s="13"/>
+      <c r="K172" s="12"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="13"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="16"/>
+      <c r="M172" s="12"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="15"/>
     </row>
     <row r="173" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="K173" s="13"/>
+      <c r="K173" s="12"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="13"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="16"/>
+      <c r="M173" s="12"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="15"/>
     </row>
     <row r="174" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="K174" s="13"/>
+      <c r="K174" s="12"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="13"/>
-      <c r="O174" s="20"/>
-      <c r="P174" s="16"/>
+      <c r="M174" s="12"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="15"/>
     </row>
     <row r="175" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="K175" s="13"/>
+      <c r="K175" s="12"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="13"/>
-      <c r="O175" s="20"/>
-      <c r="P175" s="16"/>
+      <c r="M175" s="12"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="15"/>
     </row>
     <row r="176" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="K176" s="13"/>
+      <c r="K176" s="12"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="13"/>
-      <c r="O176" s="20"/>
-      <c r="P176" s="16"/>
+      <c r="M176" s="12"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="15"/>
     </row>
     <row r="177" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="K177" s="13"/>
+      <c r="K177" s="12"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="13"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="16"/>
+      <c r="M177" s="12"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="15"/>
     </row>
     <row r="178" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="K178" s="13"/>
+      <c r="K178" s="12"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="13"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="16"/>
+      <c r="M178" s="12"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="15"/>
     </row>
     <row r="179" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="K179" s="13"/>
+      <c r="K179" s="12"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="13"/>
-      <c r="O179" s="20"/>
-      <c r="P179" s="16"/>
+      <c r="M179" s="12"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="15"/>
     </row>
     <row r="180" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="K180" s="13"/>
+      <c r="K180" s="12"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="13"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="16"/>
+      <c r="M180" s="12"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="15"/>
     </row>
     <row r="181" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="K181" s="13"/>
+      <c r="K181" s="12"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="13"/>
-      <c r="O181" s="20"/>
-      <c r="P181" s="16"/>
+      <c r="M181" s="12"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="15"/>
     </row>
     <row r="182" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="K182" s="13"/>
+      <c r="K182" s="12"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="13"/>
-      <c r="O182" s="20"/>
-      <c r="P182" s="16"/>
+      <c r="M182" s="12"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="15"/>
     </row>
     <row r="183" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="K183" s="13"/>
+      <c r="K183" s="12"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="13"/>
-      <c r="O183" s="20"/>
-      <c r="P183" s="16"/>
+      <c r="M183" s="12"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="15"/>
     </row>
     <row r="184" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="K184" s="13"/>
+      <c r="K184" s="12"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="13"/>
-      <c r="O184" s="20"/>
-      <c r="P184" s="16"/>
+      <c r="M184" s="12"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="15"/>
     </row>
     <row r="185" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="K185" s="13"/>
+      <c r="K185" s="12"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="13"/>
-      <c r="O185" s="20"/>
-      <c r="P185" s="16"/>
+      <c r="M185" s="12"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="15"/>
     </row>
     <row r="186" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="K186" s="13"/>
+      <c r="K186" s="12"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="13"/>
-      <c r="O186" s="20"/>
-      <c r="P186" s="16"/>
+      <c r="M186" s="12"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="15"/>
     </row>
     <row r="187" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="K187" s="13"/>
+      <c r="K187" s="12"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="13"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="16"/>
+      <c r="M187" s="12"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="15"/>
     </row>
     <row r="188" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
-      <c r="K188" s="13"/>
+      <c r="K188" s="12"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="13"/>
-      <c r="O188" s="20"/>
-      <c r="P188" s="16"/>
+      <c r="M188" s="12"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="15"/>
     </row>
     <row r="189" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="K189" s="13"/>
+      <c r="K189" s="12"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="13"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="16"/>
+      <c r="M189" s="12"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="15"/>
     </row>
     <row r="190" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="K190" s="13"/>
+      <c r="K190" s="12"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="13"/>
-      <c r="O190" s="20"/>
-      <c r="P190" s="16"/>
+      <c r="M190" s="12"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="15"/>
     </row>
     <row r="191" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="K191" s="13"/>
+      <c r="K191" s="12"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="13"/>
-      <c r="O191" s="20"/>
-      <c r="P191" s="16"/>
+      <c r="M191" s="12"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="15"/>
     </row>
     <row r="192" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="K192" s="13"/>
+      <c r="K192" s="12"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="13"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="16"/>
+      <c r="M192" s="12"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="15"/>
     </row>
     <row r="193" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
-      <c r="K193" s="13"/>
+      <c r="K193" s="12"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="13"/>
-      <c r="O193" s="20"/>
-      <c r="P193" s="16"/>
+      <c r="M193" s="12"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="15"/>
     </row>
     <row r="194" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="K194" s="13"/>
+      <c r="K194" s="12"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="13"/>
-      <c r="O194" s="20"/>
-      <c r="P194" s="16"/>
+      <c r="M194" s="12"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="15"/>
     </row>
     <row r="195" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
-      <c r="K195" s="13"/>
+      <c r="K195" s="12"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="13"/>
-      <c r="O195" s="20"/>
-      <c r="P195" s="16"/>
+      <c r="M195" s="12"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="15"/>
     </row>
     <row r="196" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="K196" s="13"/>
+      <c r="K196" s="12"/>
       <c r="L196" s="7"/>
-      <c r="M196" s="13"/>
-      <c r="O196" s="20"/>
-      <c r="P196" s="16"/>
+      <c r="M196" s="12"/>
+      <c r="O196" s="19"/>
+      <c r="P196" s="15"/>
     </row>
     <row r="197" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="K197" s="13"/>
+      <c r="K197" s="12"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="13"/>
-      <c r="O197" s="20"/>
-      <c r="P197" s="16"/>
+      <c r="M197" s="12"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="15"/>
     </row>
     <row r="198" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
-      <c r="K198" s="13"/>
+      <c r="K198" s="12"/>
       <c r="L198" s="7"/>
-      <c r="M198" s="13"/>
-      <c r="O198" s="20"/>
-      <c r="P198" s="16"/>
+      <c r="M198" s="12"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="15"/>
     </row>
     <row r="199" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="K199" s="13"/>
+      <c r="K199" s="12"/>
       <c r="L199" s="7"/>
-      <c r="M199" s="13"/>
-      <c r="O199" s="20"/>
-      <c r="P199" s="16"/>
+      <c r="M199" s="12"/>
+      <c r="O199" s="19"/>
+      <c r="P199" s="15"/>
     </row>
     <row r="200" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
-      <c r="K200" s="13"/>
+      <c r="K200" s="12"/>
       <c r="L200" s="7"/>
-      <c r="M200" s="13"/>
-      <c r="O200" s="20"/>
-      <c r="P200" s="16"/>
+      <c r="M200" s="12"/>
+      <c r="O200" s="19"/>
+      <c r="P200" s="15"/>
     </row>
     <row r="201" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
-      <c r="K201" s="13"/>
+      <c r="K201" s="12"/>
       <c r="L201" s="7"/>
-      <c r="M201" s="13"/>
-      <c r="O201" s="20"/>
-      <c r="P201" s="16"/>
+      <c r="M201" s="12"/>
+      <c r="O201" s="19"/>
+      <c r="P201" s="15"/>
     </row>
     <row r="202" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
-      <c r="K202" s="13"/>
+      <c r="K202" s="12"/>
       <c r="L202" s="7"/>
-      <c r="M202" s="13"/>
-      <c r="O202" s="20"/>
-      <c r="P202" s="16"/>
+      <c r="M202" s="12"/>
+      <c r="O202" s="19"/>
+      <c r="P202" s="15"/>
     </row>
     <row r="203" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
-      <c r="K203" s="13"/>
+      <c r="K203" s="12"/>
       <c r="L203" s="7"/>
-      <c r="M203" s="13"/>
-      <c r="O203" s="20"/>
-      <c r="P203" s="16"/>
+      <c r="M203" s="12"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="15"/>
     </row>
     <row r="204" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
-      <c r="K204" s="13"/>
+      <c r="K204" s="12"/>
       <c r="L204" s="7"/>
-      <c r="M204" s="13"/>
-      <c r="O204" s="20"/>
-      <c r="P204" s="16"/>
+      <c r="M204" s="12"/>
+      <c r="O204" s="19"/>
+      <c r="P204" s="15"/>
     </row>
     <row r="205" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
-      <c r="K205" s="13"/>
+      <c r="K205" s="12"/>
       <c r="L205" s="7"/>
-      <c r="M205" s="13"/>
-      <c r="O205" s="20"/>
-      <c r="P205" s="16"/>
+      <c r="M205" s="12"/>
+      <c r="O205" s="19"/>
+      <c r="P205" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="612">
   <si>
     <t>url</t>
   </si>
@@ -2613,10 +2613,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234","phone":"19180580229"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>/pvtapi/electricBicycle/smsValid</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2651,8 +2647,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/45652</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{"ownerName":"%E5%B0%8F%E5%8F%B7","idCard":"511101199901011234</t>
+      <t>{"ownerName":"小号","idCard":"511101199901011234</t>
     </r>
     <r>
       <rPr>
@@ -2662,6 +2662,10 @@
       </rPr>
       <t>"}</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ownerName":"小号","idCard":"511101199901011234","phone":"19180580229"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2979,12 +2983,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3031,6 +3029,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3310,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4349,20 +4353,20 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
@@ -5890,7 +5894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>126</v>
       </c>
@@ -5943,372 +5947,372 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="39" t="s">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="40">
+      <c r="G45" s="39"/>
+      <c r="H45" s="38">
         <v>19180580229</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="L45" s="43" t="s">
+      <c r="L45" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="40" t="s">
+      <c r="N45" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="O45" s="44" t="s">
+      <c r="O45" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="P45" s="40" t="s">
+      <c r="P45" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="Q45" s="40" t="s">
+      <c r="Q45" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="R45" s="45" t="s">
+      <c r="R45" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="47" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+    <row r="46" spans="1:18" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="50" t="s">
+      <c r="K46" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L46" s="51" t="s">
+      <c r="L46" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="50" t="s">
+      <c r="M46" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="47" t="s">
+      <c r="N46" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O46" s="52" t="s">
+      <c r="O46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P46" s="47" t="s">
+      <c r="P46" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q46" s="53" t="s">
+      <c r="Q46" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R46" s="54" t="s">
+      <c r="R46" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="47" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:18" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="50" t="s">
+      <c r="K47" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L47" s="51" t="s">
+      <c r="L47" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="50" t="s">
+      <c r="M47" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="O47" s="52" t="s">
+      <c r="O47" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P47" s="47" t="s">
+      <c r="P47" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q47" s="53" t="s">
+      <c r="Q47" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R47" s="54" t="s">
+      <c r="R47" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="47" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:18" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L48" s="51" t="s">
+      <c r="L48" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="50" t="s">
+      <c r="M48" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="47" t="s">
+      <c r="N48" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O48" s="52" t="s">
+      <c r="O48" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q48" s="53" t="s">
+      <c r="Q48" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R48" s="54" t="s">
+      <c r="R48" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="47" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="55" t="s">
+    <row r="49" spans="1:18" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L49" s="51" t="s">
+      <c r="L49" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M49" s="50" t="s">
+      <c r="M49" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N49" s="47" t="s">
+      <c r="N49" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="O49" s="52" t="s">
+      <c r="O49" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P49" s="47" t="s">
+      <c r="P49" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q49" s="53" t="s">
+      <c r="Q49" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R49" s="54" t="s">
+      <c r="R49" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="47" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:18" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L50" s="51" t="s">
+      <c r="L50" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N50" s="47" t="s">
+      <c r="N50" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="O50" s="52" t="s">
+      <c r="O50" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="P50" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q50" s="53" t="s">
+      <c r="Q50" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R50" s="54" t="s">
+      <c r="R50" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="47" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:18" s="45" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="H51" s="47">
+      <c r="H51" s="45">
         <v>19180580229</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L51" s="51" t="s">
+      <c r="L51" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="M51" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N51" s="47" t="s">
+      <c r="N51" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="52" t="s">
+      <c r="O51" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P51" s="47" t="s">
+      <c r="P51" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="Q51" s="53" t="s">
+      <c r="Q51" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="R51" s="54" t="s">
+      <c r="R51" s="52" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6406,7 +6410,7 @@
         <v>159</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>160</v>
+        <v>609</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>493</v>
@@ -6497,7 +6501,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6520,7 +6524,7 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -6535,7 +6539,7 @@
         <v>168</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>164</v>
@@ -6573,7 +6577,7 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -6626,7 +6630,7 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
@@ -6722,13 +6726,13 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -6737,7 +6741,7 @@
         <v>185</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6754,7 +6758,7 @@
         <v>54</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>493</v>
@@ -6774,7 +6778,7 @@
         <v>184</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="615">
   <si>
     <t>url</t>
   </si>
@@ -907,9 +907,6 @@
     <t>【号牌换领】换领须知文案</t>
   </si>
   <si>
-    <t>ElecBicyChange002</t>
-  </si>
-  <si>
     <t>获取行驶证列表</t>
   </si>
   <si>
@@ -922,22 +919,10 @@
     <t>http://yapi.hikcreate.com/project/32/interface/api/78486</t>
   </si>
   <si>
-    <t>ElecBicyChange003</t>
-  </si>
-  <si>
-    <t>预约记录查询</t>
-  </si>
-  <si>
     <t>【号牌换领】预约记录查询</t>
   </si>
   <si>
-    <t>/pvtapi/elecBicyChange/apply/elecBicyApplyPage</t>
-  </si>
-  <si>
     <t>{"page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/78666</t>
   </si>
   <si>
     <t>ElecBicyChange004</t>
@@ -2666,6 +2651,38 @@
   </si>
   <si>
     <t>{"ownerName":"小号","idCard":"511101199901011234","phone":"19180580229"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/78486</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/elecBicyLicenseList</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>elecBicyLicenseList001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/recall</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约记录查询</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/78666</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/elecBicyApplyPage</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>elecBicyApplyPage001</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3314,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4036,19 +4053,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="35" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>0</v>
@@ -4057,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>2</v>
@@ -4066,28 +4083,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -4370,22 +4387,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="27">
@@ -4395,25 +4412,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>57</v>
@@ -4421,13 +4438,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4436,7 +4453,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4446,22 +4463,22 @@
         <v>52</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>57</v>
@@ -4469,13 +4486,13 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -4484,7 +4501,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4504,13 +4521,13 @@
         <v>60</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>57</v>
@@ -4518,7 +4535,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4530,10 +4547,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4543,7 +4560,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4552,13 +4569,13 @@
         <v>54</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>62</v>
@@ -4566,13 +4583,13 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -4581,7 +4598,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4591,7 +4608,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4603,13 +4620,13 @@
         <v>64</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>57</v>
@@ -4617,7 +4634,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4632,7 +4649,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4642,7 +4659,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4657,10 +4674,10 @@
         <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>57</v>
@@ -4668,13 +4685,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4683,7 +4700,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4693,7 +4710,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>53</v>
@@ -4702,13 +4719,13 @@
         <v>54</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R19" s="18" t="s">
         <v>57</v>
@@ -4716,13 +4733,13 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4731,7 +4748,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4741,7 +4758,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4750,13 +4767,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>57</v>
@@ -4764,7 +4781,7 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -4789,7 +4806,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4801,10 +4818,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>57</v>
@@ -4812,13 +4829,13 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -4827,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4837,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4846,13 +4863,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>57</v>
@@ -4860,7 +4877,7 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -4897,10 +4914,10 @@
         <v>78</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>57</v>
@@ -4908,7 +4925,7 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -4945,10 +4962,10 @@
         <v>78</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>57</v>
@@ -4956,7 +4973,7 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -4990,13 +5007,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>57</v>
@@ -5004,7 +5021,7 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -5041,10 +5058,10 @@
         <v>78</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>57</v>
@@ -5052,7 +5069,7 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -5067,7 +5084,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -5089,10 +5106,10 @@
         <v>78</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>57</v>
@@ -5100,7 +5117,7 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -5137,10 +5154,10 @@
         <v>78</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>57</v>
@@ -5148,7 +5165,7 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -5185,10 +5202,10 @@
         <v>78</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>57</v>
@@ -5196,7 +5213,7 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -5233,10 +5250,10 @@
         <v>78</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>57</v>
@@ -5244,7 +5261,7 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -5259,7 +5276,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -5281,10 +5298,10 @@
         <v>78</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>57</v>
@@ -5292,13 +5309,13 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -5307,7 +5324,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -5317,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -5329,13 +5346,13 @@
         <v>97</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>57</v>
@@ -5343,13 +5360,13 @@
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -5358,10 +5375,10 @@
         <v>98</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H33" s="1">
         <v>17822000000</v>
@@ -5370,7 +5387,7 @@
         <v>52</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -5382,13 +5399,13 @@
         <v>99</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R33" s="15" t="s">
         <v>57</v>
@@ -5396,13 +5413,13 @@
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -5411,7 +5428,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5421,7 +5438,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5430,13 +5447,13 @@
         <v>54</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R34" s="15" t="s">
         <v>57</v>
@@ -5444,7 +5461,7 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -5469,7 +5486,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5484,10 +5501,10 @@
         <v>102</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>57</v>
@@ -5495,7 +5512,7 @@
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
@@ -5535,10 +5552,10 @@
         <v>102</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R36" s="15" t="s">
         <v>57</v>
@@ -5546,13 +5563,13 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -5561,7 +5578,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5580,13 +5597,13 @@
         <v>54</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>57</v>
@@ -5594,13 +5611,13 @@
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -5609,7 +5626,7 @@
         <v>112</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5619,7 +5636,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5628,13 +5645,13 @@
         <v>54</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>57</v>
@@ -5642,7 +5659,7 @@
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
@@ -5657,7 +5674,7 @@
         <v>115</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>110</v>
@@ -5669,7 +5686,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5678,16 +5695,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>57</v>
@@ -5695,7 +5712,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5710,7 +5727,7 @@
         <v>58</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="1">
@@ -5729,13 +5746,13 @@
         <v>54</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>57</v>
@@ -5743,13 +5760,13 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -5758,7 +5775,7 @@
         <v>120</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>110</v>
@@ -5770,7 +5787,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5782,13 +5799,13 @@
         <v>121</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>57</v>
@@ -5796,13 +5813,13 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -5811,7 +5828,7 @@
         <v>122</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>110</v>
@@ -5832,13 +5849,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>57</v>
@@ -5846,13 +5863,13 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -5861,7 +5878,7 @@
         <v>125</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>110</v>
@@ -5882,13 +5899,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>57</v>
@@ -5902,7 +5919,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -5938,10 +5955,10 @@
         <v>118</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>57</v>
@@ -5964,7 +5981,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="38">
@@ -5974,7 +5991,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L45" s="41" t="s">
         <v>53</v>
@@ -5989,10 +6006,10 @@
         <v>113</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q45" s="38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R45" s="43" t="s">
         <v>57</v>
@@ -6042,10 +6059,10 @@
         <v>118</v>
       </c>
       <c r="P46" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R46" s="52" t="s">
         <v>57</v>
@@ -6095,10 +6112,10 @@
         <v>118</v>
       </c>
       <c r="P47" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R47" s="52" t="s">
         <v>57</v>
@@ -6148,10 +6165,10 @@
         <v>118</v>
       </c>
       <c r="P48" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R48" s="52" t="s">
         <v>57</v>
@@ -6201,10 +6218,10 @@
         <v>118</v>
       </c>
       <c r="P49" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R49" s="52" t="s">
         <v>57</v>
@@ -6254,10 +6271,10 @@
         <v>118</v>
       </c>
       <c r="P50" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R50" s="52" t="s">
         <v>57</v>
@@ -6307,10 +6324,10 @@
         <v>118</v>
       </c>
       <c r="P51" s="45" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R51" s="52" t="s">
         <v>57</v>
@@ -6318,13 +6335,13 @@
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
@@ -6333,7 +6350,7 @@
         <v>155</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>150</v>
@@ -6345,7 +6362,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>157</v>
@@ -6357,13 +6374,13 @@
         <v>159</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>57</v>
@@ -6371,7 +6388,7 @@
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
@@ -6410,13 +6427,13 @@
         <v>159</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R53" s="15" t="s">
         <v>57</v>
@@ -6424,7 +6441,7 @@
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
@@ -6451,7 +6468,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6463,10 +6480,10 @@
         <v>160</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R54" s="15" t="s">
         <v>57</v>
@@ -6474,7 +6491,7 @@
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
@@ -6489,7 +6506,7 @@
         <v>165</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>166</v>
@@ -6501,7 +6518,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6510,13 +6527,13 @@
         <v>54</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q55" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>57</v>
@@ -6524,7 +6541,7 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -6539,7 +6556,7 @@
         <v>168</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>164</v>
@@ -6566,10 +6583,10 @@
         <v>173</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R56" s="15" t="s">
         <v>57</v>
@@ -6577,7 +6594,7 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -6619,10 +6636,10 @@
         <v>173</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R57" s="15" t="s">
         <v>57</v>
@@ -6630,7 +6647,7 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
@@ -6669,10 +6686,10 @@
         <v>173</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R58" s="15" t="s">
         <v>57</v>
@@ -6715,10 +6732,10 @@
         <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>57</v>
@@ -6726,13 +6743,13 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -6741,7 +6758,7 @@
         <v>185</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6758,36 +6775,36 @@
         <v>54</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>186</v>
+      <c r="A61" s="30" t="s">
+        <v>609</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>189</v>
+        <v>608</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6804,36 +6821,36 @@
         <v>54</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>190</v>
+        <v>607</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q61" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>191</v>
+      <c r="A62" s="30" t="s">
+        <v>614</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>192</v>
+      <c r="C62" s="36" t="s">
+        <v>611</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>613</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6843,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>53</v>
@@ -6852,13 +6869,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>196</v>
+        <v>612</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q62" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>57</v>
@@ -6866,22 +6883,22 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6891,7 +6908,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6900,13 +6917,13 @@
         <v>54</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>57</v>
@@ -6914,25 +6931,25 @@
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H64" s="1">
         <v>19180580229</v>
@@ -6941,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6950,16 +6967,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>57</v>
@@ -6967,25 +6984,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F65" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="F65" s="28" t="s">
+        <v>610</v>
+      </c>
       <c r="G65" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -6994,7 +7011,7 @@
         <v>13</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>157</v>
@@ -7003,16 +7020,16 @@
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>57</v>
@@ -7020,25 +7037,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -7047,7 +7064,7 @@
         <v>13</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>157</v>
@@ -7056,16 +7073,16 @@
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>57</v>
@@ -7073,25 +7090,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -7100,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>157</v>
@@ -7109,16 +7126,16 @@
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O67" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q67" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>57</v>
@@ -7126,22 +7143,22 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="1">
@@ -7158,16 +7175,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q68" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>57</v>
@@ -7175,22 +7192,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -7207,13 +7224,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q69" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>57</v>
@@ -7221,22 +7238,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -7246,7 +7263,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -7255,13 +7272,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q70" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>57</v>
@@ -7269,22 +7286,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -7294,25 +7311,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>157</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q71" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>57</v>
@@ -7320,22 +7337,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -7345,7 +7362,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -7354,13 +7371,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q72" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>57</v>
@@ -7368,22 +7385,22 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -7393,7 +7410,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -7402,13 +7419,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>57</v>
@@ -7416,22 +7433,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7448,13 +7465,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q74" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>57</v>
@@ -7462,22 +7479,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7487,7 +7504,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7496,13 +7513,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q75" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>57</v>
@@ -7510,22 +7527,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7535,7 +7552,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7544,13 +7561,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>57</v>
@@ -7558,25 +7575,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7585,7 +7602,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7594,13 +7611,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q77" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>57</v>
@@ -7608,25 +7625,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7635,7 +7652,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7644,13 +7661,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>57</v>
@@ -7658,25 +7675,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7685,7 +7702,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7694,16 +7711,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q79" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>57</v>
@@ -7711,25 +7728,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7738,7 +7755,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7747,16 +7764,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R80" s="15" t="s">
         <v>57</v>
@@ -7764,25 +7781,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7791,7 +7808,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7800,16 +7817,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q81" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R81" s="15" t="s">
         <v>57</v>
@@ -7817,25 +7834,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7844,7 +7861,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7853,16 +7870,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q82" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R82" s="15" t="s">
         <v>57</v>
@@ -7870,25 +7887,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7897,7 +7914,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7906,16 +7923,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q83" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="R83" s="15" t="s">
         <v>57</v>
@@ -7923,22 +7940,22 @@
     </row>
     <row r="84" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="21">
@@ -7948,7 +7965,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L84" s="24" t="s">
         <v>53</v>
@@ -7957,7 +7974,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="25" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P84" s="26" t="s">
         <v>57</v>
@@ -7965,22 +7982,22 @@
     </row>
     <row r="85" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="21">
@@ -7990,7 +8007,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L85" s="24" t="s">
         <v>53</v>
@@ -7999,7 +8016,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P85" s="26" t="s">
         <v>57</v>
@@ -8007,22 +8024,22 @@
     </row>
     <row r="86" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="21">
@@ -8039,7 +8056,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P86" s="26" t="s">
         <v>57</v>
@@ -8047,22 +8064,22 @@
     </row>
     <row r="87" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="21">
@@ -8079,7 +8096,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P87" s="26" t="s">
         <v>57</v>
@@ -8087,22 +8104,22 @@
     </row>
     <row r="88" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="21">
@@ -8112,7 +8129,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L88" s="24" t="s">
         <v>53</v>
@@ -8121,7 +8138,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P88" s="26" t="s">
         <v>57</v>
@@ -8129,25 +8146,25 @@
     </row>
     <row r="89" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H89" s="21">
         <v>19180580229</v>
@@ -8156,7 +8173,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="23" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L89" s="24" t="s">
         <v>53</v>
@@ -8165,7 +8182,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P89" s="26" t="s">
         <v>57</v>
@@ -8173,22 +8190,22 @@
     </row>
     <row r="90" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="21">
@@ -8198,7 +8215,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L90" s="24" t="s">
         <v>53</v>
@@ -8207,7 +8224,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P90" s="26" t="s">
         <v>57</v>
@@ -8215,22 +8232,22 @@
     </row>
     <row r="91" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="21">
@@ -8240,7 +8257,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L91" s="24" t="s">
         <v>53</v>
@@ -8249,7 +8266,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P91" s="26" t="s">
         <v>57</v>
@@ -8257,22 +8274,22 @@
     </row>
     <row r="92" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="21">
@@ -8282,7 +8299,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="23" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L92" s="24" t="s">
         <v>53</v>
@@ -8291,7 +8308,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P92" s="26" t="s">
         <v>57</v>
@@ -8299,22 +8316,22 @@
     </row>
     <row r="93" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="21">
@@ -8324,7 +8341,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L93" s="24" t="s">
         <v>53</v>
@@ -8333,7 +8350,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="25" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P93" s="26" t="s">
         <v>57</v>
@@ -8341,25 +8358,25 @@
     </row>
     <row r="94" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H94" s="21">
         <v>19180580229</v>
@@ -8368,7 +8385,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="23" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L94" s="24" t="s">
         <v>53</v>
@@ -8377,7 +8394,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="25" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P94" s="26" t="s">
         <v>57</v>
@@ -8385,25 +8402,25 @@
     </row>
     <row r="95" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H95" s="21">
         <v>19180580229</v>
@@ -8412,7 +8429,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L95" s="24" t="s">
         <v>53</v>
@@ -8421,7 +8438,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="25" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P95" s="26" t="s">
         <v>57</v>
@@ -8429,22 +8446,22 @@
     </row>
     <row r="96" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="21">
@@ -8454,7 +8471,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L96" s="24" t="s">
         <v>53</v>
@@ -8463,7 +8480,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="25" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P96" s="26" t="s">
         <v>57</v>
@@ -8471,22 +8488,22 @@
     </row>
     <row r="97" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="21">
@@ -8496,7 +8513,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L97" s="24" t="s">
         <v>53</v>
@@ -8505,7 +8522,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="25" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P97" s="26" t="s">
         <v>57</v>
@@ -8513,22 +8530,22 @@
     </row>
     <row r="98" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="21">
@@ -8545,7 +8562,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="25" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P98" s="26" t="s">
         <v>57</v>
@@ -8553,22 +8570,22 @@
     </row>
     <row r="99" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B99" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>361</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>366</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G99" s="22"/>
       <c r="H99" s="21">
@@ -8585,7 +8602,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="25" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P99" s="26" t="s">
         <v>57</v>
@@ -8593,22 +8610,22 @@
     </row>
     <row r="100" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="21">
@@ -8618,7 +8635,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L100" s="24" t="s">
         <v>53</v>
@@ -8627,7 +8644,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P100" s="26" t="s">
         <v>57</v>
@@ -8635,22 +8652,22 @@
     </row>
     <row r="101" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="21">
@@ -8660,7 +8677,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L101" s="24" t="s">
         <v>53</v>
@@ -8669,7 +8686,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P101" s="26" t="s">
         <v>57</v>
@@ -8677,22 +8694,22 @@
     </row>
     <row r="102" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="21">
@@ -8709,7 +8726,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="25" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P102" s="26" t="s">
         <v>57</v>
@@ -8717,22 +8734,22 @@
     </row>
     <row r="103" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G103" s="22"/>
       <c r="H103" s="21">
@@ -8742,7 +8759,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L103" s="24" t="s">
         <v>53</v>
@@ -8751,7 +8768,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P103" s="26" t="s">
         <v>57</v>
@@ -8759,22 +8776,22 @@
     </row>
     <row r="104" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G104" s="22"/>
       <c r="H104" s="21">
@@ -8791,7 +8808,7 @@
         <v>54</v>
       </c>
       <c r="O104" s="25" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P104" s="26" t="s">
         <v>62</v>
@@ -8799,22 +8816,22 @@
     </row>
     <row r="105" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G105" s="22"/>
       <c r="H105" s="21">
@@ -8824,7 +8841,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L105" s="24" t="s">
         <v>53</v>
@@ -8833,7 +8850,7 @@
         <v>54</v>
       </c>
       <c r="O105" s="25" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P105" s="26" t="s">
         <v>62</v>
@@ -8841,25 +8858,25 @@
     </row>
     <row r="106" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H106" s="21">
         <v>13688468803</v>
@@ -8868,7 +8885,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L106" s="24" t="s">
         <v>53</v>
@@ -8877,7 +8894,7 @@
         <v>54</v>
       </c>
       <c r="O106" s="25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P106" s="26" t="s">
         <v>62</v>
@@ -8885,22 +8902,22 @@
     </row>
     <row r="107" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G107" s="22"/>
       <c r="H107" s="21">
@@ -8917,7 +8934,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="25" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P107" s="26" t="s">
         <v>57</v>
@@ -8925,10 +8942,10 @@
     </row>
     <row r="108" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>51</v>
@@ -8940,7 +8957,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G108" s="22"/>
       <c r="H108" s="21">
@@ -8950,7 +8967,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L108" s="24" t="s">
         <v>53</v>
@@ -8967,10 +8984,10 @@
     </row>
     <row r="109" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>63</v>
@@ -8979,10 +8996,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G109" s="22"/>
       <c r="H109" s="21">
@@ -8992,7 +9009,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L109" s="24" t="s">
         <v>53</v>
@@ -9009,22 +9026,22 @@
     </row>
     <row r="110" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G110" s="22"/>
       <c r="H110" s="21">
@@ -9034,7 +9051,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L110" s="24" t="s">
         <v>53</v>
@@ -9043,7 +9060,7 @@
         <v>54</v>
       </c>
       <c r="O110" s="25" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P110" s="26" t="s">
         <v>62</v>
@@ -9051,22 +9068,22 @@
     </row>
     <row r="111" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G111" s="22"/>
       <c r="H111" s="21">
@@ -9076,7 +9093,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L111" s="24" t="s">
         <v>53</v>
@@ -9085,7 +9102,7 @@
         <v>54</v>
       </c>
       <c r="O111" s="25" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P111" s="26" t="s">
         <v>62</v>
@@ -9093,22 +9110,22 @@
     </row>
     <row r="112" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G112" s="22"/>
       <c r="H112" s="21">
@@ -9118,16 +9135,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L112" s="24" t="s">
         <v>157</v>
       </c>
       <c r="M112" s="23" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O112" s="25" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P112" s="26" t="s">
         <v>62</v>
@@ -9135,22 +9152,22 @@
     </row>
     <row r="113" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G113" s="22"/>
       <c r="H113" s="21">
@@ -9160,7 +9177,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L113" s="24" t="s">
         <v>53</v>
@@ -9169,7 +9186,7 @@
         <v>54</v>
       </c>
       <c r="O113" s="25" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P113" s="26" t="s">
         <v>62</v>
@@ -9177,22 +9194,22 @@
     </row>
     <row r="114" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G114" s="22"/>
       <c r="H114" s="21">
@@ -9209,7 +9226,7 @@
         <v>54</v>
       </c>
       <c r="O114" s="25" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P114" s="26" t="s">
         <v>62</v>
@@ -9217,22 +9234,22 @@
     </row>
     <row r="115" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G115" s="22"/>
       <c r="H115" s="21">
@@ -9242,7 +9259,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="23" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L115" s="24" t="s">
         <v>53</v>
@@ -9251,7 +9268,7 @@
         <v>54</v>
       </c>
       <c r="O115" s="25" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P115" s="26" t="s">
         <v>62</v>
@@ -9259,22 +9276,22 @@
     </row>
     <row r="116" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D116" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G116" s="22"/>
       <c r="H116" s="21">
@@ -9284,7 +9301,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L116" s="24" t="s">
         <v>53</v>
@@ -9293,7 +9310,7 @@
         <v>54</v>
       </c>
       <c r="O116" s="25" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P116" s="26" t="s">
         <v>62</v>
@@ -9301,22 +9318,22 @@
     </row>
     <row r="117" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D117" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="21">
@@ -9326,7 +9343,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L117" s="24" t="s">
         <v>53</v>
@@ -9335,7 +9352,7 @@
         <v>54</v>
       </c>
       <c r="O117" s="25" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P117" s="26" t="s">
         <v>62</v>
@@ -9343,22 +9360,22 @@
     </row>
     <row r="118" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D118" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="21">
@@ -9368,7 +9385,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="23" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L118" s="24" t="s">
         <v>53</v>
@@ -9377,7 +9394,7 @@
         <v>54</v>
       </c>
       <c r="O118" s="25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P118" s="26" t="s">
         <v>62</v>

--- a/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
+++ b/test_case_data/bmc/bmc_ElectricBicycle_20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="619">
   <si>
     <t>url</t>
   </si>
@@ -934,18 +934,6 @@
     <t>【号牌换领】提交申请成功</t>
   </si>
   <si>
-    <t>/pvtapi/elecBicyChange/apply/submit</t>
-  </si>
-  <si>
-    <t>{"changeApplyInfoList":[{"gyFgfId":12339157,"type":1}]}</t>
-  </si>
-  <si>
-    <t>http://yapi.hikcreate.com/project/32/interface/api/78476</t>
-  </si>
-  <si>
-    <t>ElecBicyChange005</t>
-  </si>
-  <si>
     <t>撤回申请</t>
   </si>
   <si>
@@ -2683,6 +2671,71 @@
   </si>
   <si>
     <t>elecBicyApplyPage001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/78476</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/submit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>applySubmit001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"changeApplyInfoList":[{"gyFgfId":12339157,"type":1}]}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/32/interface/api/78478</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pvtapi/elecBicyChange/apply/recall</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecall00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3331,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3347,7 +3400,7 @@
     <col min="8" max="8" width="24.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="28.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="50.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.75" style="3" customWidth="1"/>
     <col min="13" max="13" width="72.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="84.625" style="3" customWidth="1"/>
@@ -4053,19 +4106,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="35" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>477</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>481</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>0</v>
@@ -4074,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>2</v>
@@ -4083,28 +4136,28 @@
         <v>3</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -4387,22 +4440,22 @@
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="27">
@@ -4412,25 +4465,25 @@
         <v>52</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>57</v>
@@ -4438,13 +4491,13 @@
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -4453,7 +4506,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1">
@@ -4463,22 +4516,22 @@
         <v>52</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>57</v>
@@ -4486,13 +4539,13 @@
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -4501,7 +4554,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="1">
@@ -4521,13 +4574,13 @@
         <v>60</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>57</v>
@@ -4535,7 +4588,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -4547,10 +4600,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1">
@@ -4560,7 +4613,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
@@ -4569,13 +4622,13 @@
         <v>54</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>62</v>
@@ -4583,13 +4636,13 @@
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -4598,7 +4651,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="1">
@@ -4608,7 +4661,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>53</v>
@@ -4620,13 +4673,13 @@
         <v>64</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>57</v>
@@ -4634,7 +4687,7 @@
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -4649,7 +4702,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1">
@@ -4659,7 +4712,7 @@
         <v>52</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>53</v>
@@ -4674,10 +4727,10 @@
         <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>57</v>
@@ -4685,13 +4738,13 @@
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -4700,7 +4753,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="1">
@@ -4710,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>53</v>
@@ -4719,13 +4772,13 @@
         <v>54</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R19" s="18" t="s">
         <v>57</v>
@@ -4733,13 +4786,13 @@
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4748,7 +4801,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="1">
@@ -4758,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>53</v>
@@ -4767,13 +4820,13 @@
         <v>54</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>57</v>
@@ -4781,7 +4834,7 @@
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -4806,7 +4859,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>53</v>
@@ -4818,10 +4871,10 @@
         <v>73</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>57</v>
@@ -4829,13 +4882,13 @@
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -4844,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="1">
@@ -4854,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
@@ -4863,13 +4916,13 @@
         <v>54</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>57</v>
@@ -4877,7 +4930,7 @@
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -4914,10 +4967,10 @@
         <v>78</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>57</v>
@@ -4925,7 +4978,7 @@
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
@@ -4962,10 +5015,10 @@
         <v>78</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>57</v>
@@ -4973,7 +5026,7 @@
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -5007,13 +5060,13 @@
         <v>54</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>57</v>
@@ -5021,7 +5074,7 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
@@ -5058,10 +5111,10 @@
         <v>78</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>57</v>
@@ -5069,7 +5122,7 @@
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -5084,7 +5137,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="1">
@@ -5106,10 +5159,10 @@
         <v>78</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>57</v>
@@ -5117,7 +5170,7 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
@@ -5154,10 +5207,10 @@
         <v>78</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>57</v>
@@ -5165,7 +5218,7 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>50</v>
@@ -5202,10 +5255,10 @@
         <v>78</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>57</v>
@@ -5213,7 +5266,7 @@
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
@@ -5250,10 +5303,10 @@
         <v>78</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>57</v>
@@ -5261,7 +5314,7 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>50</v>
@@ -5276,7 +5329,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1">
@@ -5298,10 +5351,10 @@
         <v>78</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>57</v>
@@ -5309,13 +5362,13 @@
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -5324,7 +5377,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1">
@@ -5334,7 +5387,7 @@
         <v>52</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>53</v>
@@ -5346,13 +5399,13 @@
         <v>97</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>57</v>
@@ -5360,13 +5413,13 @@
     </row>
     <row r="33" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -5375,10 +5428,10 @@
         <v>98</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H33" s="1">
         <v>17822000000</v>
@@ -5387,7 +5440,7 @@
         <v>52</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>53</v>
@@ -5399,13 +5452,13 @@
         <v>99</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R33" s="15" t="s">
         <v>57</v>
@@ -5413,13 +5466,13 @@
     </row>
     <row r="34" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -5428,7 +5481,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -5438,7 +5491,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>53</v>
@@ -5447,13 +5500,13 @@
         <v>54</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R34" s="15" t="s">
         <v>57</v>
@@ -5461,7 +5514,7 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
@@ -5486,7 +5539,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>53</v>
@@ -5501,10 +5554,10 @@
         <v>102</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>57</v>
@@ -5512,7 +5565,7 @@
     </row>
     <row r="36" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>50</v>
@@ -5552,10 +5605,10 @@
         <v>102</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R36" s="15" t="s">
         <v>57</v>
@@ -5563,13 +5616,13 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -5578,7 +5631,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1">
@@ -5597,13 +5650,13 @@
         <v>54</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>57</v>
@@ -5611,13 +5664,13 @@
     </row>
     <row r="38" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -5626,7 +5679,7 @@
         <v>112</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1">
@@ -5636,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>53</v>
@@ -5645,13 +5698,13 @@
         <v>54</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>57</v>
@@ -5659,7 +5712,7 @@
     </row>
     <row r="39" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
@@ -5674,7 +5727,7 @@
         <v>115</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>110</v>
@@ -5686,7 +5739,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>53</v>
@@ -5695,16 +5748,16 @@
         <v>54</v>
       </c>
       <c r="N39" s="36" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>57</v>
@@ -5712,7 +5765,7 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -5727,7 +5780,7 @@
         <v>58</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="1">
@@ -5746,13 +5799,13 @@
         <v>54</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>57</v>
@@ -5760,13 +5813,13 @@
     </row>
     <row r="41" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -5775,7 +5828,7 @@
         <v>120</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>110</v>
@@ -5787,7 +5840,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>53</v>
@@ -5799,13 +5852,13 @@
         <v>121</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>57</v>
@@ -5813,13 +5866,13 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
@@ -5828,7 +5881,7 @@
         <v>122</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>110</v>
@@ -5849,13 +5902,13 @@
         <v>54</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>57</v>
@@ -5863,13 +5916,13 @@
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -5878,7 +5931,7 @@
         <v>125</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>110</v>
@@ -5899,13 +5952,13 @@
         <v>54</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>57</v>
@@ -5919,7 +5972,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -5955,10 +6008,10 @@
         <v>118</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>57</v>
@@ -5981,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="38">
@@ -5991,7 +6044,7 @@
         <v>13</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L45" s="41" t="s">
         <v>53</v>
@@ -6006,10 +6059,10 @@
         <v>113</v>
       </c>
       <c r="P45" s="38" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q45" s="38" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R45" s="43" t="s">
         <v>57</v>
@@ -6059,10 +6112,10 @@
         <v>118</v>
       </c>
       <c r="P46" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R46" s="52" t="s">
         <v>57</v>
@@ -6112,10 +6165,10 @@
         <v>118</v>
       </c>
       <c r="P47" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q47" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R47" s="52" t="s">
         <v>57</v>
@@ -6165,10 +6218,10 @@
         <v>118</v>
       </c>
       <c r="P48" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R48" s="52" t="s">
         <v>57</v>
@@ -6218,10 +6271,10 @@
         <v>118</v>
       </c>
       <c r="P49" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R49" s="52" t="s">
         <v>57</v>
@@ -6271,10 +6324,10 @@
         <v>118</v>
       </c>
       <c r="P50" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R50" s="52" t="s">
         <v>57</v>
@@ -6324,10 +6377,10 @@
         <v>118</v>
       </c>
       <c r="P51" s="45" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q51" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R51" s="52" t="s">
         <v>57</v>
@@ -6335,13 +6388,13 @@
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
@@ -6350,7 +6403,7 @@
         <v>155</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>150</v>
@@ -6362,7 +6415,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>157</v>
@@ -6374,13 +6427,13 @@
         <v>159</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>57</v>
@@ -6388,7 +6441,7 @@
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
@@ -6427,13 +6480,13 @@
         <v>159</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R53" s="15" t="s">
         <v>57</v>
@@ -6441,7 +6494,7 @@
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
@@ -6468,7 +6521,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>53</v>
@@ -6480,10 +6533,10 @@
         <v>160</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R54" s="15" t="s">
         <v>57</v>
@@ -6491,7 +6544,7 @@
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
@@ -6506,7 +6559,7 @@
         <v>165</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>166</v>
@@ -6518,7 +6571,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>53</v>
@@ -6527,13 +6580,13 @@
         <v>54</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q55" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>57</v>
@@ -6541,7 +6594,7 @@
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -6556,7 +6609,7 @@
         <v>168</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>164</v>
@@ -6583,10 +6636,10 @@
         <v>173</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R56" s="15" t="s">
         <v>57</v>
@@ -6594,7 +6647,7 @@
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -6636,10 +6689,10 @@
         <v>173</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R57" s="15" t="s">
         <v>57</v>
@@ -6647,7 +6700,7 @@
     </row>
     <row r="58" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
@@ -6686,10 +6739,10 @@
         <v>173</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R58" s="15" t="s">
         <v>57</v>
@@ -6732,10 +6785,10 @@
         <v>183</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>57</v>
@@ -6743,13 +6796,13 @@
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -6758,7 +6811,7 @@
         <v>185</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1">
@@ -6775,13 +6828,13 @@
         <v>54</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>57</v>
@@ -6789,13 +6842,13 @@
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="30" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -6804,7 +6857,7 @@
         <v>187</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1">
@@ -6821,13 +6874,13 @@
         <v>54</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q61" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>57</v>
@@ -6835,13 +6888,13 @@
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -6850,7 +6903,7 @@
         <v>190</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1">
@@ -6869,13 +6922,13 @@
         <v>54</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q62" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>57</v>
@@ -6883,13 +6936,13 @@
     </row>
     <row r="63" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>611</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -6898,7 +6951,7 @@
         <v>194</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>195</v>
+        <v>613</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1">
@@ -6907,8 +6960,8 @@
       <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="12" t="s">
-        <v>196</v>
+      <c r="K63" s="29" t="s">
+        <v>615</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>53</v>
@@ -6917,36 +6970,36 @@
         <v>54</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>197</v>
+        <v>612</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>198</v>
+      <c r="A64" s="30" t="s">
+        <v>618</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>617</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>192</v>
@@ -6958,7 +7011,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>53</v>
@@ -6967,16 +7020,16 @@
         <v>54</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>204</v>
+        <v>616</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>57</v>
@@ -6984,25 +7037,25 @@
     </row>
     <row r="65" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H65" s="1">
         <v>19180580229</v>
@@ -7011,7 +7064,7 @@
         <v>13</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>157</v>
@@ -7020,16 +7073,16 @@
         <v>54</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>57</v>
@@ -7037,25 +7090,25 @@
     </row>
     <row r="66" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H66" s="1">
         <v>19180580229</v>
@@ -7064,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>157</v>
@@ -7073,16 +7126,16 @@
         <v>54</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>57</v>
@@ -7090,25 +7143,25 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H67" s="1">
         <v>19180580229</v>
@@ -7117,7 +7170,7 @@
         <v>13</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>157</v>
@@ -7126,16 +7179,16 @@
         <v>54</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O67" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q67" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>57</v>
@@ -7143,7 +7196,7 @@
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>184</v>
@@ -7155,7 +7208,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>188</v>
@@ -7175,16 +7228,16 @@
         <v>54</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O68" s="19" t="s">
         <v>189</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q68" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>57</v>
@@ -7192,22 +7245,22 @@
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="1">
@@ -7224,13 +7277,13 @@
         <v>54</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q69" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>57</v>
@@ -7238,22 +7291,22 @@
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="1">
@@ -7263,7 +7316,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>53</v>
@@ -7272,13 +7325,13 @@
         <v>54</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q70" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>57</v>
@@ -7286,22 +7339,22 @@
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="1">
@@ -7311,25 +7364,25 @@
         <v>52</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>157</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q71" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>57</v>
@@ -7337,22 +7390,22 @@
     </row>
     <row r="72" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="1">
@@ -7362,7 +7415,7 @@
         <v>52</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>53</v>
@@ -7371,13 +7424,13 @@
         <v>54</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q72" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>57</v>
@@ -7385,10 +7438,10 @@
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>193</v>
@@ -7400,7 +7453,7 @@
         <v>193</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="1">
@@ -7410,7 +7463,7 @@
         <v>13</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>53</v>
@@ -7419,13 +7472,13 @@
         <v>54</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>57</v>
@@ -7433,22 +7486,22 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="1">
@@ -7465,13 +7518,13 @@
         <v>54</v>
       </c>
       <c r="O74" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q74" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>57</v>
@@ -7479,22 +7532,22 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="1">
@@ -7504,7 +7557,7 @@
         <v>52</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>53</v>
@@ -7513,13 +7566,13 @@
         <v>54</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q75" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>57</v>
@@ -7527,22 +7580,22 @@
     </row>
     <row r="76" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="1">
@@ -7552,7 +7605,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>53</v>
@@ -7561,13 +7614,13 @@
         <v>54</v>
       </c>
       <c r="O76" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>57</v>
@@ -7575,25 +7628,25 @@
     </row>
     <row r="77" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H77" s="1">
         <v>19180580229</v>
@@ -7602,7 +7655,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>53</v>
@@ -7611,13 +7664,13 @@
         <v>54</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q77" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>57</v>
@@ -7625,25 +7678,25 @@
     </row>
     <row r="78" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H78" s="1">
         <v>19180580229</v>
@@ -7652,7 +7705,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>53</v>
@@ -7661,13 +7714,13 @@
         <v>54</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q78" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>57</v>
@@ -7675,25 +7728,25 @@
     </row>
     <row r="79" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H79" s="1">
         <v>19180580229</v>
@@ -7702,7 +7755,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>53</v>
@@ -7711,16 +7764,16 @@
         <v>54</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q79" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>57</v>
@@ -7728,25 +7781,25 @@
     </row>
     <row r="80" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H80" s="1">
         <v>19180580229</v>
@@ -7755,7 +7808,7 @@
         <v>52</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>53</v>
@@ -7764,16 +7817,16 @@
         <v>54</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R80" s="15" t="s">
         <v>57</v>
@@ -7781,25 +7834,25 @@
     </row>
     <row r="81" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H81" s="1">
         <v>19180580229</v>
@@ -7808,7 +7861,7 @@
         <v>52</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>53</v>
@@ -7817,16 +7870,16 @@
         <v>54</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q81" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R81" s="15" t="s">
         <v>57</v>
@@ -7834,25 +7887,25 @@
     </row>
     <row r="82" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H82" s="1">
         <v>19180580229</v>
@@ -7861,7 +7914,7 @@
         <v>52</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>53</v>
@@ -7870,16 +7923,16 @@
         <v>54</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q82" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R82" s="15" t="s">
         <v>57</v>
@@ -7887,25 +7940,25 @@
     </row>
     <row r="83" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H83" s="1">
         <v>19180580229</v>
@@ -7914,7 +7967,7 @@
         <v>52</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>53</v>
@@ -7923,16 +7976,16 @@
         <v>54</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q83" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R83" s="15" t="s">
         <v>57</v>
@@ -7940,22 +7993,22 @@
     </row>
     <row r="84" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="21">
@@ -7965,7 +8018,7 @@
         <v>52</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L84" s="24" t="s">
         <v>53</v>
@@ -7974,7 +8027,7 @@
         <v>54</v>
       </c>
       <c r="O84" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P84" s="26" t="s">
         <v>57</v>
@@ -7982,22 +8035,22 @@
     </row>
     <row r="85" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="21">
@@ -8007,7 +8060,7 @@
         <v>52</v>
       </c>
       <c r="K85" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L85" s="24" t="s">
         <v>53</v>
@@ -8016,7 +8069,7 @@
         <v>54</v>
       </c>
       <c r="O85" s="25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P85" s="26" t="s">
         <v>57</v>
@@ -8024,22 +8077,22 @@
     </row>
     <row r="86" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="21">
@@ -8056,7 +8109,7 @@
         <v>54</v>
       </c>
       <c r="O86" s="25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P86" s="26" t="s">
         <v>57</v>
@@ -8064,22 +8117,22 @@
     </row>
     <row r="87" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="21">
@@ -8096,7 +8149,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P87" s="26" t="s">
         <v>57</v>
@@ -8104,22 +8157,22 @@
     </row>
     <row r="88" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G88" s="22"/>
       <c r="H88" s="21">
@@ -8129,7 +8182,7 @@
         <v>13</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L88" s="24" t="s">
         <v>53</v>
@@ -8138,7 +8191,7 @@
         <v>54</v>
       </c>
       <c r="O88" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P88" s="26" t="s">
         <v>57</v>
@@ -8146,25 +8199,25 @@
     </row>
     <row r="89" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H89" s="21">
         <v>19180580229</v>
@@ -8173,7 +8226,7 @@
         <v>52</v>
       </c>
       <c r="K89" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L89" s="24" t="s">
         <v>53</v>
@@ -8182,7 +8235,7 @@
         <v>54</v>
       </c>
       <c r="O89" s="25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P89" s="26" t="s">
         <v>57</v>
@@ -8190,22 +8243,22 @@
     </row>
     <row r="90" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="21">
@@ -8215,7 +8268,7 @@
         <v>52</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L90" s="24" t="s">
         <v>53</v>
@@ -8224,7 +8277,7 @@
         <v>54</v>
       </c>
       <c r="O90" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P90" s="26" t="s">
         <v>57</v>
@@ -8232,22 +8285,22 @@
     </row>
     <row r="91" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="21">
@@ -8257,7 +8310,7 @@
         <v>52</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L91" s="24" t="s">
         <v>53</v>
@@ -8266,7 +8319,7 @@
         <v>54</v>
       </c>
       <c r="O91" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P91" s="26" t="s">
         <v>57</v>
@@ -8274,22 +8327,22 @@
     </row>
     <row r="92" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="21">
@@ -8299,7 +8352,7 @@
         <v>52</v>
       </c>
       <c r="K92" s="23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L92" s="24" t="s">
         <v>53</v>
@@ -8308,7 +8361,7 @@
         <v>54</v>
       </c>
       <c r="O92" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P92" s="26" t="s">
         <v>57</v>
@@ -8316,22 +8369,22 @@
     </row>
     <row r="93" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="21">
@@ -8341,7 +8394,7 @@
         <v>13</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L93" s="24" t="s">
         <v>53</v>
@@ -8350,7 +8403,7 @@
         <v>54</v>
       </c>
       <c r="O93" s="25" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P93" s="26" t="s">
         <v>57</v>
@@ -8358,25 +8411,25 @@
     </row>
     <row r="94" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H94" s="21">
         <v>19180580229</v>
@@ -8385,7 +8438,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="23" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L94" s="24" t="s">
         <v>53</v>
@@ -8394,7 +8447,7 @@
         <v>54</v>
       </c>
       <c r="O94" s="25" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P94" s="26" t="s">
         <v>57</v>
@@ -8402,25 +8455,25 @@
     </row>
     <row r="95" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H95" s="21">
         <v>19180580229</v>
@@ -8429,7 +8482,7 @@
         <v>52</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L95" s="24" t="s">
         <v>53</v>
@@ -8438,7 +8491,7 @@
         <v>54</v>
       </c>
       <c r="O95" s="25" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P95" s="26" t="s">
         <v>57</v>
@@ -8446,22 +8499,22 @@
     </row>
     <row r="96" spans="1:18" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="21">
@@ -8471,7 +8524,7 @@
         <v>13</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L96" s="24" t="s">
         <v>53</v>
@@ -8480,7 +8533,7 @@
         <v>54</v>
       </c>
       <c r="O96" s="25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P96" s="26" t="s">
         <v>57</v>
@@ -8488,22 +8541,22 @@
     </row>
     <row r="97" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="21">
@@ -8513,7 +8566,7 @@
         <v>13</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L97" s="24" t="s">
         <v>53</v>
@@ -8522,7 +8575,7 @@
         <v>54</v>
       </c>
       <c r="O97" s="25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P97" s="26" t="s">
         <v>57</v>
@@ -8530,22 +8583,22 @@
     </row>
     <row r="98" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="21">
@@ -8562,7 +8615,7 @@
         <v>54</v>
       </c>
       <c r="O98" s="25" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P98" s="26" t="s">
         <v>57</v>
@@ -8570,22 +8623,22 @@
     </row>
     <row r="99" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G99" s="22"/>
       <c r="H99" s="21">
@@ -8602,7 +8655,7 @@
         <v>54</v>
       </c>
       <c r="O99" s="25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P99" s="26" t="s">
         <v>57</v>
@@ -8610,22 +8663,22 @@
     </row>
     <row r="100" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="21">
@@ -8635,7 +8688,7 @@
         <v>52</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L100" s="24" t="s">
         <v>53</v>
@@ -8644,7 +8697,7 @@
         <v>54</v>
       </c>
       <c r="O100" s="25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P100" s="26" t="s">
         <v>57</v>
@@ -8652,22 +8705,22 @@
     </row>
     <row r="101" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="21">
@@ -8677,7 +8730,7 @@
         <v>52</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L101" s="24" t="s">
         <v>53</v>
@@ -8686,7 +8739,7 @@
         <v>54</v>
       </c>
       <c r="O101" s="25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P101" s="26" t="s">
         <v>57</v>
@@ -8694,22 +8747,22 @@
     </row>
     <row r="102" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="21">
@@ -8726,7 +8779,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P102" s="26" t="s">
         <v>57</v>
@@ -8734,22 +8787,22 @@
     </row>
     <row r="103" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G103" s="22"/>
       <c r="H103" s="21">
@@ -8759,7 +8812,7 @@
         <v>13</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L103" s="24" t="s">
         <v>53</v>
@@ -8768,7 +8821,7 @@
         <v>54</v>
       </c>
       <c r="O103" s="25" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P103" s="26" t="s">
         <v>57</v>
@@ -8776,22 +8829,22 @@
     </row>
     <row r="104" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G104" s="22"/>
       <c r="H104" s="21">
@@ -8808,7 +8861,7 @@
         <v>54</v>
       </c>
       <c r="O104" s="25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P104" s="26" t="s">
         <v>62</v>
@@ -8816,22 +8869,22 @@
     </row>
     <row r="105" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G105" s="22"/>
       <c r="H105" s="21">
@@ -8841,7 +8894,7 @@
         <v>13</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L105" s="24" t="s">
         <v>53</v>
@@ -8850,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="O105" s="25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P105" s="26" t="s">
         <v>62</v>
@@ -8858,25 +8911,25 @@
     </row>
     <row r="106" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H106" s="21">
         <v>13688468803</v>
@@ -8885,7 +8938,7 @@
         <v>52</v>
       </c>
       <c r="K106" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L106" s="24" t="s">
         <v>53</v>
@@ -8894,7 +8947,7 @@
         <v>54</v>
       </c>
       <c r="O106" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P106" s="26" t="s">
         <v>62</v>
@@ -8902,22 +8955,22 @@
     </row>
     <row r="107" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G107" s="22"/>
       <c r="H107" s="21">
@@ -8934,7 +8987,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="25" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P107" s="26" t="s">
         <v>57</v>
@@ -8942,10 +8995,10 @@
     </row>
     <row r="108" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>51</v>
@@ -8957,7 +9010,7 @@
         <v>51</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G108" s="22"/>
       <c r="H108" s="21">
@@ -8967,7 +9020,7 @@
         <v>52</v>
       </c>
       <c r="K108" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L108" s="24" t="s">
         <v>53</v>
@@ -8984,10 +9037,10 @@
     </row>
     <row r="109" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>63</v>
@@ -8996,10 +9049,10 @@
         <v>20</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G109" s="22"/>
       <c r="H109" s="21">
@@ -9009,7 +9062,7 @@
         <v>52</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L109" s="24" t="s">
         <v>53</v>
@@ -9026,22 +9079,22 @@
     </row>
     <row r="110" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G110" s="22"/>
       <c r="H110" s="21">
@@ -9051,7 +9104,7 @@
         <v>13</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L110" s="24" t="s">
         <v>53</v>
@@ -9060,7 +9113,7 @@
         <v>54</v>
       </c>
       <c r="O110" s="25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P110" s="26" t="s">
         <v>62</v>
@@ -9068,22 +9121,22 @@
     </row>
     <row r="111" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G111" s="22"/>
       <c r="H111" s="21">
@@ -9093,7 +9146,7 @@
         <v>13</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L111" s="24" t="s">
         <v>53</v>
@@ -9102,7 +9155,7 @@
         <v>54</v>
       </c>
       <c r="O111" s="25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P111" s="26" t="s">
         <v>62</v>
@@ -9110,22 +9163,22 @@
     </row>
     <row r="112" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G112" s="22"/>
       <c r="H112" s="21">
@@ -9135,16 +9188,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L112" s="24" t="s">
         <v>157</v>
       </c>
       <c r="M112" s="23" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O112" s="25" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P112" s="26" t="s">
         <v>62</v>
@@ -9152,22 +9205,22 @@
     </row>
     <row r="113" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G113" s="22"/>
       <c r="H113" s="21">
@@ -9177,7 +9230,7 @@
         <v>52</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L113" s="24" t="s">
         <v>53</v>
@@ -9186,7 +9239,7 @@
         <v>54</v>
       </c>
       <c r="O113" s="25" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P113" s="26" t="s">
         <v>62</v>
@@ -9194,22 +9247,22 @@
     </row>
     <row r="114" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G114" s="22"/>
       <c r="H114" s="21">
@@ -9226,7 +9279,7 @@
         <v>54</v>
       </c>
       <c r="O114" s="25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P114" s="26" t="s">
         <v>62</v>
@@ -9234,22 +9287,22 @@
     </row>
     <row r="115" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G115" s="22"/>
       <c r="H115" s="21">
@@ -9259,7 +9312,7 @@
         <v>52</v>
       </c>
       <c r="K115" s="23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L115" s="24" t="s">
         <v>53</v>
@@ -9268,7 +9321,7 @@
         <v>54</v>
       </c>
       <c r="O115" s="25" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P115" s="26" t="s">
         <v>62</v>
@@ -9276,22 +9329,22 @@
     </row>
     <row r="116" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D116" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G116" s="22"/>
       <c r="H116" s="21">
@@ -9301,7 +9354,7 @@
         <v>52</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L116" s="24" t="s">
         <v>53</v>
@@ -9310,7 +9363,7 @@
         <v>54</v>
       </c>
       <c r="O116" s="25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P116" s="26" t="s">
         <v>62</v>
@@ -9318,22 +9371,22 @@
     </row>
     <row r="117" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D117" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G117" s="22"/>
       <c r="H117" s="21">
@@ -9343,7 +9396,7 @@
         <v>13</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L117" s="24" t="s">
         <v>53</v>
@@ -9352,7 +9405,7 @@
         <v>54</v>
       </c>
       <c r="O117" s="25" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P117" s="26" t="s">
         <v>62</v>
@@ -9360,22 +9413,22 @@
     </row>
     <row r="118" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D118" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="21">
@@ -9385,7 +9438,7 @@
         <v>52</v>
       </c>
       <c r="K118" s="23" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L118" s="24" t="s">
         <v>53</v>
@@ -9394,7 +9447,7 @@
         <v>54</v>
       </c>
       <c r="O118" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P118" s="26" t="s">
         <v>62</v>
